--- a/Postille.xlsx
+++ b/Postille.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5d451be126981215/Desktop/TesiGadda/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="164" documentId="14_{2B0BE24A-680D-49B1-9903-75BC712BDE44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B2EB4D8-7AB6-455D-A4FD-A184BBC9C230}"/>
+  <xr:revisionPtr revIDLastSave="1010" documentId="14_{9AD434BE-AA17-465C-81A1-E5CA17A31FBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{94BBBE6A-51F9-44AC-B9D0-478FEA6A4115}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{47043BD0-CCA9-4BF6-9B93-1764477DDE15}"/>
+    <workbookView xWindow="12" yWindow="5844" windowWidth="23040" windowHeight="7152" xr2:uid="{47043BD0-CCA9-4BF6-9B93-1764477DDE15}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1604" uniqueCount="1393">
   <si>
     <t>Id</t>
   </si>
@@ -2126,12 +2126,2174 @@
   <si>
     <t>- b</t>
   </si>
+  <si>
+    <t>Dedica dell’autore in data 1952.</t>
+  </si>
+  <si>
+    <t>[p. 179 rr. 13-16 «Fame coacta vulpes alta in vinea/ uvam adpetebat summis saliens viribus;/ quam tangere ut non potuit, discedens ait:/ nodum matura est; nolo acerbam sumere.»]</t>
+  </si>
+  <si>
+    <t>Costrinta (sic) | Domandare, cercare di avere | Salio=salgo | Temporale= quomo (sic)</t>
+  </si>
+  <si>
+    <t>[p. 193 rr. 1-3 «Immisit se barbatus. Tum vulpacula/ evasit puteo, nixa celsis cornibus,/ hircumque clause liquit haerentem vado.»]</t>
+  </si>
+  <si>
+    <t>5 2 4 6</t>
+  </si>
+  <si>
+    <t>[p. 194 rr. 21-24 «Peras imposuit Juppiter nobis duas:/ propriis repletam vitiis post tergum dedit,/ alienis ante pectus suspendit gravem./ Hac re videre nostra mala non possumus;/»]</t>
+  </si>
+  <si>
+    <t>Fuscello</t>
+  </si>
+  <si>
+    <t>Nota di possesso e data alla sovraccoperta: Elettrotecnica G. Ferraris. 1920.</t>
+  </si>
+  <si>
+    <t>[p. 173 marg. dx.]</t>
+  </si>
+  <si>
+    <t>Idiota</t>
+  </si>
+  <si>
+    <t>[p. 412 marg. inf.]</t>
+  </si>
+  <si>
+    <t>Era un vanitoso il più delle volte dà una impressione di puerilità</t>
+  </si>
+  <si>
+    <t>[p. 24 marg. dx.]</t>
+  </si>
+  <si>
+    <t>Asino! Tirato coi denti</t>
+  </si>
+  <si>
+    <t>[p. 27 rr. 10-11 «Cesare, fatto più ardito dopo le prove della guerra Elvetica, offrì subito battaglia.»]</t>
+  </si>
+  <si>
+    <t>Asino! Ti contraddici! Se aveva perduto secondo te...</t>
+  </si>
+  <si>
+    <t>[p. 36 rr. 20-23 «ma Titurio se ne accorse dal ponte, avvistò Cesare, il quale in gran fretta prese la cavalleria, i frombolieri e gli arcieri, lasciando nel campo le legioni; [...]»]</t>
+  </si>
+  <si>
+    <t>Tendenzioso | Tendenzioso ebreo!</t>
+  </si>
+  <si>
+    <t>[p. 37 rr. 13-23 «I Bellovaci, avendo saputo da qualche giorno della invasione degli Edui nel loro territorio, volevano tornare a difendere i loro villaggi, e per trattenerli si era tentato quell’assalto alle comunicazioni dei Romani; fallito il quale e i viveri incominciando a scarseggiare a un così grosso esercito, i Bellovaci si erano mossi tirandosi dietro tutti gli altri popoli, e ciascuno ormai tornava alle proprie sedi. Così, in pochi giorni, questo esercito numeroso si era disfatto.»]</t>
+  </si>
+  <si>
+    <t>Per la genialità di Cesare</t>
+  </si>
+  <si>
+    <t>[p. 38 rr. 5-11 «Erano costoro i più bellicosi dei Belgi, e così barbari, che respingevano dal loro paese selvoso, paludoso e semideserto, i mercanti stranieri, i Greci e gli Italiani che cercavano di vender loro il vino, la perfida bevanda che snerva le anime e indebolisce i corpi.»]</t>
+  </si>
+  <si>
+    <t>Idea fissa sul cap&lt;itolo&gt;. I del De B.&lt;ello&gt; Gallico</t>
+  </si>
+  <si>
+    <t>[p. 38 rr. 15-21 «e si impegnarono in una battaglia violentissima nella quale perfino Cesare dovette combattere come un soldato semplice, e i Romani poterono respingere il nemico solo per la pratica della guerra che i soldati avevano già acquistata nei due anni precedenti.»]</t>
+  </si>
+  <si>
+    <t>E dici poco?</t>
+  </si>
+  <si>
+    <t>[pp. 44-45 rr. 28; 1-11 «Ma nella impressionevole e volubile democrazia italiana, lo sforzo per il successo immediato, lo studio di confondere il pubblico con gli espedienti più veloci, poco importa se pieni di pericoli lontani, erano la condizione stessa della vita per i partiti e per le clientele; onde Cesare, impegnato come era in questa politica di impressioni fugaci e di violente ciarlatanerie, dové servirsi della sua potente intelligenza a immaginare il più temerario di questi espedienti, la più grande ciarlataneria.»]</t>
+  </si>
+  <si>
+    <t>Abbastanza bello</t>
+  </si>
+  <si>
+    <t>[p. 46 rr. 10-15 «Così la conquista romana della Gallia, non fu, nell’intenzione prima del suo autore, se non una manovra elettorale, per impressionare, in mezzo al tumulto di una confusa lotta di partiti e clientele, il Senato, gli uomini politici, gli elettori e la borghesia dell’Italia; [...]»]</t>
+  </si>
+  <si>
+    <t>Ebreo!</t>
+  </si>
+  <si>
+    <t>[p. 61 rr. 3-11 «In questa vita di dissipazione, le donne, che non fossero nate con istinti di virtù nel tempo stesso delicati e fortissimi, perdevano presto la vergogna e la serietà, diventavano leggere lascive venali, rovinavano i mariti e si vendevano ad amanti per soddisfare la smania degli adornamenti, delle stoffe preziose, delle lettighe sontuose, dei begli schiavi stranieri ben pettinati e vestiti, della moniglia costosa.»]</t>
+  </si>
+  <si>
+    <t>Orazio Carmina la III</t>
+  </si>
+  <si>
+    <t>[p. 61 marg. inf.]</t>
+  </si>
+  <si>
+    <t>Inter mariti vina</t>
+  </si>
+  <si>
+    <t>[p. 62-63 rr. 22-26; 1 «ma scampato alle repressioni, aveva continuate le dissipazioni; era diventato amante di Clodia, si era poi guastato con lei, e ora ne era accusato di aver avuto parte nell’assassinio degli ambasciatori mandati da Alessandria ad accusare in Senato Tolomeo Aulete.»]</t>
+  </si>
+  <si>
+    <t>[pp. 64-65 rr. 25-26; 1-6 «Un orgoglio sconsiderato, una temeraria fiducia nella fortuna, una pericolosa inclinazione a considerare la prepotenza e la frode come prove di energia si diffondevano insieme con questo orgiastico furore; e quindi una facile ammirazione della politica aggressiva e dell’amministrazione prodiga; una spensieratezza di debiti maggiore e più rovinosa ancor dell’antica.»]</t>
+  </si>
+  <si>
+    <t>Giusto</t>
+  </si>
+  <si>
+    <t>[pp. 81-82 rr. 23-26: 1 «Frattanto la rivolta de’ Veneti era stata domata, allorché finalmente Decimo Bruto era comparso nelle loro acque con la flotta, raccolta e messa in ordine mentre Cesare si affaticava inutilmente ad assediarne i castelli.»]</t>
+  </si>
+  <si>
+    <t>Ebreo idiota | era Cesare che aveva ordinato la flotta. De B.&lt;ello&gt; Gallico</t>
+  </si>
+  <si>
+    <t>[p. 83 rr. 16-20 «[...]; opera difficile e lenta per sé, che egli tentò in mezzo a tante faccende, non con metodo e perseveranza, ma frettolosamente, con diversi espedienti, come poté.»]</t>
+  </si>
+  <si>
+    <t>Vorrei vedere il Guglielmo Fer |rero al suo posto | !</t>
+  </si>
+  <si>
+    <t>[p. 85 rr. 10-12 «ma a questo punto, con l’opportunismo temerario di cui a più riprese diè prova nella sua vita, mutò politica.»]</t>
+  </si>
+  <si>
+    <t>[p. 94 rr. 17-23 «e adesso rispondeva alle dimostrazioni del giubilio popolare per le vittorie di Cesare, facendo proporre dal più intrepido misovugo della storia, Catone, che Cesare fosse consegnato agli Usipeti e ai Tencteri, per aver violato il diritto delle genti, come la religiosa e austera Roma dei tempi antichi soleva fare.»]</t>
+  </si>
+  <si>
+    <t>Un vecchio idiota, ubriacone</t>
+  </si>
+  <si>
+    <t>[p. 107 rr. 22-24 «Ma Pompeo, aristocratico dilettante di politica, lasciava fare, disgustato ed irritato; [...]»]</t>
+  </si>
+  <si>
+    <t>Cesare è demagogo Pompeo è dilettante ebreo! | Se ha passato tutta la sua vita nella politica!</t>
+  </si>
+  <si>
+    <t>[p. 108 rr. 2-11 «sopravvennero i calori estivi, insopportabili ormai a questi troppo sensitivi discendenti di quei vecchi Romani che si abituavano a non sentire nè calore nè gelo; tutti dissero che non “aveva mai fatto tanto caldo”; che bisognava fuggire in villa. Il Senato rimandò a settembre le elezioni consolari, sperando che frattanto la febbre elettorale darebbe giù, mentre si sarebbero discussi i numerosi processi.»]</t>
+  </si>
+  <si>
+    <t>Altrettanto fanno i democratici e famosissimi francesi</t>
+  </si>
+  <si>
+    <t>[p. 139 rr. 22-24 «ma l’orgoglioso banchiere, che aveva sfidato sino allora tanta procella, non si avvilì; [...];»]</t>
+  </si>
+  <si>
+    <t>Ebreo Guglielmo vorrei vedere te, pacco di cacca</t>
+  </si>
+  <si>
+    <t>[p. 224 rr. 24-30 «Io credevo con il Nepperdey e lo Schneider che erano già finiti al principio del 51 e che quindi furono scritti negli ultimi mesi del 52, dopo la fine della guerra di Vercingetorige e prima del principio delle buone guerre. Se fossero stati scritti nel 51, ma dopo le guerre di quest’anno, anche quelle guerre sarebbesto state raccontate.»]</t>
+  </si>
+  <si>
+    <t>D | Che bravo!</t>
+  </si>
+  <si>
+    <t>[p. 226 marg. sx.]</t>
+  </si>
+  <si>
+    <t>[p. 244 marg. sx.]</t>
+  </si>
+  <si>
+    <t>[pp. 250-251 rr. 27-28; 1-2 «ma pur mutandosi proteicamente a questo modo, per una mirabile plasticità di commozioni, era restato pur sempre uomo semplice e possente;»]</t>
+  </si>
+  <si>
+    <t>E il ciarlatano? E il demagogo?</t>
+  </si>
+  <si>
+    <t>[p. 251 rr. 14-17 «Questo uomo dalla intelligenza così lucida, penetrante ed equilibrata non poteva ostinarsi per cieco orgoglio;»]</t>
+  </si>
+  <si>
+    <t>Ma se prima hai detto che era nervoso, eccitabile, malato, ecc</t>
+  </si>
+  <si>
+    <t>[p. 259 rr. 3-11 «Tutti si immaginavano la futura guerra civile dalle memorie della passata, orrenda per questa generazione nella quale, non ostante la corruzione ed i vizi, pure il sentimento umano, il patriottismo benevolente, l’orrore delle tirannidi sanguinarie e capricciose erano cresciuti, per i benefici influssi della filosofia greca, della ricchezza diffusa, del vivere più raffinato.»]</t>
+  </si>
+  <si>
+    <t>[p. 224 rr. 16-26 «A Roma, quando verso l’8 di giugno si ebbe notizia di questo evento, grande fu lo sdegno e lo sgomento. Il Senato deliberò alla fine precipitosamente tante cose che erano invano proposte da tanto tempo: che Marco Bruto e Cassio venissero con l’esercito in Italia; che si affrettasse l’arrivo delle legioni africane; che Sesto Pompeo fosse posto a capo della flotta con il titolo di praefectus classis et orae matirimae e con i poteri che suo padre aveva avuto durante la guerra contro i pirati; [...]»]</t>
+  </si>
+  <si>
+    <t>Riflessioni delle legioni</t>
+  </si>
+  <si>
+    <t>Nota di possesso e data 18.05.1924 Milano. Sottolineature e postille.</t>
+  </si>
+  <si>
+    <t>Nota di possesso autografa in data 1925 Milano.</t>
+  </si>
+  <si>
+    <t>Dedica dell’autore in data 1970.</t>
+  </si>
+  <si>
+    <t>Carlo Emilio Gadda Rastatt (Friederichsfeste) 4 febbraio 1918</t>
+  </si>
+  <si>
+    <t>Schnauben = sbuffare | Carlo Emilio Gadda 1918</t>
+  </si>
+  <si>
+    <t>[p. 4 r. 5 «Ein Sturm»]</t>
+  </si>
+  <si>
+    <t>es ebbt = la marea scende (ebben)</t>
+  </si>
+  <si>
+    <t>[p. 5 marg. dex]</t>
+  </si>
+  <si>
+    <t>das Zink = lo zinco</t>
+  </si>
+  <si>
+    <t>[p. 5 r. 18 «Die Gerste»]</t>
+  </si>
+  <si>
+    <t>Die Gerstengraufe = orzo perlato | Die Gerste = orzo</t>
+  </si>
+  <si>
+    <t>[p. 7 r. 26 «Der Reim»]</t>
+  </si>
+  <si>
+    <t>Reimen = germinare | Reimmung = germinazione</t>
+  </si>
+  <si>
+    <t>[p. 7 r. 28 «Die Schale, die Rinde»]</t>
+  </si>
+  <si>
+    <t>schälen = sbucciare</t>
+  </si>
+  <si>
+    <t>[p. 24 r. 19 «Il telaio da finestra Der Fensterrahmen»]</t>
+  </si>
+  <si>
+    <t>º º | Rahmen = cornice, telaio</t>
+  </si>
+  <si>
+    <t>[p. 24 r. 21 «Il davanzale Die Fensterlehne»]</t>
+  </si>
+  <si>
+    <t>º º | Lehre = ringhiera, bracciolo</t>
+  </si>
+  <si>
+    <t>[p. 24 r. 22 «L'inferriata Das Gitter»]</t>
+  </si>
+  <si>
+    <t>º º | (grata)</t>
+  </si>
+  <si>
+    <t>[p. 24 r. 24 «Le tende, le cortine Die Vorhänge»]</t>
+  </si>
+  <si>
+    <t>º º | (che pendono davanti)</t>
+  </si>
+  <si>
+    <t>[p. 24 r. 28 «La soglia Die Thürschmelle»]</t>
+  </si>
+  <si>
+    <t>º º | Schwelle = soglia</t>
+  </si>
+  <si>
+    <t>[p. 25 r. 16 «Il granaio, la soffitta Der Speicher, Boden»]</t>
+  </si>
+  <si>
+    <t>º º | Der Speicher = salita</t>
+  </si>
+  <si>
+    <t>[p. 25 r. 21 «Il pozzo Der Biehbrunnen»]</t>
+  </si>
+  <si>
+    <t>º º | der Brimmen = fontana</t>
+  </si>
+  <si>
+    <t>[p. 25 r. 35 «Il rastatoio Das Schabeisen (vor der Thüre)»]</t>
+  </si>
+  <si>
+    <t>X X | dove si puliscono i piedi</t>
+  </si>
+  <si>
+    <t>[p. 25 marg. sx.]</t>
+  </si>
+  <si>
+    <t>täfelm = intavolare | tafeln = balbettare | der Speichet = salita | der Brimmen: fontana | riehen = tirare</t>
+  </si>
+  <si>
+    <t>[p. 25 marg. inf.]</t>
+  </si>
+  <si>
+    <t>44/69 | 25 | 65/°° ignoto | das&lt;…&gt;</t>
+  </si>
+  <si>
+    <t>[p. 26 marg. dex]</t>
+  </si>
+  <si>
+    <t>Das Kissen = cuscino</t>
+  </si>
+  <si>
+    <t>[p. 27 tra le due colonne di sostantivi]</t>
+  </si>
+  <si>
+    <t>Die Pfanne = padella | Geschirrs = | Tisclog = vasellame | Pferdgeshirr = finimenti</t>
+  </si>
+  <si>
+    <t>[p. 27 marg. dex]</t>
+  </si>
+  <si>
+    <t>Der Schüsse = piatto | Schüsselbrett = vassoio da piatti, piattaia | Schüsselglocke = copripiatti | Rühren = rimestare: muovere; colpire | Schale = buccia, guscio, scorza e &lt;...&gt;| Der Kork = sughero, turacciolo | Büchse (f.) = bossolo, barattolo (aus Glas Stein) | Schôpfen = attingere</t>
+  </si>
+  <si>
+    <t>[p. 28 marg. dx.]</t>
+  </si>
+  <si>
+    <t>Sichen = stacciare, vagliare, colare | Das Nähen = cucitura | Nähen = cucire | Die Näherin = cuciture | Rahme = telaio, cerniera | Die Nadel = ago | Der Nogel = unghia, chiodo | Der Nabel = ombelico</t>
+  </si>
+  <si>
+    <t>Sticken = soffocare | Sticken = ricamare | Die Stickerei = ricamo | Der Stich = corda, laccio, capestro | Stricken = fare la maglia</t>
+  </si>
+  <si>
+    <t>[p. 29 marg. sup.]</t>
+  </si>
+  <si>
+    <t>Das Wachs = cera</t>
+  </si>
+  <si>
+    <t>46 75 29 | 62</t>
+  </si>
+  <si>
+    <t>[p. 30 marg. sup.]</t>
+  </si>
+  <si>
+    <t>Schlitten = slitta (der) | Die Schlittbahn = pista per slitta | Schlittfahrt = gita in slitta | Schlittern = sdrucciolare | Schlitterbalm = sdrucciolo | Schlittschutbahn = pattinaggio | Schlittschulaufen = pattinare</t>
+  </si>
+  <si>
+    <t>[p. 30 marg. dx.]</t>
+  </si>
+  <si>
+    <t>Schmuck = ornamento</t>
+  </si>
+  <si>
+    <t>[p. 30 r. 11 «das Schmuckfätchen»]</t>
+  </si>
+  <si>
+    <t>Taschchen</t>
+  </si>
+  <si>
+    <t>Das Hemd oder Hemde</t>
+  </si>
+  <si>
+    <t>[p. 30 r. 19 «Ein Tragen»]</t>
+  </si>
+  <si>
+    <t>Collare</t>
+  </si>
+  <si>
+    <t>[p. 30 r. 24 «Die Socke»]</t>
+  </si>
+  <si>
+    <t>Zoccolo</t>
+  </si>
+  <si>
+    <t>[p. 30 r. 29 «Ein Handtuch»]</t>
+  </si>
+  <si>
+    <t>Die Baumwolle = cotone</t>
+  </si>
+  <si>
+    <t>[p. 30 r. 33 «Il pasto»]</t>
+  </si>
+  <si>
+    <t>Pranzo</t>
+  </si>
+  <si>
+    <t>[p. 31 r. 21 «das Geflügel»]</t>
+  </si>
+  <si>
+    <t>° | Das Geflugel = pollame, volatile | Das Hirn = cervello</t>
+  </si>
+  <si>
+    <t>34 ignote</t>
+  </si>
+  <si>
+    <t>[p. 32 marg. dex]</t>
+  </si>
+  <si>
+    <t>Welsch = straniero | 24-2-18</t>
+  </si>
+  <si>
+    <t>[p. 33 marg. dex]</t>
+  </si>
+  <si>
+    <t>Das Zeug = roba, materia, materiale | Die Gosse | Der Kürche = acciaio, lavandino | Gosse = scolo, grondaia | | Die Herd = focolare</t>
+  </si>
+  <si>
+    <t>[p. 34 marg. dex]</t>
+  </si>
+  <si>
+    <t>[p. 34 r. 40 «La serpa»]</t>
+  </si>
+  <si>
+    <t>Cassetta</t>
+  </si>
+  <si>
+    <t>[p. 34 marg. inf.]</t>
+  </si>
+  <si>
+    <t>Der&lt;…&gt;</t>
+  </si>
+  <si>
+    <t>[p. 35 marg. sup.]</t>
+  </si>
+  <si>
+    <t>Die Duchselgabel = stanga</t>
+  </si>
+  <si>
+    <t>[p. 35 r. 2 «Il timone»]</t>
+  </si>
+  <si>
+    <t>Della vettura</t>
+  </si>
+  <si>
+    <t>[p. 35 r. 4 «Die federn»]</t>
+  </si>
+  <si>
+    <t>Penna, molla, spirale</t>
+  </si>
+  <si>
+    <t>[p. 35 r. 5 «Der Rutschenschlag»]</t>
+  </si>
+  <si>
+    <t>Raider? | Oder Wagenschlag</t>
+  </si>
+  <si>
+    <t>[p. 35 marg. inf.]</t>
+  </si>
+  <si>
+    <t>51 vocaboli ignoti</t>
+  </si>
+  <si>
+    <t>[p. 37 marg. dex]</t>
+  </si>
+  <si>
+    <t>Droghiere | Der Schornsten = camino</t>
+  </si>
+  <si>
+    <t>[p. 37 r. 41 «Der Rammerdienen, del Keller»]</t>
+  </si>
+  <si>
+    <t>Di caffè?</t>
+  </si>
+  <si>
+    <t>[p. 37 marg. inf.]</t>
+  </si>
+  <si>
+    <t>Il pastore</t>
+  </si>
+  <si>
+    <t>[p. 38 r. 2 «Der Diener, Renecht»]</t>
+  </si>
+  <si>
+    <t>Bediente</t>
+  </si>
+  <si>
+    <t>[p. 40 marg. dex]</t>
+  </si>
+  <si>
+    <t>Schwamm = spugna</t>
+  </si>
+  <si>
+    <t>[p. 40 r. 21 «Doe Sifter»]</t>
+  </si>
+  <si>
+    <t>Gazza ladra</t>
+  </si>
+  <si>
+    <t>[p. 41 marg. dex]</t>
+  </si>
+  <si>
+    <t>Disegno di un uccello | Hoselhan</t>
+  </si>
+  <si>
+    <t>[p. 42 marg. sup.]</t>
+  </si>
+  <si>
+    <t>Der Schild = lo scudo</t>
+  </si>
+  <si>
+    <t>[p. 42 marg. dex]</t>
+  </si>
+  <si>
+    <t>Terrore del pieno | Schuld | Maifisch = peperone | Egel = sanguisuga</t>
+  </si>
+  <si>
+    <t>[p. 42 marg. inf.]</t>
+  </si>
+  <si>
+    <t>Das Schild = insegna, cartello, réclame</t>
+  </si>
+  <si>
+    <t>[p. 43 marg. sx.]</t>
+  </si>
+  <si>
+    <t>Pfeifen = fischiare | Die Pfeife = fischietto, canna | Der Pfiff = il fischio</t>
+  </si>
+  <si>
+    <t>[p. 43 marg. sup.]</t>
+  </si>
+  <si>
+    <t>Der Laut = il dono | Lauten = donare | Summen = ronzare | Brüllen = muggire, ruggire | Zirpen = stridere, pigolare | Schwaten oder schwatzen = cigolare | Der Schwatzer =&lt;…&gt;</t>
+  </si>
+  <si>
+    <t>[p. 43 r. 23 «fläffen»]</t>
+  </si>
+  <si>
+    <t>Flaffen = suonare; mit der Zähnen = battere i denti,&lt;…&gt;</t>
+  </si>
+  <si>
+    <t>[p. 43 marg. dex]</t>
+  </si>
+  <si>
+    <t>Jammern = lamentarsi | Girren = tubare</t>
+  </si>
+  <si>
+    <t>[p. 43 marg. inf.]</t>
+  </si>
+  <si>
+    <t>(le traduzioni fatte sono sottosegnate in questa pagina) | Schreien = gridare</t>
+  </si>
+  <si>
+    <t>[p. 43 tra le due colonne di lemmi]</t>
+  </si>
+  <si>
+    <t>Kläffen = &lt;…&gt;| Der Kläffer = botolo</t>
+  </si>
+  <si>
+    <t>[p. 44 marg. sup.]</t>
+  </si>
+  <si>
+    <t>Gackeln oder gackern = cantare, schiamazzare | Schlagen= battere, sonare, cantare</t>
+  </si>
+  <si>
+    <t>[p. 44 r.1 «Il serpente - fischia»]</t>
+  </si>
+  <si>
+    <t>Sibila</t>
+  </si>
+  <si>
+    <t>[p. 44 r.9 «gackern»]</t>
+  </si>
+  <si>
+    <t>Glucken = chiocciare | Plaudere | chiacchierare</t>
+  </si>
+  <si>
+    <t>[p. 44 r. 9 «Il fringuello - gorgheggia»]</t>
+  </si>
+  <si>
+    <t>Cinguetta</t>
+  </si>
+  <si>
+    <t>[p. 44 marg. sx.]</t>
+  </si>
+  <si>
+    <t>Piefen = piare, pipilare</t>
+  </si>
+  <si>
+    <t>[p. 44 sopra la r. 14]</t>
+  </si>
+  <si>
+    <t>Brimmen = brontolare | Brummeln = borbottare</t>
+  </si>
+  <si>
+    <t>[p. 44 marg. dex]</t>
+  </si>
+  <si>
+    <t>Verwandte = parente</t>
+  </si>
+  <si>
+    <t>[p. 45 marg. sup.]</t>
+  </si>
+  <si>
+    <t>Der Schlz = protezione, riparo, difesa | Schützen= proteggere, riparare, difendere | (Schüzengruben = trincea)</t>
+  </si>
+  <si>
+    <t>[p. 45 marg. dex]</t>
+  </si>
+  <si>
+    <t>Rechen = | scopare; |voltati | Kelrt! | dietro – | front | Zuschauen = stare in guardia</t>
+  </si>
+  <si>
+    <t>[p. 45 r. 35 «ein Näscher, eine Näscherin»]</t>
+  </si>
+  <si>
+    <t>Die Näscherei = ghiottoneria | Naschen = spilluzzicare</t>
+  </si>
+  <si>
+    <t>[p. 46 marg. dex]</t>
+  </si>
+  <si>
+    <t>Das Robteil = eredità</t>
+  </si>
+  <si>
+    <t>[p. 47 marg. dex]</t>
+  </si>
+  <si>
+    <t>Wetten = scommettere | Arg (n.) = male; (sospetto) | Arg = cattivo</t>
+  </si>
+  <si>
+    <t>[p. 48 tra le due colonne di lemmi]</t>
+  </si>
+  <si>
+    <t>Küssen=baciare | Die Küsserei=sbaciucchiamento</t>
+  </si>
+  <si>
+    <t>[p. 48 r.39 «Der Faden, die Fäden»]</t>
+  </si>
+  <si>
+    <t>Blauehorn=corno da soffio (Musik ?)</t>
+  </si>
+  <si>
+    <t>.=filament (anatomia)</t>
+  </si>
+  <si>
+    <t>[p. 49 marg. sup.]</t>
+  </si>
+  <si>
+    <t>Der Draht = filo, filo telegrafico | Die Drahtantwort = risposta telegrafica | Drahtbericht (m.) = resoconto telegrafico | Drahtloses Telegramm (n.) = | Dans fils = radiogramma | f. Drahtpuppe = marionetta | 227 Dahten = telegrafare</t>
+  </si>
+  <si>
+    <t>[p. 49 r. 9 «das Holz, das Fahrzeug, der Wagen, [...]»]</t>
+  </si>
+  <si>
+    <t>Das Fahrzeuf = veicolo, bastimento</t>
+  </si>
+  <si>
+    <t>[p. 49 rr.16-17 «Des Anochen, a) die Anochen, b) die Gebeine»]</t>
+  </si>
+  <si>
+    <t>Die Gebeine = le ossa</t>
+  </si>
+  <si>
+    <t>[p. 49 r. 29 «L’omicciuolo Das Menschlein, der Anirps»]</t>
+  </si>
+  <si>
+    <t>Ma anche omiciattolo, cosino</t>
+  </si>
+  <si>
+    <t>[p. 49 r. 34 «Das Tierchen»]</t>
+  </si>
+  <si>
+    <t>Bestiola</t>
+  </si>
+  <si>
+    <t>[p. 50 marg. sup.]</t>
+  </si>
+  <si>
+    <t>Armselig = meschino | Armseligkeit = meschinità</t>
+  </si>
+  <si>
+    <t>[p. 50 r. 3 «das Häuschen, das Landhaus»]</t>
+  </si>
+  <si>
+    <t>.=casa di campagna</t>
+  </si>
+  <si>
+    <t>[p. 50 r. 13 «Die große Thüre, der Thorweg»]</t>
+  </si>
+  <si>
+    <t>Androne | Scritto sopra “der Thorweg”</t>
+  </si>
+  <si>
+    <t>[p. 50 rr. 20-21 «Das gemeine Bols. Das gemeine Blatt»]</t>
+  </si>
+  <si>
+    <t>Gemein = comune, volgare</t>
+  </si>
+  <si>
+    <t>[p. 50 marg. inf.]</t>
+  </si>
+  <si>
+    <t>Der Bursche = il giovanotto; garzone; attendente | Stramm = teso, rigido, forte, mariziale. | Ceg. 8 marzo 1928</t>
+  </si>
+  <si>
+    <t>[p. 53 r. 1 «Die Infanterie, das Fußoolf»]</t>
+  </si>
+  <si>
+    <t>&lt;…&gt;generale</t>
+  </si>
+  <si>
+    <t>[p. 54 r. 9 «Der Schuß, Dleb, Stok, Stich»]</t>
+  </si>
+  <si>
+    <t>Colpo = taglio | Colpo, urto, spinta, scossa, botta | Puntura, colpo, stoccata, stretta al cuore |</t>
+  </si>
+  <si>
+    <t>[p. 54 marg. dex]</t>
+  </si>
+  <si>
+    <t>Das Schwert</t>
+  </si>
+  <si>
+    <t>[p. 79 r. 30 «mahrtcheinlich»]</t>
+  </si>
+  <si>
+    <t>Verosimile</t>
+  </si>
+  <si>
+    <t>[p. 81 marg. inf.]</t>
+  </si>
+  <si>
+    <t>22 marzo 1918! | In programma</t>
+  </si>
+  <si>
+    <t>[p. 83 r. 15 «Sie würden eine Belohnung haben»]</t>
+  </si>
+  <si>
+    <t>Belohnen = ricompensare | Belohnend = remunerative</t>
+  </si>
+  <si>
+    <t>[p. 83 r. 16 «Ich habe Mühe gehabt»]</t>
+  </si>
+  <si>
+    <t>Mühe = fatica, pena, disturbo, &lt;…&gt;, briga</t>
+  </si>
+  <si>
+    <t>[p. 83 r. 21 «Sie haben Streit gahabt»]</t>
+  </si>
+  <si>
+    <t>Lite</t>
+  </si>
+  <si>
+    <t>[p. 83 r. 31 «Daß du einen Degen haben»]</t>
+  </si>
+  <si>
+    <t>Schwert = daga</t>
+  </si>
+  <si>
+    <t>[p. 84 r. 13 «Haßt uns Vetrauen haben»]</t>
+  </si>
+  <si>
+    <t>Das Vertrauen = fiducia | Im Vertrauen = in confidenza</t>
+  </si>
+  <si>
+    <t>[p. 84 r. 14 «Dabet Lorge»]</t>
+  </si>
+  <si>
+    <t>Lorge = pensiero, cura | Sorglos = noncurante</t>
+  </si>
+  <si>
+    <t>[p. 84 r.21 «Dabe ich Waren?»]</t>
+  </si>
+  <si>
+    <t>Die Ware</t>
+  </si>
+  <si>
+    <t>[p. 84 r. 31 «Sie hatten seinen Dank»]</t>
+  </si>
+  <si>
+    <t>Der Dank</t>
+  </si>
+  <si>
+    <t>[p. 84 r. 36 «Non avrete ravanelli»]</t>
+  </si>
+  <si>
+    <t>Rettich | Rettig</t>
+  </si>
+  <si>
+    <t>[p. 85 r. 34 «Er wird sein Brennholz haben»]</t>
+  </si>
+  <si>
+    <t>Das Brennholz = legna da ardere</t>
+  </si>
+  <si>
+    <t>[p. 85 r. 11 «Haben wir seine andern Messer»]</t>
+  </si>
+  <si>
+    <t>[p. 85 dopo la r. 21]</t>
+  </si>
+  <si>
+    <t>[p. 97 marg. inf.]</t>
+  </si>
+  <si>
+    <t>[p. 98 marg. sup.]</t>
+  </si>
+  <si>
+    <t>Fall = caduta, cascata, caso (m.) | Falls = qualora; falls nicht = a meno che non</t>
+  </si>
+  <si>
+    <t>[p. 99 marg. sup.]</t>
+  </si>
+  <si>
+    <t>Lage (f.) = posizione; condizione</t>
+  </si>
+  <si>
+    <t>[p. 99 r. 14 «Ein andere Vorteil ist, daß…»]</t>
+  </si>
+  <si>
+    <t>Vortellung = vantaggioso</t>
+  </si>
+  <si>
+    <t>[p. 99 r. 17 «Ihr werdet rünstig flüger sein»]</t>
+  </si>
+  <si>
+    <t>Rünstig = futuro (agg.)</t>
+  </si>
+  <si>
+    <t>[p. 99 r. 22 «Wir saßen»]</t>
+  </si>
+  <si>
+    <t>Sitzen, sasz, gesetzen</t>
+  </si>
+  <si>
+    <t>[p. 99 marg. dex]</t>
+  </si>
+  <si>
+    <t>Die Laune = umore, capriccio (luna).</t>
+  </si>
+  <si>
+    <t>[p. 99 marg. inf.]</t>
+  </si>
+  <si>
+    <t>Das Vorteil = giudizio, sentenza | Urteilen = giudicare | Heiszen = significare | Hinein = dentro</t>
+  </si>
+  <si>
+    <t>[p. 100 marg. sup.]</t>
+  </si>
+  <si>
+    <t>Befrenden = sorprendere | Das Wesen = essere, essenza | Wesentlich = essenziale | Entfernen = allontanare | Dei Entfernung = allontanamento, lontananza</t>
+  </si>
+  <si>
+    <t>[p. 100 r. 12 «Es ist von Wichtigkeit»]</t>
+  </si>
+  <si>
+    <t>Wichtig = importante</t>
+  </si>
+  <si>
+    <t>[p. 100 r. 26 «Non è già l’unico Sie sind nicht der einzige»]</t>
+  </si>
+  <si>
+    <t>Einzig = unico</t>
+  </si>
+  <si>
+    <t>[p. 100 sotto la r.32]</t>
+  </si>
+  <si>
+    <t>28 ott. 1948 – Inizio</t>
+  </si>
+  <si>
+    <t>[p. 102 r. 35 «Es soll dort geben»]</t>
+  </si>
+  <si>
+    <t>Il dort y être</t>
+  </si>
+  <si>
+    <t>[p. 103 r. 8 «Es ist schon lanhe her»]</t>
+  </si>
+  <si>
+    <t>Her = qui, qua</t>
+  </si>
+  <si>
+    <t>[p. 103 rr. 18-19 «Wenn ich es brauche. Ich glaubte, er brauche es.»]</t>
+  </si>
+  <si>
+    <t>Notare il tempo</t>
+  </si>
+  <si>
+    <t>[p. 103 marg. inf.]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mancare </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>di</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> una cosa | Mangeln </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>an</t>
+    </r>
+  </si>
+  <si>
+    <t>[p. 105 marg. sup.]</t>
+  </si>
+  <si>
+    <t>29 ott. 1918 | Machen lassen</t>
+  </si>
+  <si>
+    <t>[p. 105 r. 24 «er wird schelcht dabei wegkommen»]</t>
+  </si>
+  <si>
+    <t>Egli verrà via malamente</t>
+  </si>
+  <si>
+    <t>[p. 106 r. 10 «Ich habe es ihn wissen lassen»]</t>
+  </si>
+  <si>
+    <t>Doppio accus.</t>
+  </si>
+  <si>
+    <t>[p. 106 rr. 14-15 «Ich will es aus freien Stückenthun»]</t>
+  </si>
+  <si>
+    <t>Aus freien Stücken = spontaneamente</t>
+  </si>
+  <si>
+    <t>[p. 107 r. 3 «Ich werde es thun, wenn ich kann»]</t>
+  </si>
+  <si>
+    <t>Notare l’uso del tempo</t>
+  </si>
+  <si>
+    <t>[p. 107 r. 16 «Ich tuhe es euch zu Ehren»]</t>
+  </si>
+  <si>
+    <t>Al plurale</t>
+  </si>
+  <si>
+    <t>[p. 107 marg. inf.]</t>
+  </si>
+  <si>
+    <t>Ich Weiss nicht was (sic) ich da tum soll</t>
+  </si>
+  <si>
+    <t>[p. 108 rr. 9-10 «Ich bin genötig, zu Hause zu bleiben»]</t>
+  </si>
+  <si>
+    <t>Costretto</t>
+  </si>
+  <si>
+    <t>[p. 108 marg. inf.]</t>
+  </si>
+  <si>
+    <t>Auf dem Punkt zu = sul punto di</t>
+  </si>
+  <si>
+    <t>[p. 280 marg. sup.]</t>
+  </si>
+  <si>
+    <t>Inizio: 28 ottobre 1918</t>
+  </si>
+  <si>
+    <t>[p. 479 marg. sup.]</t>
+  </si>
+  <si>
+    <t>Gadda | Gadda</t>
+  </si>
+  <si>
+    <t>[p. 484 marg. inf.]</t>
+  </si>
+  <si>
+    <t>Carlo Emilio Gadda 4 febbraio 1918 Rastatt</t>
+  </si>
+  <si>
+    <t>[p. 6 di pubblicità]</t>
+  </si>
+  <si>
+    <t>Die Gebär den Napoleons = i gesti (gettare) | Die Thaten Napoleons | 18° | 18b</t>
+  </si>
+  <si>
+    <t>Nota di possesso autografa in data 1939 Milano.</t>
+  </si>
+  <si>
+    <t>Nota di possesso autografa in data 1925.</t>
+  </si>
+  <si>
+    <t>Nota di possesso autografa di Enrico Gadda in data 7.09.1917.</t>
+  </si>
+  <si>
+    <t>Nota di possesso autografa di Enrico Gadda in data 09.1917, Longone al Segrino.</t>
+  </si>
+  <si>
+    <t>Nota di possesso autografa di Enrico Gadda in data 12.1917, Cascine Malpensa.</t>
+  </si>
+  <si>
+    <t>A Carlo Emilio Gadda | ricordo del nostro primo incontro | Ugo Enrico Paoli | Firenze 16.11.47</t>
+  </si>
+  <si>
+    <t>[p. 81 rr. 20-23 «Questa regola consente al Folengo una libertà prosodica di cui si serve per unire in un composto parole che, se usate separate, turberebbero la regolarità del verso (per esempio, “Mosch.” I, 462: lanzaquespezzadas = et lanzas spezzadas;[...]»]</t>
+  </si>
+  <si>
+    <t>[p. 171 rr. 33-34 «601. Ecce statim. Comincia la metamorfosi»]</t>
+  </si>
+  <si>
+    <t>Longas... stendit orecchias. Cfr. Ovidio (Met, XI, 165: Trahit in spatium), salto dalle orecchie a mano</t>
+  </si>
+  <si>
+    <t>[p. 171 marg. dex]</t>
+  </si>
+  <si>
+    <t>(auris)</t>
+  </si>
+  <si>
+    <t>[p. 171 rr. 39-40 «606. Iam non “non più” secondo il regolare uso latino»]</t>
+  </si>
+  <si>
+    <t>; regolare:</t>
+  </si>
+  <si>
+    <t>Sottolineature. Foglio inserito con annotazione in data 1957.</t>
+  </si>
+  <si>
+    <t>Volume I con nota di possesso autografa in data 23.04.1920 Milano; volumeII con nota di possesso autografa in data 23.04.1922 Milano; volume III con nota di possesso autografa in data23.04.1925 Mi lano.</t>
+  </si>
+  <si>
+    <t>Timbro di possesso di Enrico Gadda.</t>
+  </si>
+  <si>
+    <t>[p. 459 rr. 6-9 «“Sono contento di questo lavoro: vi prego, amico, di lasciarlo morire nell'oblio”. Indi ritiratosi nella sua camera, in meno di mezz'ora spirò nella età di anni sessanta»]</t>
+  </si>
+  <si>
+    <t>Nota di possesso autografa di Enrico Gadda in data Udine, ottobre 1917.</t>
+  </si>
+  <si>
+    <t>[pp. 73- 74 rr. 29; 1-4 «Allora Jacopo, come per rassicurarlo, lo guardò in viso con aria lieta e insieme tranquilla; e dopo breve silenzio, gli citò sorridendo quel passo del Petrarca: “Non sa; ma forse/ tu starai in terra senza me gran tempo.”»]</t>
+  </si>
+  <si>
+    <t>So</t>
+  </si>
+  <si>
+    <t>[p. 153 rr. 1-3 «Irato a' patrii Numi, errava muto/ ove Arno è più deserto, i campi e il cielo/ desioso dimando; [...]»]</t>
+  </si>
+  <si>
+    <t>Solingo</t>
+  </si>
+  <si>
+    <t>[p. 230 rr. 38-45 «484. lungo i rivi d'Olona: fiume in Lombardia, celebre per la valle in cui il Barbarossa compié le sue imprese, ricordato da Dante nel “Paradiso”, e a cui alluse il Carducci nel sonetto “A Dante”, quando avrebbe voluto togliere di capo la corona di imparatore “al buon re Federigo in val d'Olona”»]</t>
+  </si>
+  <si>
+    <t>al tuo buon F.&lt;ederigo&gt;</t>
+  </si>
+  <si>
+    <t>Dedica del traduttore in data 14.1. 1944.</t>
+  </si>
+  <si>
+    <t>Dedica dell’autore in data 14.9.1945.</t>
+  </si>
+  <si>
+    <t>Dedica dell’autore in data 14.10.1953.</t>
+  </si>
+  <si>
+    <t>Dedica dell’autore in data 15.1.1961.</t>
+  </si>
+  <si>
+    <t>[p. 113 rr. 33-36 «Il en est de même dans l’Armée; le chef est le père qui aime égalment tous ses soldats, et c’est pourquoi cest derniers sont rattachés les uns aux autres par les liens de la camaraderie.»]</t>
+  </si>
+  <si>
+    <t>Helas! Non!</t>
+  </si>
+  <si>
+    <t>[p. 144 rr. 27-33 «Il a été reconnu quel es névroses de guerre qui ont désagrégé l’armée allemande représentaient une protestation de l’individu contre le rôle qui lui était assigné, et, se basant sur la communication d’E. Simmel (2), on peut affirmer que le première place parmi les causes de ces névroses doit être attibuée à la manière cruelle et inhumaine dont les chefs avaient traité leurs hommes»]</t>
+  </si>
+  <si>
+    <t>[p. 218 rr. 27- 31 «Après avoir ainsi réappris à comprendre nos concitoyens qui nous étaient devenus si étrangers, nous supporterons beaucoup plus facilement la deception que nous ont causée les peuples, ces grands individus de l’humanité, à l’égard desquels nous devons d’ailleurs modérer nos exigences»]</t>
+  </si>
+  <si>
+    <t>Sottolineature.</t>
+  </si>
+  <si>
+    <t>Nota di possesso di Gadda in data 1970 Roma.</t>
+  </si>
+  <si>
+    <t>Nota di possesso di Gadda in data 28.1.1973 Roma.</t>
+  </si>
+  <si>
+    <t>Data autografa 2.7.1973 Roma.</t>
+  </si>
+  <si>
+    <t>Nota di possesso autografa in data 14.04.1931 Milano.</t>
+  </si>
+  <si>
+    <t>Nota di possesso di Gadda in data 14.11.1972.</t>
+  </si>
+  <si>
+    <t>Nota di possesso di Gadda in data 1965.</t>
+  </si>
+  <si>
+    <t>Nota di possesso di Gadda in data 11.06.1972.</t>
+  </si>
+  <si>
+    <t>Dedica dell’autore in data 1956.</t>
+  </si>
+  <si>
+    <t>Dedica dell’autore in data 1955.</t>
+  </si>
+  <si>
+    <t>Al caro Carlo | il suo collega di | inchiostro | Piero | 15 aprile 1932</t>
+  </si>
+  <si>
+    <t>[p. 268 rr. 10- 15 «Quando, preso commiato dal commosso Don Giulio, entrai nel porto dietro il colonnello, non era ancora mezzanotte. Le truppe erano già tutte ammassate entro il recinto dei cancelli, le ultime frotte di barche arrivavano ancora dai lidi più remoti»]</t>
+  </si>
+  <si>
+    <t>allora?</t>
+  </si>
+  <si>
+    <t>[p. 270 rr. 21-24 «Arrivati in fondo alle banchine, sotto la luce del faro, dove si sarebbe compiuto l'imbarco, echi di una baruffa mi fecero affrettare il passo»]</t>
+  </si>
+  <si>
+    <t>[p. 270 rr. 25-29 «Non vedevo ancor nulla, ma, attorno al punto da cui uscivano le irose voci, alcuni ufficiali stavano rigidi e silenziosi, co quell'aria, mezzo contrita e mezzo ironica, con cui si ascoltano le baruffe tra superiori»]</t>
+  </si>
+  <si>
+    <t>[p. 275 rr. 1-7 «Chiamando le barche ad una ad una, come un cacciatore raduna intorno a sé una muta di cani, parlando ai padroni che le conducevano, sfoggiando audacemente quel po' di dialetto, che aveva imparato, le raccoglieva, a gruppi di dieci o dodici, presso alla gradinata.»]</t>
+  </si>
+  <si>
+    <t>bello</t>
+  </si>
+  <si>
+    <t>[p. 287 rr. 22-25 «Io sentivo in me una calda onda d'affetto per tutti quegli uomini che nella notte si affidavano al mare, affrontando l'incerto destino con rassegnata placidità»]</t>
+  </si>
+  <si>
+    <t>[p. 290 rr. 8-14 «La mestizia del sentirmi solo non intralciava, però, né la mia volontà, né la mia intelligenza: ero risoluto a tuffarmi intero nell'impresa, a cui partecipavo. Forse, così facendo, sarei guarito delle ferite più profonde, che il sole e la bella giornata non potevano cancellare»]</t>
+  </si>
+  <si>
+    <t>mediocre</t>
+  </si>
+  <si>
+    <t>[pp. 302-303 rr. 28-30; 1-2 «Su gli steli, brillano delle goccioline perfette; mi perdo a guardarle, come lenti di cristallo, e mi dimentico, nell'onda di beato abbandono che si impossessa di me, e della guerra, e di Capri.»]</t>
+  </si>
+  <si>
+    <t>Remarque</t>
+  </si>
+  <si>
+    <t>[p. 388 rr. 6-14 «La bellezza delle acque e delle rocce mi faceva quasi dispetto: mi pareva ingiusto, che il mio cruccio non dilagasse, oscurandolo, pel mondo intero. Allora pensavo a quella cugina, ossuta, ciarliera, pettegola: “ma Contessa, e Cusani, e Drago, che il diavolo se la porti! Ecco l'ideale dei miei parenti: è chiaro! Se mi diranno di no, è perché pensano a lei!”»]</t>
+  </si>
+  <si>
+    <t>se pioveva?</t>
+  </si>
+  <si>
+    <t>Dedica dell’autore in data 1960.</t>
+  </si>
+  <si>
+    <t>Dedica del curatore in data 1942.</t>
+  </si>
+  <si>
+    <t>Dedica dell’autore in data 3.6.1953.</t>
+  </si>
+  <si>
+    <t>Dedica dell’autore in data 1941.</t>
+  </si>
+  <si>
+    <t>Nota di possesso in data 1905.</t>
+  </si>
+  <si>
+    <t>Dedica dell’autore in data 24.10.1935.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dedica dell’autore in data 10.10.1969 </t>
+  </si>
+  <si>
+    <t>Dedica dell’autore in data 18.12.1933.</t>
+  </si>
+  <si>
+    <t>Dedica dell’autore in data 1946.</t>
+  </si>
+  <si>
+    <t>Nota di possesso Carlo Emilio Gadda 29 agosto 1915 Edolo 5° reggimento alpini.</t>
+  </si>
+  <si>
+    <t>Dedica del curatore in data 14.8.1961.</t>
+  </si>
+  <si>
+    <t>Dedica dell’autore in data 6.1953.</t>
+  </si>
+  <si>
+    <t>Nota di possesso autografa in data 1931.</t>
+  </si>
+  <si>
+    <t>Nota di possesso e data 1925 Milano.</t>
+  </si>
+  <si>
+    <t>[p. 4 nota descrittiva della cartina geografica «Corografia del comprensorio della bonifica nel I° circondario scoli di Ferrara al principio del 1800 (dopo la promulgazione del Motu Proprio di Pio VII»]</t>
+  </si>
+  <si>
+    <t>Del Motu Proprio di Pio VII</t>
+  </si>
+  <si>
+    <t>Dedica del traduttore in data 11.6.1959.</t>
+  </si>
+  <si>
+    <t>Nota di possesso in data 14.11.1906. Pieghe.</t>
+  </si>
+  <si>
+    <t>Dedica dell’autore a Giuseppe Gadda.</t>
+  </si>
+  <si>
+    <t>Nota di possesso autografa di Gadda.</t>
+  </si>
+  <si>
+    <t>Nota di possesso autografa in data 18.05. 1924 Milano.</t>
+  </si>
+  <si>
+    <t>Nota di possesso autografa di Enrico Gadda</t>
+  </si>
+  <si>
+    <t>Nota di possesso autografa in data 10.10.1919 Milano.</t>
+  </si>
+  <si>
+    <t>[p. 331 rr. 17-22 «Contro a ciò Leibniz nella sua “Teodicea” apparsa nel 1710 cercò di difendere la concordanza della teologia colla filosofia e di provare l’affermazione che il mondo reale sia il migliore dei mondi possibili. Questa è l’opera più debole di Leibniz, prolissa e sconnessa nella forma, vuota e volgare nella sostanza.»]</t>
+  </si>
+  <si>
+    <t>? | Non è vero</t>
+  </si>
+  <si>
+    <t>[p. 353 rr. 24-34 «Ogni singola cosa, ogni singolo evento sono in sè stessi fortuiti: noi non otteniamo quindi un termine definitivo della serie delle ragioni o delle cause, una completa soddisfazione del principio di ragione sufficiente, se noi non risaliamo ad una prima causa che è causa a sè stessa. Noi concludiamo ad una elezione ragionevole, da ciò che oltre al mondo al mondo reale sarebbero possibili ancora parecchi altri mondi: questo può quindi aver avuto origine solo perché esso è il migiore. Ma dicendo il mondo migliore non si intendeun mondo senza ombre e senza deficienze, bensì solamente un mondo in cui i difetti in paragone della perfezioni sono minimi.»]</t>
+  </si>
+  <si>
+    <t>Spinoza | Mie idee sul concetto di posto migliore</t>
+  </si>
+  <si>
+    <t>[p. 355 rr. 21-26 «Se il male del mondo viene così energicamente fatto rilevare da molti, ciò accade perché esso attrae su di sè l’attenzione e perché l’abitudine affievolisce il senso del bene che noi possediamo. Gli ostacoli e la resistenza debbono esistere affinché la nostra attività sia continuamente eccitata ed affinché le nostre facoltà non diventino ottuse.»]</t>
+  </si>
+  <si>
+    <t>Fichte</t>
+  </si>
+  <si>
+    <t>[p. 355 marg. sx.]</t>
+  </si>
+  <si>
+    <t>Polarità logica (Schilling)</t>
+  </si>
+  <si>
+    <t>[p. 355 rr. 35-39 «Se l’esistenza considerata come totalità faccia dei progressi in perfezione, o se la perfezione che essa possiede varii soltanto di forma nei suoi stati successivi, è una questione della quale Leibniz non vuol decidere.»]</t>
+  </si>
+  <si>
+    <t>Gemme evoluzionismo</t>
+  </si>
+  <si>
+    <t>[p. 356 rr. 6-12 «Pur astraendo da ciò, che egli in un certo senso assume precisamente due principi, deve in realtà concedere a Bayle che, se si limita l’osservazione all’esperienza, diviene molto difficile affermare l’ottimismo teologico. L’appello di Leibniz all’infinità dell’esistenza ed alla limitazione del nostro sapere è propriamente un rinunciare alla dimostrazione: poiché che cosa sa egli del bene e del male che è nelle altre parti dell’universo?»]</t>
+  </si>
+  <si>
+    <t>Non credo Leibniz parte da una certezza sulla ∞ dell’universo</t>
+  </si>
+  <si>
+    <t>[p. 169 rr. 15-17 «La negazione è una Aufhebung anche nel senso che il concetto limitato vien elevato ad una più alta unità»]</t>
+  </si>
+  <si>
+    <t>Annullamento scioglimento sollevamento</t>
+  </si>
+  <si>
+    <t>[pp. 57-58 rr. 30-34; 1-7 «Se anche, fuori della residenza costruita tutta di marmo e di alabastro, non c’erano vere e proprie città in muratura, questo dipendeva dalla mancanza di cultura che non permetteva agli uomini di quei tempi di accorgersi che è molto meglio star seduti in un poltrona, protetti da solide mura, piuttosto che abitare presso un ruscello mormorante, in una bassa capanna circondata dai fremiti delle fronde, esponendosi al pericolo che qualche albero impertinente spinga i suoi rami dentro le finestre con la pretesa di prender parte alla conversazione, o addirittura che l'edera e il caprifoglio facciano da tappezzieri. Se si considera inoltre che gli abitanti del Giardino di Urdar erano patrioti sfegatati, amavano oltremodo il loro Re benché avessero rare occasioni di vederlo, [...]»</t>
+  </si>
+  <si>
+    <t>surrealismo</t>
+  </si>
+  <si>
+    <t>[p. 65 rr. 17-31 « “Maestro Celionati, - così alla fine Franz Reinhold ruppe il silenzio, - la vostra storiella ricorda l'Edda, il Voluspa, il Sonscritto, e che so io, tuttti i vecchi testi mitici; ma se vi ho ben compreso, la fonte di Urdar che fu data agli abitanti del Giardino di Urdar per la loro felicità, non sarebbe altro che quello che noi tedeschi chiamiamo l'umorismo, cioè la meravigliosa capacità del pensiero, nata dalla profonda meditazione sulla natura, di creare un proprio sosia ironico, le cui strambe buffonate gli permettano di riconoscere anche... voglio ripetere questa parola spregiativa... le buffonate di tutta la vita terrena, e di divertirsene. Ma in realtà, Mastro Celionati, col vostro mito voi ci avere dimostrato che c'intendete anche di altri scherzi oltre a quelli del vostro carnevale; e d'ora in poi vi considero come appartenente alla chiesa invisibie, e piego il ginocchio davanti a voi come Re Ofioch lo piegava davanti al Mago Ermodio; perhcé voi stesso siete un potentissimo stregone.»]</t>
+  </si>
+  <si>
+    <t>umorismo da citare per libro</t>
+  </si>
+  <si>
+    <t>[p. 71 rr. 1-9 «Forse non ti parrà strano, o amato lettore, se in una storia che si chiama bensì Capriccio, ma che assomiglia tanto a una favola da parere una favola vera e propria, appaiono tante bizzarre diavolerie, tante fantastiche illusioni, simili a quelle che spesso lo spirito umano coltiva o che, piuttosto, nascono quando si trasporta la scena nell'animo stesso dei personaggi che la rappresentano... Ma non può darsi proprio che questa sia la scena più appropriata? Forse anche tu, lettore, sei come me dell'opinione che lo spirito umano è la favola più straordinaria che sia mai stata inventata»]</t>
+  </si>
+  <si>
+    <t>motto</t>
+  </si>
+  <si>
+    <t>[p. 72 rr. 16-21 «È difficile che gli autori riescano a tacere al lettore quello che essi pensano a proposito di questo o di quell'avvenimento che riguarda i loro eroi; hanno una grande tendenza a fare la parte del coro nei propri libri e chiamano riflessioni tutto quello che in realtà non sarebbe affatto necessario al racconto, ma che tuttavia si può inserire in questo come un elegante svolazzo.»]</t>
+  </si>
+  <si>
+    <t>&lt;…&gt; in atto</t>
+  </si>
+  <si>
+    <t>[p. 73 rr. 18-22 « “Oh oh, - pensò Giglio – solamente il mio IO ha colpa se io non vedo la mia sposa, la Principessa. Non posso vedere attraverso il mio Io, ed il mio Io stramaledetto mi minaccia con un'arma pericolosa, ma io gli farò suonare la chitarra e lo farò ballare finché creperà, e solo allora Io sarò Io stesso e la Principessa sarà mia!»]</t>
+  </si>
+  <si>
+    <t>“Io” | idealistico</t>
+  </si>
+  <si>
+    <t>[p. 74 rr. 8-24 «L'abate Chiari (forse un antenato del celebre Chiari che ebbe la polemica col Conte Gozzi e dovette poi darsi per vinto) sin dalla sua giovinezza aveva addestrato con non poca fatica lo spirito e le dita a fabbricare tragedie le quali erano per quel che riguarda l'invenzione, enormi, ma per quel che riguarda l'esecuzione, veramente graziose e carine. Egli evitava con cura di presentare davanti agli occhi degli spettatori qualche orribile situazione, se non l'aveva mitigata con tutte le possibili circostanze attenuanti, e foderava per bene l'orrore di un fatto pauroso con un impiastro tenace di belle parole e di frasi sdolcinate in modo che l'uditorio mandava giù la pappa senza paura e senza sentire il sapore di tutto l'amaro che nascondeva. Egli riusciva ad adoperare utilmente persino le fiamme dell'inferno, facendone un gradevole trasparente e mettendo davanti ad esse il paravento intriso di burro della sua retorica, e nelle onde fumanti dell'Acheronte versava acqua di rose dei suoi versi martelliani in modo da fare scorrere il fiume infernale con dolcezza e trasformarlo in un fiume poetico»]</t>
+  </si>
+  <si>
+    <t>abate Chiari</t>
+  </si>
+  <si>
+    <t>[p. 82 rr. 19-25 «[...] la vecchia invece sosteneva di non sapere niente di niente e sosteneva che Giglio s'era sognato tutto perché Giacinta non aveva mai lasciato le camerette della casa del signor Pasquale e durante il Carnevale aveva lavorato con più diligenza del solito. Giglio si sfregò la fronte, si tirò il naso, come volesse svegliarsi dal sonno. “Una cosa è certa – disse, - o sogno adesso, oppure tutto questo tempo non ho fatto altro che sognare il più confuso dei sogni.»]</t>
+  </si>
+  <si>
+    <t>[p. 116 rr. 17-19 « “Davvero?! - esclamò Giglio, - ma mi sembra che questa ragazza abbia per innamorato un miserabile, uno straccione di commediante un certo Giglio Fava?»]</t>
+  </si>
+  <si>
+    <t>schizofrenia</t>
+  </si>
+  <si>
+    <t>[p. 117 rr. 11-21 «Nel meraviglioso capriccio originale che serve da guida al nostro racconto si trova a questo punto una lacuna. Un musicista direbbe che manca il passaggio da un tempo all'altro, sicché il nuovo accordo scoppi all'improvviso senza la dovuta preparazione. Anzi, si potrebbe dire che il capriccio s'interrompe su una dissonanza non ancora risolta. Vi è detto infatti che il Principe (non può trattarsi d'altri che di Giglio Fava, il quale minacciava di uccidere Giglio Fava in persona) fu improvvisamente preso da terribili dolori di pancia, dei quali dette la colpa al pranzo di Pulcinella e che fu curato da Celionati per mezzo del Liquor Anodynus, dopo di che cadde in un sonno profondo, ma fu destato da un terribile rumore. Non si sa, né che cosa fosse questo rumore, né in che maniera il Principe, ovvero Giglio Fava, fosse uscito dal palazzo insieme con Celionati.»]</t>
+  </si>
+  <si>
+    <t>tecnica musicale</t>
+  </si>
+  <si>
+    <t>[p. 121 rr. 14-16 «Ma nel momento stesso in cui la Principessa darà la sua mano a Giglio, anche il Principe avrà la felicità di ricevere la mia»]</t>
+  </si>
+  <si>
+    <t>corrispondenza</t>
+  </si>
+  <si>
+    <t>[p. 124 rr. 12-20 « “Mi piacciono molto, - disse la vecchia chiudendo il libro e togliendosi gli occhiali dal naso, - tutte queste belle e graziose parolette; ma santo cielo, c'è bisogno di farla tanto lunga per dire che non esiste al mondo nulla di più grazioso e di più seducente, per uomini di giudizio e di buon gusto, che una bella ragazza che se ne sta sopra pensiero e fabbrica castelli in aria? Pare che questo libro parli proprio di te, Giacintina, e tutto quello che mi hai imbastito su, del tuo Principe e dei suoi miracoli, non è nient'altro che la fantasia alla quale ti sei abbandonata.»]</t>
+  </si>
+  <si>
+    <t>[p. 133 rr. 28-31 « “Scommetto, - disse Reinholdt, - che Mastro Celionati col suo dualismo cronico non intende altro che quella strana mania per cui il proprio Io si scinde in due, sicché non si riesce più a stabilire la propria personalità»]</t>
+  </si>
+  <si>
+    <t>[p. 145 rr. 1-2 «Ma le dame gettarono nuvole di merletti sopra la coppia, che in breve scomparve come avvolta da una candida tenebra»]</t>
+  </si>
+  <si>
+    <t>utile</t>
+  </si>
+  <si>
+    <t>[p. 150 rr. 5-14 «“E perché no, - rispose Giglio, - perché no, mia cara Giacinta? Era il buon signor Bescapé col suo ago creatore, che ora è diventato nostro fedele impresario ed è riuscito a portarci sulla scena nella figura che meglio si adatta alla nostra intima natura. E che avrebbe creduto che quel vecchio ciarlatano mezzo pazzo... “ “Sì, - lo interruppe Giacinta, - sì, il vecchio Celionati col suo mantello sdruscito e il cappello bisunto...” “... che questi fosse veramente il vecchio e favoloso Principe Bastianello di Pistoia? - così disse un uomo imponente e magnificamente vestito che entrava nella stanza in quel momento»]</t>
+  </si>
+  <si>
+    <t>Nota di possesso autografa di EnricoGadda in data 9.09.1917.</t>
+  </si>
+  <si>
+    <t>Dedica dei traduttori.</t>
+  </si>
+  <si>
+    <t>Dedica del traduttore in data 17.10.1934.</t>
+  </si>
+  <si>
+    <t>«Carlo Emilio Gadda 18 maggio 1924 Milano»</t>
+  </si>
+  <si>
+    <t>[p. 26 r. 17-24 «La disciplina impedisce all'uomo di lasciarsi deviare dal suo destino, dall'umanità, per le sue inclinazioni animali. Occorre, per esempio, ch'essa lo moderi, perché egli non si getti nel pericolo come un animale feroce, o come uno stordito. Ma la disciplina è puramente negativa, perché restringe a spogliare l'uomo della sua selvatichezza; l'istruzione, al contrario, è la parte positiva dell'educazione»]</t>
+  </si>
+  <si>
+    <t>le leggi sono la conoscenza dei vincoli ed aiutano i disperdimenti di energie CEG.</t>
+  </si>
+  <si>
+    <t>[pp. 27-28 rr. 32-33; 1-2 «L'uomo ha bisogno di vigilanza e di cultura. La cultura abbraccia la disciplina e l'istruzione. Nessun animale, che noi sappiamo, ha bisogno di quest'ultima; imperchiocchè veruno di essi apprende alcun che dai suoi antenati, salvo quegli uccelli che imparano a cantare.»]</t>
+  </si>
+  <si>
+    <t>? errore e il volo? E tutto? Intuizione</t>
+  </si>
+  <si>
+    <t>[p. 28 rr. 15-22 «Li metta in una gabbia donde non possano udire i passeri di fuori; essi impareranno il canto dai canarini e così avremo passeri cantanti . Né meno stupendo è il fatto, che ogni specie d'uccelli conserva in tutte le generazioni un certo canto principale; così la traduzione del canto è la più fedele nel mondo. L'uomo non può diventare vero uomo che per 11 educazione; [...]»]</t>
+  </si>
+  <si>
+    <t>eit motif</t>
+  </si>
+  <si>
+    <t>[p. 28 rr. 25-29 «Quindi la mancanza di disciplina e d'istruzione in certi uomini li rende assai cattivi maestri dei loro allievi. Se un essere di natura superiore si prendesse cura della nostra educazione, vedrebbesi allora ciò che noi possiamo divenire»]</t>
+  </si>
+  <si>
+    <t>Mosè</t>
+  </si>
+  <si>
+    <t>[p. 29 rr. 3-9 «Ma una cosa tanto degna di osservazione per una mente speculativa quanto triste per un amico dell'umanità si è il vedere, che la più parte dei grandi non pensano che a sé stessi e non pigliano alcuna parte alle interessanti esperienze sulla educazione, per fare avanzare di qualche altro passo verso la perfezione la natura umana»]</t>
+  </si>
+  <si>
+    <t>non sempre vero</t>
+  </si>
+  <si>
+    <t>[p. 29 rr. 20-24 «Forse l'educazione diverrà sempre migliore, e ciascuna delle generazioni venture farà un passo di più verso il perfezionamento dell'umanità, imperocchè il gran segreto della perfezione della natura umana dimora nel problema stesso dell'educazione»]</t>
+  </si>
+  <si>
+    <t>fidelismo?</t>
+  </si>
+  <si>
+    <t>[p. 30 rr. 10-17 «Un ideale altro non è che il concetto d'una perfezione che non si è riscontrato ancora nell'esperienza: tal sarebbe, per esempio, l'idea d'una repubblica perfetta, governata secondo le regole della giustizia. Si dirà dunque impossibile? Basta, in primo luogo, che la nostra idea non sia falsa; in secondo luogo che non sia impossibile assolutamente di vincere tutti gli ostacoli per tradurla in atto. Se, poniamo, ciascuno mentisse, la veracità sarebbe per questo una chimera? L'idea di una educazione che svolga nell'uomo tutte le sue disposizioni naturali è vera assolutamente»]</t>
+  </si>
+  <si>
+    <t>“Tu sol o ideal sei il vero” di Mazzini</t>
+  </si>
+  <si>
+    <t>[pp. 30-31 rr. 21-33; 1-2 «Nè tra loro può essere uniformità di vita se non in quanto essi operino gli stessi principi e questi principi divengano per loro come una seconda natura. Noi possiamo almeno lavorare intorno al disegno d'una educazione conforma all'intento che dobbiamo proporci, e lasciare istruzioni agli avvenire che potranno a grado a grado metterle in pratica. Osservate, per esempio, i fiori detti orecchi di orso: quando li tiriamo dalle radici, hanno tutti il medesimo colore; quando invece se ne pianta il seme, otteniamo colori tutti differenti e svariatissimi. La natura ha dunque risposto in loro certi germi dle colore, e per isvilupparveli basta seminare e piantare convenientemente questi fiori. Il somigliante nell'uomo!»]</t>
+  </si>
+  <si>
+    <t>Selezione</t>
+  </si>
+  <si>
+    <t>[p. 31 rr. 6-11 «Gli animali compiono il loro destino spontaneamente e senza conoscerlo. L'uomo, al contrario, è obbligato a 12 cercar di conseguire il fine suo; il che non può egli fare se prima non ne ha un'idea. L'individuo umano non può compiere da sé questa destinazione»]</t>
+  </si>
+  <si>
+    <t>Finalismo</t>
+  </si>
+  <si>
+    <t>[p. 31 rr. 28-29 «L'educazione è un'arte la cui pratica ha bisogno d'essere perfezionata da più generazioni.»]</t>
+  </si>
+  <si>
+    <t>[p. 32 rr. 4-9 «La Provvidenza ha voluto che l'uomo fosse obbligato a cavare da se stesso il bene, e in qualche modo gli dice «Entra nel mondo. Io ho messo in te ogni specie di attitudini per il bene. Ora a te solo spetta svilupparle per il bene; quindi la tua felicità o la tua infelicità dipende da te.» Così il Creatore potrebbe parlare agli uomini!»]</t>
+  </si>
+  <si>
+    <t>La conoscenza e l'etica sono opera nota (Pirandello)</t>
+  </si>
+  <si>
+    <t>[pp. 33-34 rr. 32-33; 1-32 «I genitori, che hanno ricevuto essi pure una certa educazione, sono già esemplari su' quali si regolano i figli. Ma per rendere questi migliori, è necessario di fare uno studio della Pedagogia; diversamente nulla se ne può sperare, e l'educazione viene affidata ad uomini educati non bene. Al meccanismo nell'arte educativa bisogna sostituire la scienza, diversamente ella non sarà altro che uno sforzo continuo, ed una generazione potrebbe distruggere quanto un'altra avesse edificato. 6. Un principio di Pedagogia, al quale dovrebbero mirare segnatamente gli uomini che propongono norme di arte educativa, è questo: Che non devesi educare i fanciulli secondo lo stato presente della specie umana, ma secondo uno stato migliore, possibile nell'avvenire, cioè secondo l'idea dell'umanità e della sua intera destinazione. Questo principio è d'una importanza grande. I genitori educano per lo più i loro figli per la società presente, sia pure corrotta. Dovrebbero, al contrario, dal loro una educazione migliore, perché un migliore stato ne possa venir fuori nell'avvenire. Ma qui si parano dinanzi due ostacoli: 1° I genitori non si curano per ordinario che di una cosa sola, ed è che i lori figli facciano buona figura nel mondo; 2° I principi risguardano i propri sudditi come strumenti dei loro disegni. I genitori pensano alla casa, i principi allo Stato. Gli uni e gli altri non si propongono per fine ultimo il bene generale e la perfezione a cui è destinata l'umanità. Le basi fondamentali d'un disegno d'educazione fa d'uopo che abbiano un carattere mondiale. Ma il bene generale è un'idea che possa tornar dannosa al nostro bene particolare? Niente affatto! Imperocchè, quantunque sembri che gli si debba sacrificare»]</t>
+  </si>
+  <si>
+    <t>Dinamismo | necessità della difesa</t>
+  </si>
+  <si>
+    <t>[p. 35 rr.. 4-5 «I germi che sono riposti nell'uomo debbono svilupparsi ognor di vantaggio»]</t>
+  </si>
+  <si>
+    <t>? | davantage</t>
+  </si>
+  <si>
+    <t>[p. 35 rr. 14-18 «Se, invece, deve partire dai principi questo miglioramento, si cominci dunque a riformare la loro educazione; poiché si è commesso per lungo tempo questo grave sbaglio, di non resistere mai agli stessi principi nella loro gioventù»]</t>
+  </si>
+  <si>
+    <t>chi lo dice?</t>
+  </si>
+  <si>
+    <t>[p. 36 rr. 4-7 «Questi due risultamenti non sono procurati dal potere e dal denaro, ma sono facilitati; bensì potrebbero procurarli ove lo Stato non prelevasse le imposte unicamente nell'interesse del suo erario»]</t>
+  </si>
+  <si>
+    <t>Scarto concetto di Stato?</t>
+  </si>
+  <si>
+    <t>[p. 36 rr. 11-19 «La direzione delle scuole dovrebbe pertanto dipendere dal senno di persone competenti ed illustri. Ogni cultura comincia dai privati e da questi poi si diffonde. La natura umana può avvicinarsi di mano in mano al suo fine solamente per gli sforzi di persone dotate di generosi e grandi sentimenti, le quali s'interessano al bene del mondo sociale e sono in grado di concepire uno stato migliore, come possibile nell'avvenire»]</t>
+  </si>
+  <si>
+    <t>Sofarchia</t>
+  </si>
+  <si>
+    <t>[p. 36 rr. 21-26 «Al più desiderano ch'esso abbia una certa abilità, ma solo a fine di potersi giovare dei proprii sudditi come di strumenti più acconci ai loro disegni. I privati devono certamente badare al fine della natura fisica, ma devono soprattutto curare lo svolgimento della umanità»]</t>
+  </si>
+  <si>
+    <t>debole</t>
+  </si>
+  <si>
+    <t>[p. 37 rr. 2-7 «1° Disciplinare gli uomoni. Disciplinarli vuol dire cercar d'impedire che la parte animale non soffochi la parte veramente umana, così nell'umano individuo come nella società. Dunque la disciplina consiste semplicemente nello spogliar l'uomo della sua selatichezza»]</t>
+  </si>
+  <si>
+    <t>Inibizione</t>
+  </si>
+  <si>
+    <t>[p. 37 rr. 23-26 «Essa richiede certi modi cortesi, gentilezza e quella prudenza onde possiamo giovarci degli altri uomini pei nostri fini; e si regola secondo il gusto mutabile di ogni»]</t>
+  </si>
+  <si>
+    <t>Bene</t>
+  </si>
+  <si>
+    <t>[p. 38 rr. 17-24 «Altrimenti il male potrebbe esser lecito se Dio non l'avesse vietato, e che si può far benissimo una eccezione a favor loro. Dio, ch'è l'essere sovranamente santo, non vuole se non ciò ch'è buono. Egli vuole che noi pratichiamo la virtù per il suo valore intrinseco e non perché Ei lo comandi»]</t>
+  </si>
+  <si>
+    <t>Elevatezza</t>
+  </si>
+  <si>
+    <t>[p. 42 rr. 4-12 « 12. Quanto tempo deve durare l'educazione? Fino a che la natura ha voluto che l'uomo si governi da se stesso, fino a che si sviluppi in lui l'istinto del sesso, fino a che egli può divenire padre ed essere tenuto di educare alla sua 14 volta, ossia fino all'età di circa sedici anni. Decorsa quest'età, si può ricorrere a maestri che proseguano a coltivarlo, a sottoporlo ad una celata disciplina; ma la sua educazione regolare è finita»]</t>
+  </si>
+  <si>
+    <t>mio concetto</t>
+  </si>
+  <si>
+    <t>[p. 42-43 rr. 30; 2-3 «Senza questa condizione in lui non vi sarebbe altro che puro meccanismo; l'uomo sfornito di vera educazione non sa far uso della sua libertà»]</t>
+  </si>
+  <si>
+    <t>Italiani</t>
+  </si>
+  <si>
+    <t>[p. 43 rr. 8-15 «Qui devesi por mente alle infrascritte regole. 1° Bisogna lasciar libero il fanciullo fino dalla sua prima età e in tutti i suoi movimenti (salvo in quelle occasioni n cui può farsi del male, come, per esempio, se prendesse in mano uno strumento tagliente), a patto bensì di non impedire la libertà altrui, come quando grida, o manifesta il suo brio in modo troppo rumoroso e da recar disturbo agli altri»]</t>
+  </si>
+  <si>
+    <t>[p. 43 rr. 15-20 «2° Gli si deve mostrare ch'ei può conseguire i suoi fini, a patto bensì ch'egli permetta agli altri di conseguire i loro propri; ad esempio non si farà niente di piacevole per lui s'ei non fa ciò che desideriamo, come d'imparare ciò che gli viene insegnato, e via dicendo.»]</t>
+  </si>
+  <si>
+    <t>[p. 43 rr. 20-28 «3° Bisogna provargli che l'autorità, il costringimento a cui si sottopone, ha per fine d'insegnargli ad usar bene della sua libertà, che lo educhiamo ed istruiamo affinché possa un giorno esser libero, cioè fare a meno del soccorso altrui. Questo pensiero sorge assai tardi nella mente dei fanciulli, poiché non riflettono nei primi anni che dovranno un giorno provvedere da se stessi al loro mantenimento.»]</t>
+  </si>
+  <si>
+    <t>Vero!</t>
+  </si>
+  <si>
+    <t>[p. 45 rr. 12-17 «Quindi l'educazione consiste: 1° nella cultura scolastica o meccanica, che risguarda l'abilità; essa pertanto è didattica (e sta nell'opera del maestro); 2° nella cultura prammatica, che si riferisce alla prudenza (e sta nell'opera del governatore); 3° nella cultura morale, e si riferisce alla moralità»]</t>
+  </si>
+  <si>
+    <t>chiara divisione notevole il 2° termine</t>
+  </si>
+  <si>
+    <t>[p. 45 rr. 21-22 «La cultura della prudenza lo prepara a diventare cittadino vero, dacché gli conferisce un valore pubblico»]</t>
+  </si>
+  <si>
+    <t>Io direi che i (sic) dire primi termini vanno congiunti più per la vita individuale, sia per la pubblica</t>
+  </si>
+  <si>
+    <t>[p. 47 rr. 1-22 «L'educazione fisica consiste propriamente nelle cure date ai bambini o dai genitori, o dalle nutrici, o dalle bambinaie. Il nutrimento destinato dalla natura al bambino è il latte della sua propria madre. È un pregiudizio il credere che il bambino succhi in qualche modo col latte i sentimenti materni, benché sentiamo dire spesso: Tu hai succhiato ciò col latte di tua madre. Ma è di gran vantaggio pel bambino e per la madre che costei lo allatti da de stessa. Bisogna però ammettere, in certi casi estremi, le debite eccezioni per motivi di salute o di malattia. Si credeva un tempo che il primo latte che viene alla madre dopo il parto e che rassomiglia al siero fosse nocivo al bambino, e che la madre dovesse subito liberarsene prima di allattare la creatura. Ma il Rousseau fu il primo a richiamare l'attenzione dei medici sulle qualità di questo primo latte; se cioè potesse tornare utile al bambino, dacché la natura non ha fatto niente invano. E si è realmente trovato che questo latte non solo monda il corpo del neonato da quegli escrementi che contiene, detti meconio dai medici, me che è altresì buono e utile al bambino»]</t>
+  </si>
+  <si>
+    <t>Allattamento</t>
+  </si>
+  <si>
+    <t>[p. 48 rr. 10-11 «L'acido contenuto nel loro stomaco deve pertanto far cagliare il latte meglio di tutti gli altri adici, chè diversamente il latte della donna non avrebbe affatto la proprietà di rappigliarsi»]</t>
+  </si>
+  <si>
+    <t>cloridico</t>
+  </si>
+  <si>
+    <t>[p. 48 rr. 16-27 «Per esempio i Tongos campano quasi unicamente di carne, e son gente sana e robusta. Ma tutti i popoli di questa sorta hanno vita breve, e senza molto sforzo si può sollevare da terra un giovane alto che a prima giunta non si credeva leggero. Gli Svedesi, al contrario, ma segnatamente i popoli dell'India non mangiano quasi mai carne, e tuttavia i figli loro son bene allevati e crescono forti. Pare adunque che tutto dipenda dalla salute della madre o della balia, e che il cibo più confacente alla nutrice sia quello che la far star meglio di salute.»]</t>
+  </si>
+  <si>
+    <t>[p. 49 rr. 6-9 «In Russia i bambino certamente ereditano questo genere di gusti dalle madri loro, le quali amano bere l'acquavite; e si nota che i Russi sono forti e sani»]</t>
+  </si>
+  <si>
+    <t>[p. 50 rr. 4-13 «I popoli barbari non fanno uso di fasce pei bambini. I selvaggi dell'America, per esempio, scavano piccole fosse nella terra pei loro bambini; e ne guarniscono il fondo con polvere di vecchi alberi affinché l'orina e le immondezze vi si infiltrino ed i bambini possano così restarvi asciutti; e poi le cuoprono di foglie. Ma, del resto, lasciano ad essi affatto libero l'uso delle membra. Se noi fasciamo i bambini come mummie si fa unicamente per nostro comodo, cioè per toglierci la noia di vegliare perché non divengano storpi.»]</t>
+  </si>
+  <si>
+    <t>Bravo</t>
+  </si>
+  <si>
+    <t>[p. 51rr. 8-12 «Un'altra consuetudine nella prima educazione è di cullare i bambini, il mezzo più semplice è quello che adoprano certi contadini. Sospendono la culla alle travi per mezzo d'una corda e non danno che spingerla; la culla si dondola da sé.»]</t>
+  </si>
+  <si>
+    <t>cullamento (sic) treno</t>
+  </si>
+  <si>
+    <t>[p. 53 rr. 28-32 «Si adoprano in generale le dande e il carruccio per insegnare a camminare ai bambini. Ma è proprio curioso di voler insegnare a camminare ad un bambino; come se un uomo non potesse camminare sena che gli s'insegni.»]</t>
+  </si>
+  <si>
+    <t>camminare</t>
+  </si>
+  <si>
+    <t>[p. 55 rr. 1-7 «Basterebbe dire al bambino che vuole il pane: me lo puoi raffigurare? Egli ne disegnerebbe una figura ovale. Potremmo allora fargli notare, che non si distingue s'egli ha voluto disegnare un pane o una poietra. Così egli si proverà a fare un P, e di seguito formerà da se stessp il suo A B C, che potrà quindi surrogare con altri segni.»]</t>
+  </si>
+  <si>
+    <t>ma: lenta evoluzione del tecnicismo della scrittura come di tutto</t>
+  </si>
+  <si>
+    <t>[p. 55 rr. 8-26 «Vi sono alcuni bambini che nascono con certe imperfezioni nel corpo: si possono allora correggere queste deformità? Le ricerche dei più dotti scrittori hanno dimostrato, che le fascette di balena non possono recare nessun giovamento, ma non fanno altro che aggravare il male, impedendo la circolazione del sangue e degli umori, e lo sviluppo tanto necessario delle parti interne ed esterne del corpo. Se il bambino resta libero può ancora esercitare le sue membra; ma un individuo umano che porti il busto di balena quando arriva a cavarselo è molto più debole di altri che non ne abbia mai portato. Invece faremmo cosa vantaggiosa, a chi è nato deforme, di mettere un peso maggiore da quella parte in cui i muscoli sono più rilevati. Ma anche questo rimedio ha i suoi inconvenienti; poiché, qual è l'uomo che può illudersi di ristabilire l'equilibrio? La miglior cosa è che il fanciullo si eserciti da se stesso e prenda una posizione per quanto incomoda gli sia, perché tutte le macchine non giovano a nulla»]</t>
+  </si>
+  <si>
+    <t>deformità ortopedica</t>
+  </si>
+  <si>
+    <t>[p. 56 rr. 20-24 «Molti genitori vogliono che i loro figliuoli si avvezzino a tutto. Me questa è un'opera inutile, perché la natura umana in generale, e quella dei diversi uomini in particolare, non si presta ad ogni cosa, e molti figliuoli rimangono alle semplici regole»]</t>
+  </si>
+  <si>
+    <t>[p. 56-57 rr. 30-31; 1 «Del resto, anche nella natura troviamo molti esempi di periodicità; così gli animali hanno il loro tempo determinato per il sonno.»]</t>
+  </si>
+  <si>
+    <t>periodismo naturale</t>
+  </si>
+  <si>
+    <t>[p. 57 rr. 21-31 «In quanto all'educazione dello spirito, che si può in certo modo chiamare fisica, bisogna soprattutto curare che la disciplina non tratti i fanciulli come schiavi, e far sì ch'e' sentano sempre la loro libertà, ma in guisa tale da non ledere quella degli altri: ne segue pertanto che conviene abituarli alla resistenza. Parecchi genitori ricusano tutto a' loro figliuoli per esercitare così la loro pazienza, esigendo da questi più che da se stessi. Ma è una crudeltà. Date al bambino quanto gli abbisogna e poi ditegli: Tu ne hai abbastanza. Me è assolutamente necessario che questa sentenza sia irrevocabile.»]</t>
+  </si>
+  <si>
+    <t>bene! Fonte “fisica” dell'educazione morale</t>
+  </si>
+  <si>
+    <t>[p. 59 rr. 11-16 «Difatti, molte debolezze dell'uomo non provengono da quanto non gli si insegna, ma da quel tanto che gli comunicano le false impressioni. Così a mo' d'esempio, le nutrici spaventano i bambini, parlando di ragni, dei rospi e via dicendo. I bambini potrebbero certamente prendere i ragni,come pigliano altre cose.»]</t>
+  </si>
+  <si>
+    <t>Importante!</t>
+  </si>
+  <si>
+    <t>[p. 59 rr. 17-21 «Ma siccome le nutrici, veduto un ragno, palesano nella faccia il loro spavento, questo si comunica al bambino con una certa simpatia. Molti lo conservano per tutta la vita e, sotto questo aspetto, rimangono sempre fanciulli.»]</t>
+  </si>
+  <si>
+    <t>[p. 59 rr. 27-29 «La parte positiva dell'educazione fisica è la cultura; per questo l'uomo si distingue dal bruto. La cultura consiste principalmente nell'esercizio delle facoltà dello spirito.»]</t>
+  </si>
+  <si>
+    <t>non credo</t>
+  </si>
+  <si>
+    <t>[p. 59 rr. 31-33 «La prima essenziale regola è di fare a meno, per quanto è possibile, d'ogni strumento.»]</t>
+  </si>
+  <si>
+    <t>leit-motif dei mezzi artificiali</t>
+  </si>
+  <si>
+    <t>[p. 60 rr. 4-11 «Così, ci serviamo d'una corda per misurare una certa estensione, ma si può fare ugualmente colla semplice vista; ricorriamo ad un oriolo per determinare il tempo, ma basterebbe guardare la posizione del sole; ci serviamo d'un compasso per conoscere in qual regione è situata una foresta, ma si può anche sapere osservando il sole se di giorno e le stelle se di notte»]</t>
+  </si>
+  <si>
+    <t>Rousseau paradossale</t>
+  </si>
+  <si>
+    <t>[p. 60-61 rr. 321-2 «Egli deve, per esempio, poter attraversare luoghi stretti, salire su altezze a picco, donde si scorge l'abisso dinanzi a noi, camminare su palchi vacillanti»]</t>
+  </si>
+  <si>
+    <t>Alpinismo</t>
+  </si>
+  <si>
+    <t>[p. 61 rr. 13-19 «Ma la più parte degli uomini han paura d'una caduta presentata loro dalla immaginazione; e questa paura ne paralizza talmente le membra che per essi ci sarebbe davvero di saltare oltre. Questa paura cresce ordinariamente coll'età, e si riscontra in specie negli uomini che hanno molte occupazioni mentali»]</t>
+  </si>
+  <si>
+    <t>Auutosug| gestione</t>
+  </si>
+  <si>
+    <t>[p. 61 rr. 27-31 «Saltare, alzar pesi, tirare, lanciare, gettar sassi verso una mira, lottare, correre, e tutti gli esercizi di questo genere so loro adattati e utili. La danza regolare no pare convenga ancora ai fanciulli»]</t>
+  </si>
+  <si>
+    <t>[p. 62 rr. 2-12 «In generale i migliori giuochi sono quelli che, oltre sviluppare l'abilità, sono ancora esercitazioni pei sensi; ad esempio, quelli che esercitano la vista nel giudicare esattamente la distanza, la grandezza e la proporzione, nel trovare la posizione dei luoghi secondo le regioni, il che si può fare coll'aiuto del sole, e via dicendo. Tutti questi esercizi sono utilissimi e convenienti. Assai vantaggiosa è pure la immaginazione locale, ossia l'abilità di rappresentarci tutte le cose nei rispettivi luoghi dove sono state vedute; [...]»]</t>
+  </si>
+  <si>
+    <t>[p. 64 rr. 3-10 «Verso quanti lo chiamano a sé, deve mostrarsi famigliare, senza importunità; franco, senza impertinenza. Per ottenere questo da lui, bisogna non guastarlo in niente, non ispirargli idee di decoro, che varranno solo a renderlo timido e selvaggio, o che d'altra parte gli suggeriranno il desiderio di farsi valere. In un fanciullo niente v'ha di più ridicolo che una prudenza senile, od una sciocca presunzione.»]</t>
+  </si>
+  <si>
+    <t>[p. 64 rr. 11-15 «Nel secondo caso è nostro dovere di far maggiormente sentire al fanciullo i suoi difetti, ma procurando insieme di non fargli troppo sentire la nostra superiorità ed autorità, perché egli si formi da sé stesso come un uomo che dee vivere in società; [...]»]</t>
+  </si>
+  <si>
+    <t>leit-motif autoderminazione libertà</t>
+  </si>
+  <si>
+    <t>[p. 66 marg. sx.]</t>
+  </si>
+  <si>
+    <t>svago e lavoro</t>
+  </si>
+  <si>
+    <t>[p. 67 rr. 6-23 «L'ozio li avrebbe tormentati, come tormenta gli altri uomini. L'uomo dev'essere occupato in modo che, tutto compreso dal fine a cui mira, non senta più se stesso, e che il miglior riposo per lui sia quello che succede al lavoro. Vuolsi 19 pertanto avvezzare il fanciullo a lavorare. E dove la tendenza al lavoro può essere meglio coltivata che nella scuola? La scuola è una cultura obbligatoria. Si renderebbe al fanciullo un cattivo servigio se l'avvezzassimo a considerar tutto come uno svago. Egli deve certamente avere i suoi momenti di ricreazione, ma anco le sue ore di lavoro. Se non comprende subito l'utilità di quest'obbligo, la comprenderà più tardi. Voler sempre rispondere alle dimande dei fanciulli: Perché ciò? A qual fine? Sarebbe lo stesso, in generale, che procurar loro abiti di curiosità indiscreta. L'educazione dev'essere obbligatoria; il che per altro non vuol dire che i fanciulli si abbiano a trattare come schiavi.»]</t>
+  </si>
+  <si>
+    <t>Necessità dell'obbligo e del lavoro</t>
+  </si>
+  <si>
+    <t>[p. 68 marg. sup.]</t>
+  </si>
+  <si>
+    <t>Simultaneamente</t>
+  </si>
+  <si>
+    <t>[p. 70 rr. 7-14 «La memoria devesi coltivare per tempo, procurando bensì di coltivare insieme anche la intelligenza. Si coltiva la memoria: 1° facendole ritenere i nomi che trovansi nelle narrazioni; 2° mercè la lettura e la scrittura, esercitando i fanciulli a leggere attentamente e senza bisogni di compitare; 3° con lo studio delle Lingue, che i fanciulli debbono capire avanti di passare a leggerne qualcosa.»]</t>
+  </si>
+  <si>
+    <t>Memoria</t>
+  </si>
+  <si>
+    <t>[p. 71 rr. 4-15 «Nell'istruzione del fanciullo bisogna cercare di unire a grado a grado il sapere e il potere. Fra tutte le scienza la Matematica pare sia la più adatta a far conseguire questo fine. Inoltre, bisogna unire la scienza a la parola (la facilità del dire, l'eleganza, l'eloquenza). Ma occorre altresì che il fanciullo impari a distinguere perfettamente la scienza dalla semplice opinione e dalla credenza. A questo modo si formerà in lui una mente retta, e un gusto giusto se non fine o delicato. Il gusto da coltivarsi sarà prima quello dei sensi, degli occhi specialmente, e infine quello delle idee»]</t>
+  </si>
+  <si>
+    <t>sapere e potere | Il gusto</t>
+  </si>
+  <si>
+    <t>[p. 71 rr. 16-21 «Vi debbono essere norme per tutto ciò che può coltivare l'intelletto. È anche utilissimo di astrarle, affinché l'intelletto non proceda in modo puramente meccanico, ma abbia coscienza della regola che segue. Riesce ancora di grande utilità l'esprimere le norme con una certa formula e tramandarle così alla memoria.»]</t>
+  </si>
+  <si>
+    <t>autocoscienza didattica</t>
+  </si>
+  <si>
+    <t>[p. 71 rr. 23-29 «E qui si domanda: conviene principiare dallo studio delle regole astratte, e ke su devono apprendere dopo averne fatto uso, oppure conviene far procedere di pari passo le regole e il loro rispettivo uso? Quest'ultimo è il solo partito conveniente: nell'altro caso l'uso rimane incertissimo finché non siamo arrivati alle regole.»]</t>
+  </si>
+  <si>
+    <t>induzione e deduzione contemporanee</t>
+  </si>
+  <si>
+    <t>[p. 72 r. 3 «Cultura generale delle facoltà dello spirito, diversa dalla cultura particolare. Quella ha per fine l'abilità e il perfezionamento; [...]]»]</t>
+  </si>
+  <si>
+    <t>Fine dell'educazione</t>
+  </si>
+  <si>
+    <t>[p. 72 rr. 8-25 «a) Nella cultura fisica tutto dipende dalla pratica e dalla disciplina, e il fanciullo non ha bisogno di conoscere alcuna massima. È cultura passiva pel discepolo, che deve seguire l'altrui direzione. Altri pensano per lui. b) La cultura morale si fonda sulle massime, e non sulla disciplina. Tutto è perduto quando la si voglia fondare sull'esempio, sulle minacce, sulla punizione, e via dicendo. Sarebbe allora una pura disciplina. Bisogna fare in modo che l'allievo operi bene secondo le proprie sue massime e non per mero abito, e che non faccia solamente il bene, ma che lo faccia perché è bene in sé. Imperocché tutto il valore morale selle azioni risiede nelle massime del bene. Tra l'educazione fisica e l'educazione morale corre questo divario: la prima è passiva per l'allievo, mentre la seconda è attiva. Fa d'uopo ch'egli veda sempre il principio fondamentale dell'azione e il vincolo che le rannoda all'idea del dovere.»]</t>
+  </si>
+  <si>
+    <t>bene! | Conoscenza Socrate | fisica intende disciplina cioè coltivazione della natura cui sono le leggi</t>
+  </si>
+  <si>
+    <t>[p. 74 rr. 15 «Il miglior mezzo di comprendere è quello di fare»]</t>
+  </si>
+  <si>
+    <t>Intuizione è espressione (Croce)</t>
+  </si>
+  <si>
+    <t>[p. 76 rr. 1-13 «Si crede di esercitare la pazienza de' giovinetti facendo loro attendere una cosa per lungo tempo. Il che non dovrebbe essere punto necessario. Ma essi han bisogno di pazienza nelle malattie e in altre contingenze della vita. Di sue sorta è la pazienza: consiste o nel rinunziare ad ogni speranza, o nel prendere nuovo coraggio. La prima non è necessaria, quando si desideri unicamente il possibile; e si può aver sempre la seconda, quando non altro si desideri che il giusto. Ma tanto funesto è il perdere la speranza nelle malattie, quanto è favorevole il coraggio al ristabilirsi della salute. Chi è capace di mostrarne ancora nel suo stato fisico o morale, non rinuncia alla speranza.»]</t>
+  </si>
+  <si>
+    <t>acuto</t>
+  </si>
+  <si>
+    <t>[p. 76 rr. 14-29 «Non bisogna render più timidi i fanciulli. Questo accade principalmente quando ci rivolgiamo ad essi con parole ingiuriose quando si umiliano spesso. Conviene pertanto biasimare quelle parole che molti genitori indirizzano ai loro figli; Eh, non ti vergogni! Non vedesi che i fanciulli potrebbero vergognarsi quando, per esempio, mettono in bocca il loro dito. Si può dir loro che ciò non sta bene, questo non essendo l'uso: ma dobbiamo dir loro che si vergognino solo quando mentiscono. La natura ha dato all'uomo il rossore della vergogna, perché si palesi quand'egli mentisce. Se dunque i genitori parlassero di vergogna ai loro figli solamente quando mentiscono, essi conserverebbero fino alla morte questo rossore per la menzogna. Ma se li facciamo arrossire di continuo, si darà loro una timidezza che non li abbandonerà più.»]</t>
+  </si>
+  <si>
+    <t>tragiche verità!</t>
+  </si>
+  <si>
+    <t>[p. 77r. 2 «Non è conforme a natura ch'egli comandi con le sue grida, e che il forte obbedisca al debole»]</t>
+  </si>
+  <si>
+    <t>mio lavoro | !</t>
+  </si>
+  <si>
+    <t>[p. 78 rr. 1-11 «Ma quando ci siano queste ragioni per non cedere, non bisogna lasciarsi più commuovere da molte preghiere. Ogni rifiuto dev'essere irrevocabile. Ecco un mezzo certo per non ripetere così di frequente il rifiuto. Supponete che vi sia nel fanciullo (cosa da potersi ammettere assai di rado) una tendenza naturale alla indocilità: il miglior partito si è, quando egli non faccia niente per rendersi a noi piacevole, di non far niente per lui. Piegano la sua volontà, gl'ispiriamo sentimenti servili; la resistenza naturale, al contrario, genera la docilità.»]</t>
+  </si>
+  <si>
+    <t>Mio metodo con gli italiani</t>
+  </si>
+  <si>
+    <t>[p. 78 rr. 23-32 «Quando un fanciullo mentisce, per esempio, non si deve punire, ma si deve trattare con disprezzo, dirgli che in avvenire non gli crederemo più, e somiglianti. Ma se lo castighiamo quando fa male, e lo ricompensiamo quando fa bene, egli allora fa il bene per essere ben trattato; e quando più tardi entrerà nel mondo dove le cose procedono altrimenti, dove cioè egli può fare il bene ed il male senza riceverne ricompensa o castigo, non penserà che ai mezzi per conseguire il suo fine, e sarà buono o cattivo secondo l'utile proprio»]</t>
+  </si>
+  <si>
+    <t>Bene → sviluppo della personalità morale | bene | La norma, la legge!</t>
+  </si>
+  <si>
+    <t>[p. 79 marg. sup.]</t>
+  </si>
+  <si>
+    <t>Il disprezzo, arma potente sviluppo e istituzione della pers.</t>
+  </si>
+  <si>
+    <t>[p. 79 rr. 28-31 «Gli uomini che non si sono proposti certe regole non potrebbero inspirare molta fiducia: spesso ci accade di non poterli comprendere, né mai sappiamo da qual verso conviene pigliarli»]</t>
+  </si>
+  <si>
+    <t>gli Italiani</t>
+  </si>
+  <si>
+    <t>[pp. 79-80 rr. 31-32; 1-5 «Vero è che non di rado si biasima la gente che opera sempre secondo certe regole, come un tale che ha sempre un'ora ed un tempo stabilito per ogni azione; ma sovente questo biasimo è ingiusto, e quella regolarità è una favorevole disposizione al carattere, benché sembri una tortura.»]</t>
+  </si>
+  <si>
+    <t>povero Kant! La sua passeggiatina</t>
+  </si>
+  <si>
+    <t>[p. 80 rr. 6-26 «Elemento essenziale del carattere d'un fanciullo, e segnatamente d'uno scolaro, è soprattutto l'obbedienza. Questa è di due sorte: prima, un'obbedienza alla volontà assoluta di chi dirige; seconda, un'obbedienza ad una volontà risguardata come ragionevole e buona. L'obbedienza può venire dal costringimento, dall'autorità, e allora è assoluta; o dalla 22 fiducia e in questo caso è volontaria. Importantissima è la seconda; ma anche la prima è assolutamente necessaria, perché questa prepara il fanciullo al rispetto delle leggi che dovrà più tardi osservare come cittadino, quand'anche non gli andasse a genio. Si deve dunque sottoporre i fanciulli ad una certa legge di necessità. Ma questa legge dev'essere universale, e bisogna averla sempre dinanzi alla mente nelle scuole. Il maestro non deve mostrare alcuna predilezione, alcuna preferenza per uno scolaro tra molti: chè diversamente la legge cesserebbe d'essere universale. Quando il fanciullo vede che tutti gli altri non sono sottoposti alla medesima legge come lui, diviene ostinato.»]</t>
+  </si>
+  <si>
+    <r>
+      <t>1° obbedienza alla personalità 2° obbedienza alla legge (rappresentata dalla pers.)</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Ανανχη morale</t>
+    </r>
+  </si>
+  <si>
+    <t>[pp. 80-81 rr. 32-33; 1 «Imperocché nei servizii pubblici, nelle funzioni unite alle cariche, ed in molti altri casi il dovere solo può guidarci e non la inclinazione»]</t>
+  </si>
+  <si>
+    <t>leit-motif | bene! | bene! gli italiani</t>
+  </si>
+  <si>
+    <t>[p. 81 rr. 24-27 «Le altre pene vanno adoperate con precauzione, affinché non generino disposizioni servili (indoles servilis). Non conviene dar ricompense ai fanciulli, perché ciò li rende interessati e genera in essi disposizione mercenarie (indole mercenaria)»]</t>
+  </si>
+  <si>
+    <t>Bene | bene</t>
+  </si>
+  <si>
+    <t>[p. 82 rr. 12-18 «Non approdano i castighi inflitti con segni manifesti di collera. Allora i fanciulli ci vedono solamente gli effetti delle passioni altrui, e considerano se stessi come vittime di questa passione. In generale, bisogna fare in modo che i fanciulli stessi vedano come il fine vero ed ultimo delle pene inflitte sia il loro miglioramento.»]</t>
+  </si>
+  <si>
+    <t>Bene t | tragica verità</t>
+  </si>
+  <si>
+    <t>[p. 82 rr. 29-31 «Parlar di dovere ai fanciulli è fiato sprecato; essi alla fine concepiscono il dovere come una cosa da farsi sotto pena di essere frustati.»]</t>
+  </si>
+  <si>
+    <t>Il Kant con grande acume distingue anche nel tempo il periodo disciplinare dal (ed. fisica) dal normativo teoretica legge! | Postilla collegata al brano tramite freccia</t>
+  </si>
+  <si>
+    <t>[p. 83 r.r. 12-14 «Molti fanciulli hanno una disposizione alla menzogna, che spesso deriva unicamente da una talquale vivacità d'immaginazione»]</t>
+  </si>
+  <si>
+    <t>[p. 83 rr. 18-20 «[...]; se pure esse non vi trovino una prova lusinghiera delle attitudini e delle capacità superiori dei loro figli.»]</t>
+  </si>
+  <si>
+    <t>[p. 84 rr. 4-5 «Preme sommamente di non tener rancore verso i fanciulli.»]</t>
+  </si>
+  <si>
+    <t>[p. 84 rr. 10-15 «I fanciulli debbono così prepararsi al più dolce di tutti i piaceri della vita. Dal canto loro, i maestri non hanno da preferire alcuno di essi per le sue doti intellettuali, ma per carattere; diversamente ne risulterebbe una gelosia contraria all'amicizia.»]</t>
+  </si>
+  <si>
+    <t>mia idea e tendenza</t>
+  </si>
+  <si>
+    <t>[p. 84 rr. 19-21 «Ogni religione che renda cupo l'uomo è falsa, poiché egli deve servire Dio con piacere e non per forza. Non bisogna sempre comprimere l'allegria sotto la dura soggezione»]</t>
+  </si>
+  <si>
+    <t>socialità italiani cravatte nere</t>
+  </si>
+  <si>
+    <t>[p. 84 r. 26 «L'anima ritorna allora serena»]</t>
+  </si>
+  <si>
+    <t>!!</t>
+  </si>
+  <si>
+    <t>[p. 85 rr. 5-18 «Un fanciullo non può avere che la prudenza di fanciullo: e' non dev'essere un cieco imitatore. Ora, un fanciullo che vi pone davanti le massime del senno proprio degli uomini, va fuori della via tracciata alla sua età, e non fa che imitare servilmente. Egli dee avere solamente l'intelligenza d'un fanciullo, e non deve mettersi in evidenza così presto. Un fanciullo cosiffatto non diventerà mai un uomo illustre e d'una mente serena. Non si può egualmente tollerare un fanciullo che voglia già eseguire tutte le mode, per esempio, farsi radere, portare anelli ed anche una tabacchiera.. ' diviene così un individuo affettato, che non rassomiglia punto ad un fanciullo. Una vera società civile per lui è un peso, e finisce per mancargli del tutto il vero coraggio dell'uomo.»]</t>
+  </si>
+  <si>
+    <t>geni precoci | invece mia profonda originalità nei giochi, pensieri, ecc (costruttività) [?]</t>
+  </si>
+  <si>
+    <t>[p. 85 marg. inf.]</t>
+  </si>
+  <si>
+    <t>Idee Dantesche sull'eleganza del vestito. Mie idee sull'abbigliamento</t>
+  </si>
+  <si>
+    <t>[p. 86 rr. 20-28 «L'arte di apparire esteriormente è la convenienza, e bisogna possedere quest'arte. Difficil cosa è indagare l'animo altrui, ma devesi necessariamente comprendere l'arte di render se stesso impenetrabile. Bisogna pertanto dissimulare, cioè nascondere i propri difetti. Dissimulare non è sempre fingere e può talvolta esser lecito ma si avvicina, oltre che all'astuzia, all'immoralità. La dissimulazione è un mezzo disperato.»]</t>
+  </si>
+  <si>
+    <t>! verità tragica</t>
+  </si>
+  <si>
+    <t>[p. 88 rr. 1-10 «Val meglio saper poco ma saperlo bene, che saper molto ma superficialmente; perché in questo caso uno finirà sempre per accorgersi della imperfezione delle sue conoscenze. Ma il fanciullo ignora altresì in quali circostanze avrà bisogno di queste o quelle cognizioni, e quindi è meglio ch'ei sappia di tutto qualcosa profondamente: se no egli ingannerebbe ed abbaglierebbe gli altri con imperfette cognizioni»]</t>
+  </si>
+  <si>
+    <t>affinare | (anche in arte espressione = conoscenza)</t>
+  </si>
+  <si>
+    <t>[p. 88 rr. 17-19 «Difatti un uomo che prenda una certa risoluzione e che non la eseguisce, non può aver più fiducia»]</t>
+  </si>
+  <si>
+    <t>disgregazione della personalità</t>
+  </si>
+  <si>
+    <t>[p. 88 rr. 26-27 «[...]; e se rimando di giorno in giorno d'eseguire la mia risoluzione, finisco col perdere fiducia in me stesso»]</t>
+  </si>
+  <si>
+    <t>Importanza dell'atto volitivo rispetto alla formazione della personalità</t>
+  </si>
+  <si>
+    <t>[pp. 89-90 rr. 32; 1-9 «Difatti, all'uomo corre obbligo di non disconoscere nella sua propria persona la dignità della natura umana. Ora noi dimentichiamo questa dignità quando, per esempio, ci diamo all'ebbrezza e a vizi contro natura, ad ogni sorta d'intemperanza: cose tutte che pongono l'uomo più basso ancora dell'animale, Nè meno contrario alla dignità umana è l'avvilirsi dinanzi agli altri, o ricoprirli di complimenti, sperando di cattivarsi l'animo loro con una condotta sì inadeguata»]</t>
+  </si>
+  <si>
+    <t>debole | luoghi comuni</t>
+  </si>
+  <si>
+    <t>[p. 90 rr. 12-19 «Dovrebbesi far sentire la dignità umana al fanciullo nella sua propria persona, nel caso (per esempio) di laidezza, che almeno disdice all'umanità. Ma è soprattutto colla menzogna che il fanciullo si rende inferiore alla natura umana, giacché suppone oramai dispiegata in lui la facoltà di pensare e quella di comunicare agli altri i suoi pensieri. La menzogna fa dell'uomo un essere degno di generale disprezzo, e lo rende a se stesso indegno di quella stima e fiducia che ognuno dovrebbe portare a sé medesimo»]</t>
+  </si>
+  <si>
+    <t>Dimostrare</t>
+  </si>
+  <si>
+    <t>[p. 90 rr. 29-33 «La generosità i fanciulli non la posseggono affatto. A persuadersi di ciò, basta che i genitori impongano al loro figlio di dare ad un altro la metà d'una fetta di pane coperta di burro senza promettergliene un'altra; [...]»]</t>
+  </si>
+  <si>
+    <t>[p. 92 rr.16-20 «Che il fanciullo sia tutto penetrato non dal sentimento, ma dall'idea del dovere! Molte persone son divenute realmente dure di cuore perché altre volte essendosi mostrate compassionevoli, furono di sovente tratte in inganno.»]</t>
+  </si>
+  <si>
+    <t>Bene | Italiani | → caso mio</t>
+  </si>
+  <si>
+    <t>[p. 92 rr. 21.24 «I preti commettono assai volte l'errore di presentare gli atti di beneficenza come qualcosa di meritorio. Anche senza riflettere che, agli occhi di Dio, non possiamo far mai che il nostro dovere»]</t>
+  </si>
+  <si>
+    <t>bene!</t>
+  </si>
+  <si>
+    <t>[p. 93 rr. 6-10 «Far consistere l'umiltà nello stimar sé meno degli altri è assurdo. - Vedi come questo o quel fanciullo si porta bene! E somiglianti espressioni. Parlar così ai fanciulli non è certo il modo d'inspirar loro nobili sentimenti..»]</t>
+  </si>
+  <si>
+    <t>questa è pusillanimità però vedere Pr. Sposi Card. Federigo</t>
+  </si>
+  <si>
+    <t>[p. 94 rr. 24-28 «Si domanda: l'uomo è moralmente buono o cattivo per sua natura? Io rispondo: egli non è moralmente buono né cattivo, perché non è un essere morale per natura; e diviene morale quando innalza la sua ragione fino alle idee del dovere e della legge.»]</t>
+  </si>
+  <si>
+    <t>La parola stessa lo dice morale = secondo la norma. Bisogna imparare e attuare la norma</t>
+  </si>
+  <si>
+    <t>[p. 95 rr. 4-9 «La maggior parte dei vizi derivano da quello stato di moralità che fa violenza alla natura; e ciò nondimeno la nostra destinazione come uomini è di uscire dal puro stato di natura dove non corre differenza tra noi e gli animali bruti. L'arte perfetta ritorna alla natura»]</t>
+  </si>
+  <si>
+    <t>Da meditare. Fatalità certe volte (per i malati)</t>
+  </si>
+  <si>
+    <t>[p. 95 rr. 10-23 «Nella educazione tutto dipende da una cosa ed è: si stabiliscano dovunque buoni principi e si facciano comprender bene e accettare dagli alunni. Questi devono imparare a sostituire all'odio l'orrore di tutto ciò che ripugna l'animo od è assurdo; il timore della propria coscienza a quello degli uomini e dei castighi divini; la stima di se medesimi e la dignità interiore all'opinione altrui; pregio intrinseco delle parole e la condotta ai moti del cuore; l'intelligenza al sentimento; una pietà serena e di animo lieto a una devozione mesta, cupa e selvaggia. Ma bisogna anzitutto preservare i giovani dal pericolo di stimar troppo i meriti della fortuna (merita fortunae)»]</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>[p. 95 rr. 28-32 «Ora, come insegnare una Teologia alla prima gioventù, che non conosce ancora il mondo e neppure se stessa? I fanciulli, che non hanno ancora la nozione del dovere, come potrebbero.»]</t>
+  </si>
+  <si>
+    <t>Religione</t>
+  </si>
+  <si>
+    <t>[p. 96 rr. 1-20 «Ciò che v'ha di certo si è, che se potesse avvenire che i fanciulli non fossero mai presenti ad alcun atto di 26 venerazione verso l'Ente supremo, e non udissero mai pronunziare il nome di Dio, sarebbe allora conforme all'ordine delle cose d'attirare prima la loro attenzione sulle cause finali e su quanto si addice all'uomo, di esercitarvi il loro giudizio, d'istruirli sull'ordine e sulla cognizione più estesa e perfetta del sistema dell'universo e di venir così alla idea d'un Ente supremo di un Legislatore. Ma siccome tutto ciò non è possibile nello stato presente della società, come non può vietarsi che i fanciulli non odano pronunziare il nome di Dio e non siano presenti ad atti di devozione verso di Lui, se volessimo attendere per insegnar loro qualcosa intorno a Dio, ne deriverebbe nel loro animo una grande indifferenza per la Divinità, o un'idea falsa di essa, come il timore della potenza divina. Ora, poiché bisogna evitare che questa idea metta radice nella immaginazione»]</t>
+  </si>
+  <si>
+    <t>Importante rompicapo Renso (sic)</t>
+  </si>
+  <si>
+    <t>[p. 96 rr. 25-31 «I fanciulli, pur non avendo ancora l'idea astratta del dovere, dell'obbligazione, della condotta buona o cattiva, capiranno esservi una legge del dovere, e ch'essa non consiste nel piacere, nell'utile, o in altre simili considerazioni che la determinano, ma in qualcosa di generale che non si fonda sui capricci umani. Bensì il maestro medesimo deve farsi questa idea.»]</t>
+  </si>
+  <si>
+    <t>Dovere</t>
+  </si>
+  <si>
+    <t>[p. 98 rr. 5-21 «Ma non bisogna cominciare dalla Teologia. La religione che sia fondata semplicemente sulla Teologia, non può contenere alcun che di morale. Essa non ispirerà altri sentimenti che il timore da una parte e la speranza del premio dall'altra; e quindi produrrà un culto superstizioso. La Morale deve pertanto venir prima della Teologia. E così abbiamo la Religione. Dimandarsi coscienza la legge considerata in noi. La coscienza è veramente l'applicazione delle nostre azioni a questa legge. I rimorsi della coscienza resteranno inefficaci, ove non li consideriamo come rappresentanti di Dio, il cui trono sublime è fuori e sopra di noi, ma che ha pure stabilito in noi un tribunale. D'altra parte, quando la Religione non è accompagnata dalla coscienza morale, come abbiamo detto, è un culto superstizioso.»]</t>
+  </si>
+  <si>
+    <t>Kant</t>
+  </si>
+  <si>
+    <t>[p. 99 rr. 19-25 «Si dovrebbe nello stesso tempo istruire la gioventù a scoprire il bene nel male, mostrandole, per esempio, modelli di nettezza e di operosità negli animali di rapina e negli insetti. Essi fan ricordare agli uomini cattivi il rispetto della legge. Gli uccelli che danno la caccia ai vermi, sono i difensori de' giardini; e così prosegui»]</t>
+  </si>
+  <si>
+    <t>Debole</t>
+  </si>
+  <si>
+    <t>[p. 102 rr. 12-21 «Il giovine apprenda per tempo a dimostrare alla donna tutto il rispetto che le si deve, a meritarne la stima con lodevole operosità, ed a prepararsi così all'onore d'una felice unione. La seconda differenza che il giovinetto, vicino oramai ad entrare nel mondo, comincia a porre è quella che risguarda la distinzione dei ceti e la disuguaglianza degli uomini.»]</t>
+  </si>
+  <si>
+    <t>debole? Lotta sessuale?</t>
+  </si>
+  <si>
+    <t>[p. 103 rr. 16-23 «Conviene pure istruire il giovine a mostrarsi festevole e di buon umore. La serenità dell'animo deriva naturalmente dalla coscienza tranquilla. Raccomandategli pertanto di conservare lo stesso temperamento. Con l'esercizio egli può arrivare a mostrarsi sempre di buon umore in società. Abituatelo a considerare molte cose come doveri.»]</t>
+  </si>
+  <si>
+    <t>ma non sempre è possibile</t>
+  </si>
+  <si>
+    <t>Nota di possesso autografa in data 03.1925.</t>
+  </si>
+  <si>
+    <t>[p. 76 foglio inserito]</t>
+  </si>
+  <si>
+    <t>Calonne alle finanze 75 | 1783</t>
+  </si>
+  <si>
+    <t>Dedica dell’autore in data 26.1.1947.</t>
+  </si>
+  <si>
+    <t>Nota di possesso autografa in data 20.05.1909.</t>
+  </si>
+  <si>
+    <t>Nota di possesso autografa in data 1920.</t>
+  </si>
+  <si>
+    <t>Nota di possesso in data 11.1915.</t>
+  </si>
+  <si>
+    <t>A Carlo Emilio Gadda | con affetto | Leonetto Leoni | Firenze, 12 nov. 1967</t>
+  </si>
+  <si>
+    <t>Leonetto Leoni | viale Lami 54 | Firenze | richiede ricevuta dopo spedizione libro. Risposto a sollecito | C.E.G. | Editore Vallecchi, Firenze</t>
+  </si>
+  <si>
+    <t>Nota di possesso autografa in data 1922 Milano.</t>
+  </si>
+  <si>
+    <t>[p. 30 rr. 12-17 «Ce rythme respiré/ bat la mesure/ à l’éternelle présence/ de son âme en éveil/ à l’eternelle présence/ de cette âme qu’il dispense»]</t>
+  </si>
+  <si>
+    <t>Valmore</t>
+  </si>
+  <si>
+    <t>[p. 31 rr. 5-11 «Elle s’élève jusqu’au sommet de la douleur/ la voix qui invoque/la voix qui supplie,/ et... volà... il s’agenouille l’homme/ et de sa voix enfin déployée/ il chante la palinte qui monte dans l’espace/ la prière qui vit dans l’espoir»]</t>
+  </si>
+  <si>
+    <t>Verlaine</t>
+  </si>
+  <si>
+    <t>Dedica dell’autore in data 9.1928.</t>
+  </si>
+  <si>
+    <t>Dedica dell’autore in data 6.11.1936. Postille.</t>
+  </si>
+  <si>
+    <t>[p. 31 marg. sup.]</t>
+  </si>
+  <si>
+    <t>Martedì</t>
+  </si>
+  <si>
+    <t>[p. 217 rr. 7-9 «Iam et sinistro cornu Romanis, ubi sociorum equites adversus Numidas steterant, consertum proelim erat, segne primo et a Punica coeptum fraude.»]</t>
+  </si>
+  <si>
+    <t>Tradimento di monarca Numidia</t>
+  </si>
+  <si>
+    <t>[p. 218 rr. 11-15 «Parte altera pugna Paulus, quamquam primo statim proelio funda graviter ictus fuerat, tamen et occurrit saepe cum confertis Hannibali et aliquot locis proelium restituit, protegentibus eum equitibus romanis omissis postremo equis, qui consulem et ad regendum equom vires deficiebat.»]</t>
+  </si>
+  <si>
+    <t>Morte del console E. Paolo</t>
+  </si>
+  <si>
+    <t>[p. 219 rr. 15-16 «Ad ea consul: “tu quidem, Cn. Corneli, macte virtute esto;”[...]»]</t>
+  </si>
+  <si>
+    <t>Sii lodato</t>
+  </si>
+  <si>
+    <t>[p. 221 rr. 7-10 «[...] octoginta praeterea aut senatores aut qui eos magistratus gessissent, unde in senatum legi deberent, cum sua volluntate milites in legionibus facti essent.»]</t>
+  </si>
+  <si>
+    <t>Essere scelti</t>
+  </si>
+  <si>
+    <t>[p. 221 rr. 12-16 «Haec est pugna Cannensis, Aliensi cladi nobilitate par ceterum ut ullis, quae post pugnam accidere, levior, quia ad hoste est cessatum, sic strage exercitus gravior foediorque. Fuga namque ad Aliam sicut urbem prodidit, ita exercitum sevavit; [...]»]</t>
+  </si>
+  <si>
+    <t>Confronto colla battaglia di Allia</t>
+  </si>
+  <si>
+    <t>[p. 222 rr. 1-4 «Binis in castris cum multitudo semiermis sine ducibus esset, nuntium qui in maioribus erant mittunt, dum proelio, deinde ex letitia epulis fatigatos quies nocturna hostes premeret, ut ad se transirent: [...]»]</t>
+  </si>
+  <si>
+    <t>I soldati degli accampamenti</t>
+  </si>
+  <si>
+    <t>[p. 222 marg. inf..]</t>
+  </si>
+  <si>
+    <t>T. L. con 600 va si salva</t>
+  </si>
+  <si>
+    <t>[p. 223 rr. 8-12 «Et cum in latus dextrum, quod patebat, Numidiae iacularentur, translatis in dextrum scutis in maiora castra ad DC evaserunt, atque inde protinus alio magno agmine adiuncto Canusium incolumes perveniunt.»]</t>
+  </si>
+  <si>
+    <t>Duecento</t>
+  </si>
+  <si>
+    <t>[p. 223 marg. inf..]</t>
+  </si>
+  <si>
+    <t>Parole di Annibale</t>
+  </si>
+  <si>
+    <t>[p. 224 rr. 7-19; p. 225 r. 1 «Itaque voluntatem se laudare Maharbalis ait, ad consilium pensandum temporis opus esse. Tum Maharbal: “non amnia nimirum eidem dii dedere: vincere scis, Hannibal, victoria uti nescis.” Mora eius diei satis credsitur saluti fuisse urbi atque imperio. Postero die ubi primum inluxit, ad spolia legenda foedamque etiam hostibus spectandam stragem insistunt. Iacebat tot Romanorum milia, pedites passim equitesque, ut quem cuinque fors aut pugna iunxerat aut fuga. Adsurgentes quidam ex strage media cruenti, quos stricta matutino frigore excitaverant vulnera, ad hoste oppressi sunt. Quosdam et iacentis vivos succisis feminibus poplitibusque invenerunt, nudantis cervicem iugulumque et reliquum sanguinem iubentes haurire.»]</t>
+  </si>
+  <si>
+    <t>Descrizione del campo di battaglia</t>
+  </si>
+  <si>
+    <t>[p. 225 rr. 12-14 «Pacti, ut arma atque equos traderent, in capita Romana trecenis nummis quadrigatis, in socios ducenis, in servos centenis, […]»]</t>
+  </si>
+  <si>
+    <t>Resa dell’accampamento minore</t>
+  </si>
+  <si>
+    <t>[p. 226 rr. 1-6 «Dum ibi tempus teritur, interea cum ex maioribus castris, quibus satis virium et animi fuit, ad quattuor mila hominum et ducenti equites, alii agmine, alii palati passim per agros, quod haud minus tutum erat, Canusium perfugissent, castra ispa ab sauciis timidisque eadem condicione, qua altera, tradita hosti.»]</t>
+  </si>
+  <si>
+    <t>Canusio</t>
+  </si>
+  <si>
+    <t>[p. 226 rr. 14-18 «Eos, qui Canusium perfugerant, mulier Apula nomine Busa, genere clara ac divitiis moenibus tantum tactisque a Canusinis acceptos, frumento veste viatico etiam iuvit, proqua ei munificentia postea bello perfecto ab senatu honores habiti sunt.»]</t>
+  </si>
+  <si>
+    <t>Busa</t>
+  </si>
+  <si>
+    <t>[p. 226 marg. inf..]</t>
+  </si>
+  <si>
+    <t>Scipione</t>
+  </si>
+  <si>
+    <t>[p. 228 rr. 13-15 «Eo tempore, quo haec Canusii agebantur, Venusiam ad consulem, ad quattuor milia et quingenti pedites equitesque, qui sparsi fuga per agros fuerant, pervenere.»]</t>
+  </si>
+  <si>
+    <t>Venosa</t>
+  </si>
+  <si>
+    <t>[p. 229 rr. 12-17 «Romam ne has quidem reliquias superesse civium sociorumque, sed occidione occisum cum consulibus buobus exercitum deletasque omnes copias adlatum fuerat. Numquam salva urbe tantum pavoris tumultusque intra moenia Romana fuit. Itaque succumbam oneri, neque adgrediar narrare, quae edissertando monora vero faciam.»]</t>
+  </si>
+  <si>
+    <t>Primo annus a Roma</t>
+  </si>
+  <si>
+    <t>[p. 230 rr. 4-9 «Compares cladem ad Aegatis insulas Carthaginensium proelio navali acceptam, qua fracti Siclia ac Sardinia cessere, inde vectigalis ad stipensiarios fieri se passi sunt, aut pugnam adversam in Africa, cui postea hic ipse Hanniabl succumbuit: nulla ex parte comparandae sunt, nisi quom minore animo latae sunt.»]</t>
+  </si>
+  <si>
+    <t>Fama</t>
+  </si>
+  <si>
+    <t>[p. 230 rr. 10-14 «P. Furius Philus et M. Pomponius praetors senatum in curiam Hostiliam vocaverunt, ut de Urbis custodia consulerent: neque enim dubitabant deletis exercitibus hostem ad oppugnandam Romam, quod unum opus belli restaret, venturum.»]</t>
+  </si>
+  <si>
+    <t>Convocaz. Del Senato</t>
+  </si>
+  <si>
+    <t>[p. 231 marg. sx.]</t>
+  </si>
+  <si>
+    <t>Provvedimenti</t>
+  </si>
+  <si>
+    <t>[p. 231 r. 9 «Haec exploranda noscendaque per impigros iuvenes esse; [...]»]</t>
+  </si>
+  <si>
+    <t>Affin [?]</t>
+  </si>
+  <si>
+    <t>[p. 232 marg. sx.]</t>
+  </si>
+  <si>
+    <t>Le offese di C. Terenzio Varrone</t>
+  </si>
+  <si>
+    <t>[p. 234 marg. inf..]</t>
+  </si>
+  <si>
+    <t>Sacrifizi</t>
+  </si>
+  <si>
+    <t>[p. 235 rr. 11-13 «Inde dictator ex auctoritate patrum dictus M. Iunius et T. Sempronius magister equitum dilectu edicio iuniores ad annis septemdecim et quosdam praetextatos scribunt.»]</t>
+  </si>
+  <si>
+    <t>dittatore</t>
+  </si>
+  <si>
+    <t>[copertina interna]</t>
+  </si>
+  <si>
+    <t>Carlo Emilio Gadda</t>
+  </si>
+  <si>
+    <t>[p. 285 rr. 10-11 «;[...]nec se fefellisse id donum inimicorum veneno inlitum fore.»]</t>
+  </si>
+  <si>
+    <t>[p. 292 rr. 9-12 «pedestris ordinis [se] aiunt nunc esse nomina dare operamque rei publicae extra ordinem polliceri, seu Veios seu quo alio ducere velint.»]</t>
+  </si>
+  <si>
+    <t>\\\\\\</t>
+  </si>
+  <si>
+    <t>[pp. 305-306 rr. 35-37; 1-3 «quibus cum gratias in senatu agisset dictator, satis iam omnibus ad id bellum paratis ludos magnos ex senatus consulto vovit Veis captis se facturum aedemque Matutae matris refectam deducaturum iam ante ab rege Ser. Tullio dedicatam.»]</t>
+  </si>
+  <si>
+    <t>Dea del mattino</t>
+  </si>
+  <si>
+    <t>Dedica</t>
+  </si>
+  <si>
+    <t>Dedica dell’autore in data 21.5.1932.</t>
+  </si>
+  <si>
+    <t>Dedica dell’autore in data 11.1953.</t>
+  </si>
+  <si>
+    <t>Dedica dell’autore in data 12.1942.</t>
+  </si>
+  <si>
+    <t>Dedica dell’autore in data 5.1947.</t>
+  </si>
+  <si>
+    <t>A Gadda con tanto affetto Luigi Magnini Roma, 26 gen. 57.</t>
+  </si>
+  <si>
+    <t>Stendhal è questo</t>
+  </si>
+  <si>
+    <t>[p. 21 rr. 28-35 «Mentre nell’ambito della verità razionale Fabrizio, come già Julien Sorel, segue per Stendhal la traccia segnata da eventi senza causa anche se dotati di un loro immanente e naturale determinismo, trasposti nell’ambito dell’arte quegli stessi eventi appaiono come aureolati di mistero, ci richiamano ad una necessità preordinata, a un destino che il personaggio deve seguire, trovando così una superiore giustificazione al suo vivere ed al suo agire.»]</t>
+  </si>
+  <si>
+    <t>[p. 22 rr. 27-34 «Seguendone l’insegnamento Stendhal non solo feceproprio quel loro intento polemico contro l’assolutismo dei governi e contro l’ingerenza politica della Chiesa per affermare le libertà dell’uomo, ma dalla loro storiografia, che mirava 277 a cogliere il significato degli avvenimenti, considerati come concatenazione di cause ed effetti, egli apprese a ricercare il nesso segreto, la ragione che sembra collegare i fatti e conferire loro un significato.»]</t>
+  </si>
+  <si>
+    <t>?!</t>
+  </si>
+  <si>
+    <t>[p. 22 rr. 35-38 «Scrivendo la “Chartreuse” Stendhal non solo compose una fiaba dettata dalla sua fantasia ariostesca, intese anche rispondere all’ultimo richiamo della sua antica vocazione alla storia.»]</t>
+  </si>
+  <si>
+    <t>[p. 26 rr. 30-36 «Nel tempo in cui trionfava l’oratoria sentimentale di uno Chateaubriand e l’enfasi lirica dell’immaginifico Hugo, Standhal, cui non faceva velo quella moda letteraria, affermò, anticipando il giudizio dei moderni, l’efficacia espressiva dei “Mémoires”, l’alta qualità di uno stile tutto cose, movimento ed azione, “tout en substantifs et en verbs... qui marche sur le talon” come dirà poi Gide.»]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2160,6 +4322,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2181,7 +4350,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2196,7 +4365,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2214,6 +4388,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2513,11 +4691,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136E0D60-51E6-464F-AE7B-AB655C9FB227}">
-  <dimension ref="A1:F508"/>
+  <dimension ref="A1:F958"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A507" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B510" sqref="B510"/>
+      <pane ySplit="1" topLeftCell="A956" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A955" sqref="A955:A958"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="43.21875" defaultRowHeight="91.8" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7259,7 +9437,7 @@
       <c r="B471" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="F471" s="6" t="s">
+      <c r="F471" s="1" t="s">
         <v>44</v>
       </c>
     </row>
@@ -7590,6 +9768,4665 @@
       </c>
       <c r="C508" s="5" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="509" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A509" s="1">
+        <v>1012</v>
+      </c>
+      <c r="C509" s="3" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="510" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A510" s="1">
+        <v>1015</v>
+      </c>
+      <c r="F510" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="511" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A511" s="1">
+        <v>1020</v>
+      </c>
+      <c r="D511" t="s">
+        <v>689</v>
+      </c>
+      <c r="E511" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="512" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A512" s="1">
+        <v>1020</v>
+      </c>
+      <c r="D512" t="s">
+        <v>691</v>
+      </c>
+      <c r="E512" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="513" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A513" s="1">
+        <v>1020</v>
+      </c>
+      <c r="D513" t="s">
+        <v>693</v>
+      </c>
+      <c r="E513" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="514" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A514" s="1">
+        <v>1022</v>
+      </c>
+      <c r="B514" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="515" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A515" s="1">
+        <v>1029</v>
+      </c>
+      <c r="B515" s="3" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="516" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A516" s="1">
+        <v>1038</v>
+      </c>
+      <c r="D516" t="s">
+        <v>696</v>
+      </c>
+      <c r="E516" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="517" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A517" s="1">
+        <v>1038</v>
+      </c>
+      <c r="D517" t="s">
+        <v>698</v>
+      </c>
+      <c r="E517" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="518" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A518" s="1">
+        <v>1039</v>
+      </c>
+      <c r="D518" t="s">
+        <v>700</v>
+      </c>
+      <c r="E518" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="519" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A519" s="1">
+        <v>1039</v>
+      </c>
+      <c r="D519" t="s">
+        <v>702</v>
+      </c>
+      <c r="E519" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="520" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A520" s="1">
+        <v>1039</v>
+      </c>
+      <c r="D520" t="s">
+        <v>704</v>
+      </c>
+      <c r="E520" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="521" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A521" s="1">
+        <v>1039</v>
+      </c>
+      <c r="D521" t="s">
+        <v>706</v>
+      </c>
+      <c r="E521" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="522" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A522" s="1">
+        <v>1039</v>
+      </c>
+      <c r="D522" t="s">
+        <v>708</v>
+      </c>
+      <c r="E522" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="523" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A523" s="1">
+        <v>1039</v>
+      </c>
+      <c r="D523" t="s">
+        <v>710</v>
+      </c>
+      <c r="E523" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="524" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A524" s="1">
+        <v>1039</v>
+      </c>
+      <c r="D524" t="s">
+        <v>712</v>
+      </c>
+      <c r="E524" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="525" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A525" s="1">
+        <v>1039</v>
+      </c>
+      <c r="D525" t="s">
+        <v>714</v>
+      </c>
+      <c r="E525" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="526" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A526" s="1">
+        <v>1039</v>
+      </c>
+      <c r="D526" t="s">
+        <v>716</v>
+      </c>
+      <c r="E526" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="527" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A527" s="1">
+        <v>1039</v>
+      </c>
+      <c r="D527" t="s">
+        <v>718</v>
+      </c>
+      <c r="E527" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="528" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A528" s="1">
+        <v>1039</v>
+      </c>
+      <c r="D528" t="s">
+        <v>720</v>
+      </c>
+      <c r="E528" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="529" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A529" s="1">
+        <v>1039</v>
+      </c>
+      <c r="D529" t="s">
+        <v>721</v>
+      </c>
+      <c r="E529" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="530" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A530" s="1">
+        <v>1039</v>
+      </c>
+      <c r="D530" t="s">
+        <v>723</v>
+      </c>
+      <c r="E530" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="531" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A531" s="1">
+        <v>1039</v>
+      </c>
+      <c r="D531" t="s">
+        <v>725</v>
+      </c>
+      <c r="E531" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="532" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A532" s="1">
+        <v>1039</v>
+      </c>
+      <c r="D532" t="s">
+        <v>727</v>
+      </c>
+      <c r="E532" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="533" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A533" s="1">
+        <v>1039</v>
+      </c>
+      <c r="D533" t="s">
+        <v>728</v>
+      </c>
+      <c r="E533" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="534" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A534" s="1">
+        <v>1039</v>
+      </c>
+      <c r="D534" t="s">
+        <v>730</v>
+      </c>
+      <c r="E534" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="535" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A535" s="1">
+        <v>1039</v>
+      </c>
+      <c r="D535" t="s">
+        <v>732</v>
+      </c>
+      <c r="E535" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="536" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A536" s="1">
+        <v>1039</v>
+      </c>
+      <c r="D536" t="s">
+        <v>734</v>
+      </c>
+      <c r="E536" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="537" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A537" s="1">
+        <v>1039</v>
+      </c>
+      <c r="D537" t="s">
+        <v>736</v>
+      </c>
+      <c r="E537" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="538" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A538" s="1">
+        <v>1039</v>
+      </c>
+      <c r="D538" t="s">
+        <v>738</v>
+      </c>
+      <c r="E538" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="539" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A539" s="1">
+        <v>1039</v>
+      </c>
+      <c r="D539" t="s">
+        <v>739</v>
+      </c>
+      <c r="E539" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="540" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A540" s="1">
+        <v>1039</v>
+      </c>
+      <c r="D540" t="s">
+        <v>740</v>
+      </c>
+      <c r="E540" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="541" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A541" s="1">
+        <v>1039</v>
+      </c>
+      <c r="D541" t="s">
+        <v>742</v>
+      </c>
+      <c r="E541" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="542" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A542" s="1">
+        <v>1039</v>
+      </c>
+      <c r="D542" t="s">
+        <v>744</v>
+      </c>
+      <c r="E542" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="543" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A543" s="1">
+        <v>1040</v>
+      </c>
+      <c r="D543" t="s">
+        <v>745</v>
+      </c>
+      <c r="E543" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="544" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A544" s="1">
+        <v>1046</v>
+      </c>
+      <c r="B544" s="3" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="545" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A545" s="1">
+        <v>1050</v>
+      </c>
+      <c r="C545" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="546" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A546" s="1">
+        <v>1052</v>
+      </c>
+      <c r="B546" s="1" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="547" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A547" s="1">
+        <v>1057</v>
+      </c>
+      <c r="C547" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="548" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A548" s="1">
+        <v>1058</v>
+      </c>
+      <c r="C548" s="3" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="549" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A549" s="1">
+        <v>1062</v>
+      </c>
+      <c r="B549" t="s">
+        <v>750</v>
+      </c>
+      <c r="D549" t="s">
+        <v>671</v>
+      </c>
+      <c r="E549" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="550" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A550" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D550" t="s">
+        <v>752</v>
+      </c>
+      <c r="E550" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="551" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A551" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D551" t="s">
+        <v>754</v>
+      </c>
+      <c r="E551" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="552" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A552" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D552" t="s">
+        <v>756</v>
+      </c>
+      <c r="E552" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="553" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A553" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D553" t="s">
+        <v>758</v>
+      </c>
+      <c r="E553" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="554" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A554" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D554" t="s">
+        <v>760</v>
+      </c>
+      <c r="E554" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="555" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A555" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D555" t="s">
+        <v>762</v>
+      </c>
+      <c r="E555" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="556" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A556" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D556" t="s">
+        <v>764</v>
+      </c>
+      <c r="E556" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="557" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A557" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D557" t="s">
+        <v>766</v>
+      </c>
+      <c r="E557" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="558" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A558" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D558" t="s">
+        <v>768</v>
+      </c>
+      <c r="E558" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="559" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A559" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D559" t="s">
+        <v>770</v>
+      </c>
+      <c r="E559" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="560" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A560" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D560" t="s">
+        <v>772</v>
+      </c>
+      <c r="E560" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="561" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A561" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D561" t="s">
+        <v>774</v>
+      </c>
+      <c r="E561" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="562" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A562" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D562" t="s">
+        <v>776</v>
+      </c>
+      <c r="E562" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="563" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A563" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D563" t="s">
+        <v>778</v>
+      </c>
+      <c r="E563" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="564" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A564" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D564" t="s">
+        <v>780</v>
+      </c>
+      <c r="E564" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="565" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A565" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D565" t="s">
+        <v>782</v>
+      </c>
+      <c r="E565" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="566" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A566" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D566" t="s">
+        <v>784</v>
+      </c>
+      <c r="E566" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="567" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A567" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D567" t="s">
+        <v>786</v>
+      </c>
+      <c r="E567" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="568" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A568" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D568" t="s">
+        <v>788</v>
+      </c>
+      <c r="E568" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="569" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A569" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D569" t="s">
+        <v>310</v>
+      </c>
+      <c r="E569" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="570" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A570" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D570" t="s">
+        <v>791</v>
+      </c>
+      <c r="E570" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="571" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A571" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D571" t="s">
+        <v>312</v>
+      </c>
+      <c r="E571" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="572" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A572" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D572" t="s">
+        <v>794</v>
+      </c>
+      <c r="E572" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="573" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A573" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D573" t="s">
+        <v>796</v>
+      </c>
+      <c r="E573" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="574" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A574" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D574" t="s">
+        <v>798</v>
+      </c>
+      <c r="E574" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="575" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A575" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D575" t="s">
+        <v>796</v>
+      </c>
+      <c r="E575" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="576" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A576" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D576" t="s">
+        <v>801</v>
+      </c>
+      <c r="E576" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="577" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A577" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D577" t="s">
+        <v>803</v>
+      </c>
+      <c r="E577" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="578" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A578" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D578" t="s">
+        <v>805</v>
+      </c>
+      <c r="E578" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="579" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A579" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D579" t="s">
+        <v>807</v>
+      </c>
+      <c r="E579" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="580" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A580" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D580" t="s">
+        <v>809</v>
+      </c>
+      <c r="E580" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="581" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A581" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D581" t="s">
+        <v>316</v>
+      </c>
+      <c r="E581" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="582" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A582" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D582" t="s">
+        <v>812</v>
+      </c>
+      <c r="E582" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="583" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A583" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D583" t="s">
+        <v>814</v>
+      </c>
+      <c r="E583" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="584" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A584" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D584" t="s">
+        <v>816</v>
+      </c>
+      <c r="E584" s="6">
+        <v>43157</v>
+      </c>
+    </row>
+    <row r="585" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A585" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D585" t="s">
+        <v>817</v>
+      </c>
+      <c r="E585" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="586" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A586" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D586" t="s">
+        <v>819</v>
+      </c>
+      <c r="E586" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="587" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A587" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D587" t="s">
+        <v>821</v>
+      </c>
+      <c r="E587" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="588" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A588" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D588" t="s">
+        <v>823</v>
+      </c>
+      <c r="E588" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="589" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A589" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D589" t="s">
+        <v>825</v>
+      </c>
+      <c r="E589" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="590" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A590" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D590" t="s">
+        <v>827</v>
+      </c>
+      <c r="E590" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="591" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A591" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D591" t="s">
+        <v>829</v>
+      </c>
+      <c r="E591" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="592" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A592" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D592" t="s">
+        <v>831</v>
+      </c>
+      <c r="E592" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="593" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A593" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D593" t="s">
+        <v>833</v>
+      </c>
+      <c r="E593" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="594" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A594" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D594" t="s">
+        <v>835</v>
+      </c>
+      <c r="E594" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="595" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A595" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D595" t="s">
+        <v>837</v>
+      </c>
+      <c r="E595" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="596" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A596" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D596" t="s">
+        <v>839</v>
+      </c>
+      <c r="E596" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="597" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A597" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D597" t="s">
+        <v>841</v>
+      </c>
+      <c r="E597" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="598" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A598" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D598" t="s">
+        <v>843</v>
+      </c>
+      <c r="E598" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="599" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A599" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D599" t="s">
+        <v>845</v>
+      </c>
+      <c r="E599" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="600" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A600" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D600" t="s">
+        <v>847</v>
+      </c>
+      <c r="E600" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="601" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A601" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D601" t="s">
+        <v>849</v>
+      </c>
+      <c r="E601" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="602" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A602" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D602" t="s">
+        <v>851</v>
+      </c>
+      <c r="E602" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="603" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A603" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D603" t="s">
+        <v>853</v>
+      </c>
+      <c r="E603" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="604" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A604" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D604" t="s">
+        <v>855</v>
+      </c>
+      <c r="E604" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="605" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A605" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D605" t="s">
+        <v>857</v>
+      </c>
+      <c r="E605" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="606" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A606" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D606" t="s">
+        <v>859</v>
+      </c>
+      <c r="E606" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="607" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A607" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D607" t="s">
+        <v>861</v>
+      </c>
+      <c r="E607" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="608" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A608" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D608" t="s">
+        <v>863</v>
+      </c>
+      <c r="E608" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="609" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A609" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D609" t="s">
+        <v>865</v>
+      </c>
+      <c r="E609" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="610" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A610" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D610" t="s">
+        <v>867</v>
+      </c>
+      <c r="E610" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="611" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A611" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D611" t="s">
+        <v>869</v>
+      </c>
+      <c r="E611" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="612" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A612" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D612" t="s">
+        <v>871</v>
+      </c>
+      <c r="E612" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="613" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A613" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D613" t="s">
+        <v>873</v>
+      </c>
+      <c r="E613" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="614" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A614" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D614" t="s">
+        <v>875</v>
+      </c>
+      <c r="E614" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="615" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A615" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D615" t="s">
+        <v>877</v>
+      </c>
+      <c r="E615" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="616" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A616" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D616" t="s">
+        <v>879</v>
+      </c>
+      <c r="E616" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="617" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A617" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D617" t="s">
+        <v>881</v>
+      </c>
+      <c r="E617" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="618" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A618" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D618" t="s">
+        <v>883</v>
+      </c>
+      <c r="E618" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="619" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A619" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D619" t="s">
+        <v>885</v>
+      </c>
+      <c r="E619" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="620" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A620" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D620" t="s">
+        <v>887</v>
+      </c>
+      <c r="E620" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="621" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A621" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D621" t="s">
+        <v>889</v>
+      </c>
+      <c r="E621" s="1" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="622" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A622" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D622" t="s">
+        <v>681</v>
+      </c>
+      <c r="E622" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="623" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A623" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D623" t="s">
+        <v>892</v>
+      </c>
+      <c r="E623" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="624" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A624" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D624" t="s">
+        <v>894</v>
+      </c>
+      <c r="E624" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="625" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A625" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D625" t="s">
+        <v>896</v>
+      </c>
+      <c r="E625" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="626" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A626" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D626" t="s">
+        <v>898</v>
+      </c>
+      <c r="E626" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="627" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A627" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D627" t="s">
+        <v>900</v>
+      </c>
+      <c r="E627" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="628" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A628" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D628" t="s">
+        <v>902</v>
+      </c>
+      <c r="E628" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="629" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A629" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D629" t="s">
+        <v>904</v>
+      </c>
+      <c r="E629" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="630" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A630" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D630" t="s">
+        <v>906</v>
+      </c>
+      <c r="E630" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="631" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A631" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D631" t="s">
+        <v>908</v>
+      </c>
+      <c r="E631" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="632" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A632" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D632" t="s">
+        <v>910</v>
+      </c>
+      <c r="E632" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="633" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A633" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D633" t="s">
+        <v>912</v>
+      </c>
+      <c r="E633" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="634" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A634" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D634" t="s">
+        <v>914</v>
+      </c>
+      <c r="E634" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="635" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A635" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D635" t="s">
+        <v>916</v>
+      </c>
+      <c r="E635" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="636" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A636" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D636" t="s">
+        <v>918</v>
+      </c>
+      <c r="E636" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="637" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A637" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D637" t="s">
+        <v>920</v>
+      </c>
+      <c r="E637" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="638" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A638" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D638" t="s">
+        <v>922</v>
+      </c>
+      <c r="E638" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="639" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A639" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D639" t="s">
+        <v>924</v>
+      </c>
+      <c r="E639" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="640" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A640" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D640" t="s">
+        <v>926</v>
+      </c>
+      <c r="E640" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="641" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A641" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D641" t="s">
+        <v>928</v>
+      </c>
+      <c r="E641" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="642" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A642" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D642" t="s">
+        <v>930</v>
+      </c>
+      <c r="E642" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="643" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A643" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D643" t="s">
+        <v>932</v>
+      </c>
+      <c r="E643" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="644" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A644" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D644" t="s">
+        <v>934</v>
+      </c>
+      <c r="E644" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="645" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A645" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D645" t="s">
+        <v>936</v>
+      </c>
+      <c r="E645" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="646" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A646" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D646" t="s">
+        <v>938</v>
+      </c>
+      <c r="E646" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="647" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A647" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D647" t="s">
+        <v>940</v>
+      </c>
+      <c r="E647" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="648" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A648" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D648" t="s">
+        <v>942</v>
+      </c>
+      <c r="E648" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="649" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A649" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D649" t="s">
+        <v>943</v>
+      </c>
+      <c r="E649" s="7">
+        <v>6635</v>
+      </c>
+    </row>
+    <row r="650" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A650" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D650" t="s">
+        <v>944</v>
+      </c>
+      <c r="E650" s="7">
+        <v>6656</v>
+      </c>
+    </row>
+    <row r="651" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A651" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D651" t="s">
+        <v>945</v>
+      </c>
+      <c r="E651" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="652" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A652" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D652" t="s">
+        <v>947</v>
+      </c>
+      <c r="E652" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="653" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A653" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D653" t="s">
+        <v>949</v>
+      </c>
+      <c r="E653" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="654" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A654" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D654" t="s">
+        <v>951</v>
+      </c>
+      <c r="E654" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="655" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A655" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D655" t="s">
+        <v>953</v>
+      </c>
+      <c r="E655" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="656" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A656" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D656" t="s">
+        <v>955</v>
+      </c>
+      <c r="E656" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="657" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A657" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D657" t="s">
+        <v>957</v>
+      </c>
+      <c r="E657" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="658" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A658" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D658" t="s">
+        <v>959</v>
+      </c>
+      <c r="E658" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="659" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A659" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D659" t="s">
+        <v>961</v>
+      </c>
+      <c r="E659" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="660" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A660" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D660" t="s">
+        <v>963</v>
+      </c>
+      <c r="E660" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="661" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A661" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D661" t="s">
+        <v>965</v>
+      </c>
+      <c r="E661" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="662" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A662" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D662" t="s">
+        <v>967</v>
+      </c>
+      <c r="E662" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="663" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A663" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D663" t="s">
+        <v>969</v>
+      </c>
+      <c r="E663" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="664" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A664" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D664" t="s">
+        <v>971</v>
+      </c>
+      <c r="E664" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="665" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A665" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D665" t="s">
+        <v>973</v>
+      </c>
+      <c r="E665" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="666" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A666" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D666" t="s">
+        <v>975</v>
+      </c>
+      <c r="E666" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="667" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A667" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D667" t="s">
+        <v>977</v>
+      </c>
+      <c r="E667" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="668" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A668" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D668" t="s">
+        <v>979</v>
+      </c>
+      <c r="E668" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="669" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A669" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D669" t="s">
+        <v>981</v>
+      </c>
+      <c r="E669" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="670" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A670" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D670" t="s">
+        <v>983</v>
+      </c>
+      <c r="E670" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="671" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A671" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D671" t="s">
+        <v>985</v>
+      </c>
+      <c r="E671" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="672" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A672" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D672" t="s">
+        <v>987</v>
+      </c>
+      <c r="E672" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="673" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A673" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D673" t="s">
+        <v>989</v>
+      </c>
+      <c r="E673" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="674" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A674" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D674" t="s">
+        <v>991</v>
+      </c>
+      <c r="E674" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="675" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A675" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D675" t="s">
+        <v>993</v>
+      </c>
+      <c r="E675" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="676" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A676" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D676" t="s">
+        <v>995</v>
+      </c>
+      <c r="E676" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="677" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A677" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D677" t="s">
+        <v>997</v>
+      </c>
+      <c r="E677" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="678" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A678" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D678" t="s">
+        <v>999</v>
+      </c>
+      <c r="E678" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="679" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A679" s="1">
+        <v>1066</v>
+      </c>
+      <c r="B679" s="1" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="680" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A680" s="1">
+        <v>1069</v>
+      </c>
+      <c r="B680" s="5" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="681" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A681" s="1">
+        <v>1072</v>
+      </c>
+      <c r="B681" s="5" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="682" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A682" s="1">
+        <v>1073</v>
+      </c>
+      <c r="B682" s="1" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="683" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A683" s="1">
+        <v>1074</v>
+      </c>
+      <c r="B683" s="5" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="684" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A684" s="1">
+        <v>1075</v>
+      </c>
+      <c r="B684" s="5" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="685" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A685" s="1">
+        <v>1076</v>
+      </c>
+      <c r="C685" s="5" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="686" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A686" s="1">
+        <v>1077</v>
+      </c>
+      <c r="C686" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D686" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E686" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="687" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A687" s="1">
+        <v>1077</v>
+      </c>
+      <c r="D687" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E687" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="688" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A688" s="1">
+        <v>1077</v>
+      </c>
+      <c r="D688" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E688" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="689" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A689" s="1">
+        <v>1077</v>
+      </c>
+      <c r="D689" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E689" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="690" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A690" s="1">
+        <v>1079</v>
+      </c>
+      <c r="F690" s="1" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="691" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A691" s="1">
+        <v>1085</v>
+      </c>
+      <c r="B691" s="5" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="692" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A692" s="1">
+        <v>1087</v>
+      </c>
+      <c r="F692" s="5" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="693" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A693" s="1">
+        <v>1088</v>
+      </c>
+      <c r="D693" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E693" s="1">
+        <v>70</v>
+      </c>
+      <c r="F693" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="694" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A694" s="1">
+        <v>1089</v>
+      </c>
+      <c r="B694" s="5" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="695" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A695" s="1">
+        <v>1090</v>
+      </c>
+      <c r="D695" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E695" s="1" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="696" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A696" s="1">
+        <v>1090</v>
+      </c>
+      <c r="D696" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E696" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="697" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A697" s="1">
+        <v>1090</v>
+      </c>
+      <c r="D697" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E697" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="698" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A698" s="1">
+        <v>1096</v>
+      </c>
+      <c r="C698" s="5" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="699" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A699" s="1">
+        <v>1102</v>
+      </c>
+      <c r="C699" s="5" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="700" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A700" s="1">
+        <v>1106</v>
+      </c>
+      <c r="C700" s="5" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="701" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A701" s="1">
+        <v>1109</v>
+      </c>
+      <c r="C701" s="1" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="702" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A702" s="1">
+        <v>1111</v>
+      </c>
+      <c r="D702" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E702" t="s">
+        <v>1030</v>
+      </c>
+      <c r="F702" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="703" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A703" s="1">
+        <v>1111</v>
+      </c>
+      <c r="D703" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E703" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="704" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A704" s="1">
+        <v>1111</v>
+      </c>
+      <c r="D704" t="s">
+        <v>1032</v>
+      </c>
+      <c r="E704" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="705" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A705" s="1">
+        <v>113</v>
+      </c>
+      <c r="F705" s="5" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="706" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A706" s="1">
+        <v>1121</v>
+      </c>
+      <c r="C706" s="5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="707" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A707" s="1">
+        <v>1122</v>
+      </c>
+      <c r="C707" s="5" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="708" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A708" s="1">
+        <v>1132</v>
+      </c>
+      <c r="B708" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="709" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A709" s="1">
+        <v>1135</v>
+      </c>
+      <c r="B709" s="5" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="710" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A710" s="1">
+        <v>1141</v>
+      </c>
+      <c r="B710" s="5" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="711" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A711" s="1">
+        <v>1148</v>
+      </c>
+      <c r="B711" s="5" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="712" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A712" s="1">
+        <v>1154</v>
+      </c>
+      <c r="B712" s="5" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="713" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A713" s="1">
+        <v>1155</v>
+      </c>
+      <c r="B713" s="5" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="714" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A714" s="1">
+        <v>1177</v>
+      </c>
+      <c r="B714" s="5" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="715" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A715" s="1">
+        <v>1178</v>
+      </c>
+      <c r="B715" s="5" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="716" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A716" s="1">
+        <v>1184</v>
+      </c>
+      <c r="C716" s="5" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="717" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A717" s="1">
+        <v>1185</v>
+      </c>
+      <c r="C717" s="5" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="718" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A718" s="1">
+        <v>1187</v>
+      </c>
+      <c r="C718" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D718" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E718" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="719" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A719" s="1">
+        <v>1187</v>
+      </c>
+      <c r="D719" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E719" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="720" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A720" s="1">
+        <v>1187</v>
+      </c>
+      <c r="D720" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E720" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="721" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A721" s="1">
+        <v>1187</v>
+      </c>
+      <c r="D721" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E721" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="722" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A722" s="1">
+        <v>1187</v>
+      </c>
+      <c r="D722" t="s">
+        <v>1050</v>
+      </c>
+      <c r="E722" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="723" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A723" s="1">
+        <v>1187</v>
+      </c>
+      <c r="D723" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E723" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="724" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A724" s="1">
+        <v>1187</v>
+      </c>
+      <c r="D724" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E724" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="725" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A725" s="1">
+        <v>1187</v>
+      </c>
+      <c r="D725" t="s">
+        <v>1055</v>
+      </c>
+      <c r="E725" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="726" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A726" s="1">
+        <v>1189</v>
+      </c>
+      <c r="C726" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="727" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A727" s="1">
+        <v>1190</v>
+      </c>
+      <c r="C727" s="5" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="728" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A728" s="1">
+        <v>1192</v>
+      </c>
+      <c r="C728" s="5" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="729" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A729" s="8">
+        <v>1197</v>
+      </c>
+      <c r="C729" s="5" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="730" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A730" s="8">
+        <v>1207</v>
+      </c>
+      <c r="C730" s="5" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="731" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A731" s="1">
+        <v>1209</v>
+      </c>
+      <c r="B731" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="732" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A732" s="1">
+        <v>1212</v>
+      </c>
+      <c r="C732" s="5" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="733" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A733" s="1">
+        <v>1220</v>
+      </c>
+      <c r="B733" s="5" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="734" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A734" s="1">
+        <v>1223</v>
+      </c>
+      <c r="C734" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="735" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A735" s="1">
+        <v>1224</v>
+      </c>
+      <c r="C735" s="5" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="736" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A736" s="8">
+        <v>1236</v>
+      </c>
+      <c r="B736" s="5" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="737" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A737" s="8">
+        <v>1238</v>
+      </c>
+      <c r="C737" s="5" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="738" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A738" s="8">
+        <v>1240</v>
+      </c>
+      <c r="C738" s="5" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="739" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A739" s="8">
+        <v>1241</v>
+      </c>
+      <c r="C739" s="5" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="740" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A740" s="8">
+        <v>1249</v>
+      </c>
+      <c r="C740" s="5" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="741" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A741" s="8">
+        <v>1251</v>
+      </c>
+      <c r="C741" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="742" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A742" s="8">
+        <v>1277</v>
+      </c>
+      <c r="B742" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="743" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A743" s="8">
+        <v>1285</v>
+      </c>
+      <c r="B743" s="5" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="744" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A744" s="8">
+        <v>1296</v>
+      </c>
+      <c r="B744" s="5" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="745" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A745" s="8">
+        <v>1310</v>
+      </c>
+      <c r="C745" s="5" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="746" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A746" s="8">
+        <v>1312</v>
+      </c>
+      <c r="C746" s="5" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="747" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A747" s="8">
+        <v>1317</v>
+      </c>
+      <c r="B747" s="5" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="748" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A748" s="8">
+        <v>1318</v>
+      </c>
+      <c r="B748" s="5" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="749" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A749" s="8">
+        <v>1322</v>
+      </c>
+      <c r="D749" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E749" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F749" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="750" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A750" s="8">
+        <v>1324</v>
+      </c>
+      <c r="C750" s="5" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="751" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A751" s="8">
+        <v>1343</v>
+      </c>
+      <c r="B751" s="5" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="752" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A752" s="8">
+        <v>1345</v>
+      </c>
+      <c r="C752" s="5" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="753" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A753" s="8">
+        <v>1346</v>
+      </c>
+      <c r="B753" s="5" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="754" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A754" s="8">
+        <v>1347</v>
+      </c>
+      <c r="B754" s="5" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="755" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A755" s="8">
+        <v>1356</v>
+      </c>
+      <c r="C755" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="756" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A756" s="8">
+        <v>1358</v>
+      </c>
+      <c r="B756" s="5" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="757" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A757" s="8">
+        <v>1363</v>
+      </c>
+      <c r="F757" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="758" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A758" s="8">
+        <v>1369</v>
+      </c>
+      <c r="B758" s="1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="F758" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="759" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A759" s="8">
+        <v>1372</v>
+      </c>
+      <c r="B759" s="5" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="760" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A760" s="8">
+        <v>1373</v>
+      </c>
+      <c r="B760" s="5" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="761" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A761" s="8">
+        <v>1383</v>
+      </c>
+      <c r="F761" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="762" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A762" s="8">
+        <v>1385</v>
+      </c>
+      <c r="D762" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E762" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="763" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A763" s="8">
+        <v>1385</v>
+      </c>
+      <c r="D763" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E763" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="764" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A764" s="8">
+        <v>1385</v>
+      </c>
+      <c r="D764" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E764" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="765" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A765" s="8">
+        <v>1385</v>
+      </c>
+      <c r="D765" t="s">
+        <v>1086</v>
+      </c>
+      <c r="E765" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="766" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A766" s="8">
+        <v>1385</v>
+      </c>
+      <c r="D766" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E766" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="767" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A767" s="8">
+        <v>1385</v>
+      </c>
+      <c r="D767" t="s">
+        <v>1090</v>
+      </c>
+      <c r="E767" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="768" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A768" s="8">
+        <v>1385</v>
+      </c>
+      <c r="D768" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E768" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="769" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A769" s="8">
+        <v>1387</v>
+      </c>
+      <c r="D769" t="s">
+        <v>1094</v>
+      </c>
+      <c r="E769" t="s">
+        <v>1095</v>
+      </c>
+      <c r="F769" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="770" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A770" s="8">
+        <v>1387</v>
+      </c>
+      <c r="D770" t="s">
+        <v>1096</v>
+      </c>
+      <c r="E770" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="771" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A771" s="8">
+        <v>1387</v>
+      </c>
+      <c r="D771" t="s">
+        <v>1098</v>
+      </c>
+      <c r="E771" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="772" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A772" s="8">
+        <v>1387</v>
+      </c>
+      <c r="D772" t="s">
+        <v>1100</v>
+      </c>
+      <c r="E772" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="773" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A773" s="8">
+        <v>1387</v>
+      </c>
+      <c r="D773" t="s">
+        <v>1102</v>
+      </c>
+      <c r="E773" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="774" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A774" s="8">
+        <v>1387</v>
+      </c>
+      <c r="D774" t="s">
+        <v>1104</v>
+      </c>
+      <c r="E774" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="775" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A775" s="8">
+        <v>1387</v>
+      </c>
+      <c r="D775" t="s">
+        <v>1106</v>
+      </c>
+      <c r="E775" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="776" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A776" s="8">
+        <v>1387</v>
+      </c>
+      <c r="D776" t="s">
+        <v>1107</v>
+      </c>
+      <c r="E776" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="777" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A777" s="8">
+        <v>1387</v>
+      </c>
+      <c r="D777" t="s">
+        <v>1109</v>
+      </c>
+      <c r="E777" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="778" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A778" s="8">
+        <v>1387</v>
+      </c>
+      <c r="D778" t="s">
+        <v>1111</v>
+      </c>
+      <c r="E778" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="779" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A779" s="8">
+        <v>1387</v>
+      </c>
+      <c r="D779" t="s">
+        <v>1113</v>
+      </c>
+      <c r="E779" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="780" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A780" s="8">
+        <v>1387</v>
+      </c>
+      <c r="D780" t="s">
+        <v>1114</v>
+      </c>
+      <c r="E780" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="781" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A781" s="8">
+        <v>1387</v>
+      </c>
+      <c r="D781" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E781" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="782" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A782" s="8">
+        <v>1387</v>
+      </c>
+      <c r="D782" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="783" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A783" s="8">
+        <v>1401</v>
+      </c>
+      <c r="B783" s="5" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="784" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A784" s="8">
+        <v>1408</v>
+      </c>
+      <c r="C784" s="5" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="785" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A785" s="8">
+        <v>1422</v>
+      </c>
+      <c r="F785" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="786" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A786" s="8">
+        <v>1426</v>
+      </c>
+      <c r="B786" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="787" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A787" s="8">
+        <v>1428</v>
+      </c>
+      <c r="C787" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="788" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A788" s="8">
+        <v>1429</v>
+      </c>
+      <c r="B788" s="5" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="789" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A789" s="8">
+        <v>1442</v>
+      </c>
+      <c r="C789" s="5" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="790" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A790" s="8">
+        <v>1467</v>
+      </c>
+      <c r="B790" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D790" t="s">
+        <v>1122</v>
+      </c>
+      <c r="E790" t="s">
+        <v>1123</v>
+      </c>
+      <c r="F790" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="791" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A791" s="8">
+        <v>1467</v>
+      </c>
+      <c r="D791" t="s">
+        <v>1124</v>
+      </c>
+      <c r="E791" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="792" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A792" s="8">
+        <v>1467</v>
+      </c>
+      <c r="D792" t="s">
+        <v>1126</v>
+      </c>
+      <c r="E792" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="793" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A793" s="8">
+        <v>1467</v>
+      </c>
+      <c r="D793" t="s">
+        <v>1128</v>
+      </c>
+      <c r="E793" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="794" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A794" s="8">
+        <v>1467</v>
+      </c>
+      <c r="D794" t="s">
+        <v>1130</v>
+      </c>
+      <c r="E794" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="795" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A795" s="8">
+        <v>1467</v>
+      </c>
+      <c r="D795" t="s">
+        <v>1132</v>
+      </c>
+      <c r="E795" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="796" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A796" s="8">
+        <v>1467</v>
+      </c>
+      <c r="D796" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E796" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="797" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A797" s="8">
+        <v>1467</v>
+      </c>
+      <c r="D797" t="s">
+        <v>1136</v>
+      </c>
+      <c r="E797" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="798" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A798" s="8">
+        <v>1467</v>
+      </c>
+      <c r="D798" t="s">
+        <v>1138</v>
+      </c>
+      <c r="E798" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="799" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A799" s="8">
+        <v>1467</v>
+      </c>
+      <c r="D799" t="s">
+        <v>1140</v>
+      </c>
+      <c r="E799" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="800" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A800" s="8">
+        <v>1467</v>
+      </c>
+      <c r="D800" t="s">
+        <v>1141</v>
+      </c>
+      <c r="E800" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="801" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A801" s="8">
+        <v>1467</v>
+      </c>
+      <c r="D801" t="s">
+        <v>1143</v>
+      </c>
+      <c r="E801" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="802" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A802" s="8">
+        <v>1467</v>
+      </c>
+      <c r="D802" t="s">
+        <v>1145</v>
+      </c>
+      <c r="E802" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="803" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A803" s="8">
+        <v>1467</v>
+      </c>
+      <c r="D803" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E803" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="804" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A804" s="8">
+        <v>1467</v>
+      </c>
+      <c r="D804" t="s">
+        <v>1149</v>
+      </c>
+      <c r="E804" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="805" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A805" s="8">
+        <v>1467</v>
+      </c>
+      <c r="D805" t="s">
+        <v>1151</v>
+      </c>
+      <c r="E805" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="806" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A806" s="8">
+        <v>1467</v>
+      </c>
+      <c r="D806" t="s">
+        <v>1153</v>
+      </c>
+      <c r="E806" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="807" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A807" s="8">
+        <v>1467</v>
+      </c>
+      <c r="D807" t="s">
+        <v>1155</v>
+      </c>
+      <c r="E807" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="808" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A808" s="8">
+        <v>1467</v>
+      </c>
+      <c r="D808" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E808" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="809" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A809" s="8">
+        <v>1467</v>
+      </c>
+      <c r="D809" t="s">
+        <v>1159</v>
+      </c>
+      <c r="E809" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="810" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A810" s="8">
+        <v>1467</v>
+      </c>
+      <c r="D810" t="s">
+        <v>1161</v>
+      </c>
+      <c r="E810" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="811" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A811" s="8">
+        <v>1467</v>
+      </c>
+      <c r="D811" t="s">
+        <v>1163</v>
+      </c>
+      <c r="E811" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="812" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A812" s="8">
+        <v>1467</v>
+      </c>
+      <c r="D812" t="s">
+        <v>1165</v>
+      </c>
+      <c r="E812" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="813" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A813" s="8">
+        <v>1467</v>
+      </c>
+      <c r="D813" t="s">
+        <v>1166</v>
+      </c>
+      <c r="E813" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="814" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A814" s="8">
+        <v>1467</v>
+      </c>
+      <c r="D814" t="s">
+        <v>1167</v>
+      </c>
+      <c r="E814" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="815" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A815" s="8">
+        <v>1467</v>
+      </c>
+      <c r="D815" t="s">
+        <v>1169</v>
+      </c>
+      <c r="E815" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="816" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A816" s="8">
+        <v>1467</v>
+      </c>
+      <c r="D816" t="s">
+        <v>1171</v>
+      </c>
+      <c r="E816" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="817" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A817" s="8">
+        <v>1467</v>
+      </c>
+      <c r="D817" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E817" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="818" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A818" s="8">
+        <v>1467</v>
+      </c>
+      <c r="D818" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E818" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="819" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A819" s="8">
+        <v>1467</v>
+      </c>
+      <c r="D819" t="s">
+        <v>1177</v>
+      </c>
+      <c r="E819" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="820" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A820" s="8">
+        <v>1467</v>
+      </c>
+      <c r="D820" t="s">
+        <v>1178</v>
+      </c>
+      <c r="E820" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="821" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A821" s="8">
+        <v>1467</v>
+      </c>
+      <c r="D821" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E821" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="822" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A822" s="8">
+        <v>1467</v>
+      </c>
+      <c r="D822" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E822" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="823" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A823" s="8">
+        <v>1467</v>
+      </c>
+      <c r="D823" t="s">
+        <v>1183</v>
+      </c>
+      <c r="E823" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="824" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A824" s="8">
+        <v>1467</v>
+      </c>
+      <c r="D824" t="s">
+        <v>1185</v>
+      </c>
+      <c r="E824" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="825" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A825" s="8">
+        <v>1467</v>
+      </c>
+      <c r="D825" t="s">
+        <v>1187</v>
+      </c>
+      <c r="E825" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="826" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A826" s="8">
+        <v>1467</v>
+      </c>
+      <c r="D826" t="s">
+        <v>1189</v>
+      </c>
+      <c r="E826" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="827" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A827" s="8">
+        <v>1467</v>
+      </c>
+      <c r="D827" t="s">
+        <v>1190</v>
+      </c>
+      <c r="E827" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="828" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A828" s="8">
+        <v>1467</v>
+      </c>
+      <c r="D828" t="s">
+        <v>1192</v>
+      </c>
+      <c r="E828" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="829" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A829" s="8">
+        <v>1467</v>
+      </c>
+      <c r="D829" t="s">
+        <v>1194</v>
+      </c>
+      <c r="E829" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="830" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A830" s="8">
+        <v>1467</v>
+      </c>
+      <c r="D830" t="s">
+        <v>1196</v>
+      </c>
+      <c r="E830" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="831" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A831" s="8">
+        <v>1467</v>
+      </c>
+      <c r="D831" t="s">
+        <v>1197</v>
+      </c>
+      <c r="E831" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="832" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A832" s="8">
+        <v>1467</v>
+      </c>
+      <c r="D832" t="s">
+        <v>1199</v>
+      </c>
+      <c r="E832" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="833" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A833" s="8">
+        <v>1467</v>
+      </c>
+      <c r="D833" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E833" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="834" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A834" s="8">
+        <v>1467</v>
+      </c>
+      <c r="D834" t="s">
+        <v>1203</v>
+      </c>
+      <c r="E834" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="835" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A835" s="8">
+        <v>1467</v>
+      </c>
+      <c r="D835" t="s">
+        <v>1205</v>
+      </c>
+      <c r="E835" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="836" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A836" s="8">
+        <v>1467</v>
+      </c>
+      <c r="D836" t="s">
+        <v>1207</v>
+      </c>
+      <c r="E836" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="837" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A837" s="8">
+        <v>1467</v>
+      </c>
+      <c r="D837" t="s">
+        <v>1208</v>
+      </c>
+      <c r="E837" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="838" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A838" s="8">
+        <v>1467</v>
+      </c>
+      <c r="D838" t="s">
+        <v>1209</v>
+      </c>
+      <c r="E838" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="839" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A839" s="8">
+        <v>1467</v>
+      </c>
+      <c r="D839" t="s">
+        <v>1210</v>
+      </c>
+      <c r="E839" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="840" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A840" s="8">
+        <v>1467</v>
+      </c>
+      <c r="D840" t="s">
+        <v>1212</v>
+      </c>
+      <c r="E840" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="841" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A841" s="8">
+        <v>1467</v>
+      </c>
+      <c r="D841" t="s">
+        <v>1214</v>
+      </c>
+      <c r="E841" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="842" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A842" s="8">
+        <v>1467</v>
+      </c>
+      <c r="D842" t="s">
+        <v>1216</v>
+      </c>
+      <c r="E842" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="843" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A843" s="8">
+        <v>1467</v>
+      </c>
+      <c r="D843" t="s">
+        <v>1218</v>
+      </c>
+      <c r="E843" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="844" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A844" s="8">
+        <v>1467</v>
+      </c>
+      <c r="D844" t="s">
+        <v>1220</v>
+      </c>
+      <c r="E844" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="845" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A845" s="8">
+        <v>1467</v>
+      </c>
+      <c r="D845" t="s">
+        <v>1222</v>
+      </c>
+      <c r="E845" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="846" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A846" s="8">
+        <v>1467</v>
+      </c>
+      <c r="D846" t="s">
+        <v>1224</v>
+      </c>
+      <c r="E846" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="847" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A847" s="8">
+        <v>1467</v>
+      </c>
+      <c r="D847" t="s">
+        <v>1226</v>
+      </c>
+      <c r="E847" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="848" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A848" s="8">
+        <v>1467</v>
+      </c>
+      <c r="D848" t="s">
+        <v>1228</v>
+      </c>
+      <c r="E848" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="849" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A849" s="8">
+        <v>1467</v>
+      </c>
+      <c r="D849" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E849" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="850" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A850" s="8">
+        <v>1467</v>
+      </c>
+      <c r="D850" t="s">
+        <v>1232</v>
+      </c>
+      <c r="E850" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="851" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A851" s="8">
+        <v>1467</v>
+      </c>
+      <c r="D851" t="s">
+        <v>1234</v>
+      </c>
+      <c r="E851" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="852" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A852" s="8">
+        <v>1467</v>
+      </c>
+      <c r="D852" t="s">
+        <v>1236</v>
+      </c>
+      <c r="E852" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="853" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A853" s="8">
+        <v>1467</v>
+      </c>
+      <c r="D853" t="s">
+        <v>1238</v>
+      </c>
+      <c r="E853" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="854" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A854" s="8">
+        <v>1467</v>
+      </c>
+      <c r="D854" t="s">
+        <v>1240</v>
+      </c>
+      <c r="E854" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="855" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A855" s="8">
+        <v>1467</v>
+      </c>
+      <c r="D855" t="s">
+        <v>1242</v>
+      </c>
+      <c r="E855" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="856" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A856" s="8">
+        <v>1467</v>
+      </c>
+      <c r="D856" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E856" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="857" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A857" s="8">
+        <v>1467</v>
+      </c>
+      <c r="D857" t="s">
+        <v>1246</v>
+      </c>
+      <c r="E857" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="858" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A858" s="8">
+        <v>1467</v>
+      </c>
+      <c r="D858" t="s">
+        <v>1248</v>
+      </c>
+      <c r="E858" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="859" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A859" s="8">
+        <v>1467</v>
+      </c>
+      <c r="D859" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E859" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="860" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A860" s="8">
+        <v>1467</v>
+      </c>
+      <c r="D860" t="s">
+        <v>1252</v>
+      </c>
+      <c r="E860" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="861" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A861" s="8">
+        <v>1467</v>
+      </c>
+      <c r="D861" t="s">
+        <v>1254</v>
+      </c>
+      <c r="E861" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="862" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A862" s="8">
+        <v>1467</v>
+      </c>
+      <c r="D862" t="s">
+        <v>1256</v>
+      </c>
+      <c r="E862" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="863" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A863" s="8">
+        <v>1467</v>
+      </c>
+      <c r="D863" t="s">
+        <v>1258</v>
+      </c>
+      <c r="E863" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="864" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A864" s="8">
+        <v>1467</v>
+      </c>
+      <c r="D864" t="s">
+        <v>1259</v>
+      </c>
+      <c r="E864" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="865" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A865" s="8">
+        <v>1467</v>
+      </c>
+      <c r="D865" t="s">
+        <v>1260</v>
+      </c>
+      <c r="E865" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="866" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A866" s="8">
+        <v>1467</v>
+      </c>
+      <c r="D866" t="s">
+        <v>1261</v>
+      </c>
+      <c r="E866" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="867" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A867" s="8">
+        <v>1467</v>
+      </c>
+      <c r="D867" t="s">
+        <v>1263</v>
+      </c>
+      <c r="E867" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="868" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A868" s="8">
+        <v>1467</v>
+      </c>
+      <c r="D868" t="s">
+        <v>1265</v>
+      </c>
+      <c r="E868" s="1" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="869" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A869" s="8">
+        <v>1467</v>
+      </c>
+      <c r="D869" t="s">
+        <v>1267</v>
+      </c>
+      <c r="E869" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="870" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A870" s="8">
+        <v>1467</v>
+      </c>
+      <c r="D870" t="s">
+        <v>1269</v>
+      </c>
+      <c r="E870" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="871" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A871" s="8">
+        <v>1467</v>
+      </c>
+      <c r="D871" t="s">
+        <v>1271</v>
+      </c>
+      <c r="E871" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="872" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A872" s="8">
+        <v>1467</v>
+      </c>
+      <c r="D872" t="s">
+        <v>1273</v>
+      </c>
+      <c r="E872" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="873" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A873" s="8">
+        <v>1467</v>
+      </c>
+      <c r="D873" t="s">
+        <v>1275</v>
+      </c>
+      <c r="E873" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="874" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A874" s="8">
+        <v>1467</v>
+      </c>
+      <c r="D874" t="s">
+        <v>1277</v>
+      </c>
+      <c r="E874" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="875" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A875" s="8">
+        <v>1467</v>
+      </c>
+      <c r="D875" t="s">
+        <v>1279</v>
+      </c>
+      <c r="E875" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="876" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A876" s="8">
+        <v>1467</v>
+      </c>
+      <c r="D876" t="s">
+        <v>1281</v>
+      </c>
+      <c r="E876" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="877" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A877" s="8">
+        <v>1467</v>
+      </c>
+      <c r="D877" t="s">
+        <v>1283</v>
+      </c>
+      <c r="E877" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="878" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A878" s="8">
+        <v>1467</v>
+      </c>
+      <c r="D878" t="s">
+        <v>1284</v>
+      </c>
+      <c r="E878" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="879" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A879" s="8">
+        <v>1467</v>
+      </c>
+      <c r="D879" t="s">
+        <v>1286</v>
+      </c>
+      <c r="E879" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="880" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A880" s="8">
+        <v>1467</v>
+      </c>
+      <c r="D880" t="s">
+        <v>1288</v>
+      </c>
+      <c r="E880" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="881" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A881" s="8">
+        <v>1467</v>
+      </c>
+      <c r="D881" t="s">
+        <v>1290</v>
+      </c>
+      <c r="E881" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="882" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A882" s="8">
+        <v>1467</v>
+      </c>
+      <c r="D882" t="s">
+        <v>1292</v>
+      </c>
+      <c r="E882" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="883" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A883" s="8">
+        <v>1467</v>
+      </c>
+      <c r="D883" t="s">
+        <v>1294</v>
+      </c>
+      <c r="E883" s="1" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="884" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A884" s="8">
+        <v>1467</v>
+      </c>
+      <c r="D884" t="s">
+        <v>1296</v>
+      </c>
+      <c r="E884" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="885" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A885" s="8">
+        <v>1467</v>
+      </c>
+      <c r="D885" t="s">
+        <v>1298</v>
+      </c>
+      <c r="E885" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="886" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A886" s="8">
+        <v>1467</v>
+      </c>
+      <c r="D886" t="s">
+        <v>1300</v>
+      </c>
+      <c r="E886" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="887" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A887" s="8">
+        <v>1467</v>
+      </c>
+      <c r="D887" t="s">
+        <v>1302</v>
+      </c>
+      <c r="E887" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="888" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A888" s="8">
+        <v>1467</v>
+      </c>
+      <c r="D888" t="s">
+        <v>1304</v>
+      </c>
+      <c r="E888" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="889" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A889" s="8">
+        <v>1467</v>
+      </c>
+      <c r="D889" t="s">
+        <v>1306</v>
+      </c>
+      <c r="E889" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="890" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A890" s="8">
+        <v>1467</v>
+      </c>
+      <c r="D890" t="s">
+        <v>1308</v>
+      </c>
+      <c r="E890" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="891" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A891" s="8">
+        <v>1469</v>
+      </c>
+      <c r="F891" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="892" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A892" s="8">
+        <v>1482</v>
+      </c>
+      <c r="B892" s="5" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="893" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A893" s="8">
+        <v>1494</v>
+      </c>
+      <c r="D893" t="s">
+        <v>1311</v>
+      </c>
+      <c r="E893" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="894" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A894" s="8">
+        <v>1502</v>
+      </c>
+      <c r="B894" s="5" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="895" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A895" s="8">
+        <v>1503</v>
+      </c>
+      <c r="B895" s="5" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="896" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A896" s="8">
+        <v>1504</v>
+      </c>
+      <c r="C896" s="5" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="897" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A897" s="8">
+        <v>1511</v>
+      </c>
+      <c r="B897" s="5" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="898" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A898" s="8">
+        <v>1514</v>
+      </c>
+      <c r="B898" s="5" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="899" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A899" s="8">
+        <v>1534</v>
+      </c>
+      <c r="C899" s="5" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="900" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A900" s="8">
+        <v>1536</v>
+      </c>
+      <c r="B900" s="5" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="901" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A901" s="8">
+        <v>1542</v>
+      </c>
+      <c r="C901" t="s">
+        <v>1317</v>
+      </c>
+      <c r="D901" t="s">
+        <v>147</v>
+      </c>
+      <c r="E901" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="902" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A902" s="8">
+        <v>1544</v>
+      </c>
+      <c r="F902" s="5" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="903" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A903" s="8">
+        <v>1545</v>
+      </c>
+      <c r="B903" s="5" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="904" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A904" s="8">
+        <v>1551</v>
+      </c>
+      <c r="B904" s="5" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="905" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A905" s="8">
+        <v>1560</v>
+      </c>
+      <c r="D905" t="s">
+        <v>1320</v>
+      </c>
+      <c r="E905" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="906" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A906" s="8">
+        <v>1560</v>
+      </c>
+      <c r="D906" t="s">
+        <v>1322</v>
+      </c>
+      <c r="E906" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="907" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A907" s="8">
+        <v>1564</v>
+      </c>
+      <c r="C907" s="5" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="908" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A908" s="8">
+        <v>1565</v>
+      </c>
+      <c r="C908" s="5" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="909" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A909" s="8">
+        <v>1567</v>
+      </c>
+      <c r="C909" s="5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="910" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A910" s="8">
+        <v>1569</v>
+      </c>
+      <c r="C910" s="5" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="911" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A911" s="8">
+        <v>1570</v>
+      </c>
+      <c r="C911" s="5" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="912" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A912" s="8">
+        <v>1575</v>
+      </c>
+      <c r="C912" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="913" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A913" s="8">
+        <v>1577</v>
+      </c>
+      <c r="D913" t="s">
+        <v>1326</v>
+      </c>
+      <c r="E913" t="s">
+        <v>1327</v>
+      </c>
+      <c r="F913" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="914" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A914" s="8">
+        <v>1578</v>
+      </c>
+      <c r="D914" t="s">
+        <v>1328</v>
+      </c>
+      <c r="E914" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="915" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A915" s="8">
+        <v>1578</v>
+      </c>
+      <c r="D915" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E915" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="916" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A916" s="8">
+        <v>1578</v>
+      </c>
+      <c r="D916" t="s">
+        <v>1332</v>
+      </c>
+      <c r="E916" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="917" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A917" s="8">
+        <v>1578</v>
+      </c>
+      <c r="D917" t="s">
+        <v>1334</v>
+      </c>
+      <c r="E917" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="918" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A918" s="8">
+        <v>1578</v>
+      </c>
+      <c r="D918" t="s">
+        <v>1336</v>
+      </c>
+      <c r="E918" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="919" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A919" s="8">
+        <v>1578</v>
+      </c>
+      <c r="D919" t="s">
+        <v>1338</v>
+      </c>
+      <c r="E919" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="920" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A920" s="8">
+        <v>1578</v>
+      </c>
+      <c r="D920" t="s">
+        <v>1340</v>
+      </c>
+      <c r="E920" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="921" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A921" s="8">
+        <v>1578</v>
+      </c>
+      <c r="D921" t="s">
+        <v>1342</v>
+      </c>
+      <c r="E921" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="922" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A922" s="8">
+        <v>1578</v>
+      </c>
+      <c r="D922" t="s">
+        <v>1344</v>
+      </c>
+      <c r="E922" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="923" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A923" s="8">
+        <v>1578</v>
+      </c>
+      <c r="D923" t="s">
+        <v>1346</v>
+      </c>
+      <c r="E923" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="924" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A924" s="8">
+        <v>1578</v>
+      </c>
+      <c r="D924" t="s">
+        <v>1348</v>
+      </c>
+      <c r="E924" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="925" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A925" s="8">
+        <v>1578</v>
+      </c>
+      <c r="D925" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E925" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="926" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A926" s="8">
+        <v>1578</v>
+      </c>
+      <c r="D926" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E926" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="927" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A927" s="8">
+        <v>1578</v>
+      </c>
+      <c r="D927" t="s">
+        <v>1354</v>
+      </c>
+      <c r="E927" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="928" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A928" s="8">
+        <v>1578</v>
+      </c>
+      <c r="D928" t="s">
+        <v>1356</v>
+      </c>
+      <c r="E928" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="929" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A929" s="8">
+        <v>1578</v>
+      </c>
+      <c r="D929" t="s">
+        <v>1358</v>
+      </c>
+      <c r="E929" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="930" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A930" s="8">
+        <v>1578</v>
+      </c>
+      <c r="D930" t="s">
+        <v>1360</v>
+      </c>
+      <c r="E930" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="931" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A931" s="8">
+        <v>1578</v>
+      </c>
+      <c r="D931" t="s">
+        <v>1362</v>
+      </c>
+      <c r="E931" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="932" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A932" s="8">
+        <v>1578</v>
+      </c>
+      <c r="D932" t="s">
+        <v>1364</v>
+      </c>
+      <c r="E932" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="933" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A933" s="8">
+        <v>1578</v>
+      </c>
+      <c r="D933" t="s">
+        <v>1366</v>
+      </c>
+      <c r="E933" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="934" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A934" s="8">
+        <v>1578</v>
+      </c>
+      <c r="D934" t="s">
+        <v>1368</v>
+      </c>
+      <c r="E934" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="935" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A935" s="8">
+        <v>1578</v>
+      </c>
+      <c r="D935" t="s">
+        <v>1370</v>
+      </c>
+      <c r="E935" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="936" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A936" s="8">
+        <v>1578</v>
+      </c>
+      <c r="D936" t="s">
+        <v>1372</v>
+      </c>
+      <c r="E936" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="937" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A937" s="8">
+        <v>1579</v>
+      </c>
+      <c r="D937" t="s">
+        <v>1374</v>
+      </c>
+      <c r="E937" t="s">
+        <v>1375</v>
+      </c>
+      <c r="F937" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="938" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A938" s="8">
+        <v>1580</v>
+      </c>
+      <c r="B938" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="D938" t="s">
+        <v>1376</v>
+      </c>
+      <c r="E938" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="939" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A939" s="8">
+        <v>1580</v>
+      </c>
+      <c r="D939" t="s">
+        <v>1377</v>
+      </c>
+      <c r="E939" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="940" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A940" s="8">
+        <v>1580</v>
+      </c>
+      <c r="D940" t="s">
+        <v>1379</v>
+      </c>
+      <c r="E940" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="941" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A941" s="8">
+        <v>1582</v>
+      </c>
+      <c r="C941" s="5" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="942" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A942" s="8">
+        <v>1583</v>
+      </c>
+      <c r="F942" s="5" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="943" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A943" s="8">
+        <v>1599</v>
+      </c>
+      <c r="C943" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="944" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A944" s="8">
+        <v>1601</v>
+      </c>
+      <c r="C944" s="1" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="945" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A945" s="8">
+        <v>1614</v>
+      </c>
+      <c r="C945" s="5" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="946" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A946" s="8">
+        <v>1619</v>
+      </c>
+      <c r="C946" s="5" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="947" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A947" s="8">
+        <v>1621</v>
+      </c>
+      <c r="C947" s="5" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="948" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A948" s="8">
+        <v>1627</v>
+      </c>
+      <c r="C948" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="949" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A949" s="8">
+        <v>1628</v>
+      </c>
+      <c r="C949" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="950" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A950" s="8">
+        <v>1636</v>
+      </c>
+      <c r="F950" s="5" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="951" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A951" s="8">
+        <v>1637</v>
+      </c>
+      <c r="F951" s="9" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="952" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A952" s="8">
+        <v>1641</v>
+      </c>
+      <c r="B952" s="5" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="953" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A953" s="8">
+        <v>1644</v>
+      </c>
+      <c r="C953" s="5" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="954" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A954" s="8">
+        <v>1649</v>
+      </c>
+      <c r="C954" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="955" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A955" s="8">
+        <v>1650</v>
+      </c>
+      <c r="C955" t="s">
+        <v>1386</v>
+      </c>
+      <c r="D955" t="s">
+        <v>1388</v>
+      </c>
+      <c r="E955" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="956" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A956" s="8">
+        <v>1650</v>
+      </c>
+      <c r="D956" t="s">
+        <v>1389</v>
+      </c>
+      <c r="E956" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="957" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A957" s="8">
+        <v>1650</v>
+      </c>
+      <c r="D957" t="s">
+        <v>1391</v>
+      </c>
+      <c r="E957" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="958" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A958" s="8">
+        <v>1650</v>
+      </c>
+      <c r="D958" t="s">
+        <v>1392</v>
+      </c>
+      <c r="E958" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/Postille.xlsx
+++ b/Postille.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5d451be126981215/Desktop/GitHub/Gadda/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="645" documentId="14_{59D13486-6436-4D08-A40F-13E1F1680345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ADB4E43A-5A7D-4432-B27A-323381DDB5DF}"/>
+  <xr:revisionPtr revIDLastSave="375" documentId="14_{67F171D5-B97A-47EF-8106-34223293467D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{08F9D81B-D354-4CD6-AC37-3E819FAABC09}"/>
   <bookViews>
-    <workbookView xWindow="48" yWindow="5580" windowWidth="23040" windowHeight="7152" xr2:uid="{47043BD0-CCA9-4BF6-9B93-1764477DDE15}"/>
+    <workbookView xWindow="-120" yWindow="5916" windowWidth="23040" windowHeight="7152" xr2:uid="{47043BD0-CCA9-4BF6-9B93-1764477DDE15}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2064" uniqueCount="1771">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2344" uniqueCount="1988">
   <si>
     <t>Id</t>
   </si>
@@ -5451,6 +5451,657 @@
   </si>
   <si>
     <t>Dedica dell’autore in data 1953.</t>
+  </si>
+  <si>
+    <t>Dedica dell’autore e foglietto con appunti  inserito.</t>
+  </si>
+  <si>
+    <t>Nota di possesso autografa in data 1.11.1924.</t>
+  </si>
+  <si>
+    <t>Nota di possesso autografa in data 1919 Milano.</t>
+  </si>
+  <si>
+    <t>Dedica dell’autore in data 1967.</t>
+  </si>
+  <si>
+    <t>Nota di possesso di Gadda in data 18.5.24 Milano.</t>
+  </si>
+  <si>
+    <t>Nota di possesso di Gadda in data 18.5.1924 Milano.</t>
+  </si>
+  <si>
+    <t>Nota di possesso autografa in data 10.1924.</t>
+  </si>
+  <si>
+    <t>Dedica di P.P. Pasolini in data 10.1.1953.</t>
+  </si>
+  <si>
+    <t>[p. 237 rr. 6-7 «Ti riconosco/ alla lastra di rosa e il muro liscio»]</t>
+  </si>
+  <si>
+    <t>al</t>
+  </si>
+  <si>
+    <t>[p. 237 rr. 15-16 «T'ho indovinata, o madre,/ dalle frittelle d'oro e i tuoi spioncini»]</t>
+  </si>
+  <si>
+    <t>dai</t>
+  </si>
+  <si>
+    <t>[p. 237 rr. 33-34 «E il pendolo impiccato/ tocca coi piedi il suolo»]</t>
+  </si>
+  <si>
+    <t>appiccato a che cosa?</t>
+  </si>
+  <si>
+    <t>[p. 239 rr. 21-24 «E nient'altro? sì. Le stelle/ spegnere si dovranno ad una ad una./ E vogando in un amore breve d'olio/ la più fedele vegli il mio sepolcro.»]</t>
+  </si>
+  <si>
+    <t>[p. 241 rr. 7-10 «Dimmi. La luce mia – tua – che rendo,/ di che ti sa, già morta nel tuo grembo?/ Può la tua luce accrescere/ questo lume selenico distante?»]</t>
+  </si>
+  <si>
+    <t>? | lontano</t>
+  </si>
+  <si>
+    <t>[p. 241 rr. 23-25 «E tante farfalle svagate/ nel tuo sguardo perite/ che più nulla rischiarano le stelle [...]»]</t>
+  </si>
+  <si>
+    <t>cadute</t>
+  </si>
+  <si>
+    <t>[p. 241 rr. 27-28 «Donna in cui nascono la api/ che fabbricano la ore»]</t>
+  </si>
+  <si>
+    <t>le</t>
+  </si>
+  <si>
+    <t>[p. 243 rr. 2-7 «Dal cantabrico mare che cinge la mia infanzia/ in elastici cerchi boreali,/ non all'alpestre Soria, eroica ed eremita, / ma alla Soria dei lirici, erranti, aperti sogni/ di Béquer, salii, celesta paria/ burlato di una chiara fantasima bizzarria.»]</t>
+  </si>
+  <si>
+    <t>e romita</t>
+  </si>
+  <si>
+    <t>[p. 243 rr. 16-17 «Il tuo fantasma già figura – donna di pietra -, veglia/ “nell'augusta navaya del tempio bizantino”»]</t>
+  </si>
+  <si>
+    <t>fatto forma diventa forma</t>
+  </si>
+  <si>
+    <t>[p. 243 rr. 21-24 «Taci. L'odi? Avanza dai poderi dei Templari,/ salta agile la chiusa, piega il suo alveo fuggitivo;/ con volontà sonora/ limita, caccia, lustra, e ride e piange.»]</t>
+  </si>
+  <si>
+    <t>torce</t>
+  </si>
+  <si>
+    <t>[p. 247 rr. 1-3 «In prigioni di spazio, chiavi aeree/ ti serrano reclusa sempre. Gelo,/ cristallo d'aria in foglie.»]</t>
+  </si>
+  <si>
+    <t>sui miei fogli</t>
+  </si>
+  <si>
+    <t>[p. 247 rr. 3-7 «Non c'è volo/ per questi uccelli che ti possa prendere./ Sapere che tu dormi, ormai sicura/ - alveo fedele d'ozio, linea pura - / tanto vicina alle mie braccia avvinte»]</t>
+  </si>
+  <si>
+    <t>? | ?</t>
+  </si>
+  <si>
+    <t>[p. 247 r. 8 «Sgomenta schiavitù dell'isolano»]</t>
+  </si>
+  <si>
+    <t>d'un (casomai)</t>
+  </si>
+  <si>
+    <t>[p. 247 rr. 12-15 «Era in Numanzia, al tempo che dichina/ la sera del solenne agoto e lento,/ Numanzia di silenzio e di ruina,/ anima in liberà, cuspide di vento.»]</t>
+  </si>
+  <si>
+    <t>Io ero</t>
+  </si>
+  <si>
+    <t>[p. 247 rr. 20-22 «Subito – dove? - uccello senza lira,/ né ramo, né leggio, canta, delira,/ si libra in cima alla sua ardente doglia»]</t>
+  </si>
+  <si>
+    <t>Febbre</t>
+  </si>
+  <si>
+    <t>[p. 247 rr. 27-30 «Quale luce di sabbia al mezzodì/ che salmastro, che tonfi, presso, lungi,/ se tra spume e l'argento e il cilestrino/ Venere appare alla mitologia»]</t>
+  </si>
+  <si>
+    <t>piastrelle</t>
+  </si>
+  <si>
+    <t>[p. 248 rr. 16-18 «Asì te quiero, flùida y sucesiva, / manantial tù de ti, agua furtiva,/ mùsica para el tacto perezosa»]</t>
+  </si>
+  <si>
+    <t>[p.249 rr. 8-11 «Lasciami accarezzarti lentamente, / ch'io possa lentamente esaminarti, / che davvero tu sei, quell'adeguarti/ di te stessa a te stessa estesamente»]</t>
+  </si>
+  <si>
+    <t>[p. 249 rr. 12-15 «S'irraggian dalla fronte l'onde lente, / e docilmente, pur senza incresparti,/ rompon le dieci spume nel baciarti/ dei tuoi piedi alla spiaggia adolescente.»]</t>
+  </si>
+  <si>
+    <t>Lor</t>
+  </si>
+  <si>
+    <t>Dedica del curatore in data 4.2.1942.</t>
+  </si>
+  <si>
+    <t>[p. 13 rr. 20-22 «L’unità e la significazione del poema sono qui, in quest’idillio della giovinezza che presenta l’angoscia della vita.»]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e </t>
+  </si>
+  <si>
+    <t>[p. 32 rr. 28-30 «Lo sdrucciolo stesso, che altre volte sfrena la fantasia del Poliziano, qui invece accentua al sensazione monumentale e la tristezza gigantesca, squallida: [...]»]</t>
+  </si>
+  <si>
+    <t>La</t>
+  </si>
+  <si>
+    <t>[pp. 36-37 rr. 29-33; 1-3 «Nel sogno è diffuso un che di doloroso, uno smarrimento che lo salva dall’azione disgregratrice degli elementi convenzionali, perché c’è ancora dentro l’anima di Iulo sbigottita dinanzi alla creatura meravigliosa che lo soverchia, e perché il suo spavento, nonostante i particolari tradizionali, vien fuori spontaneo dalla presaga contemplazione della ninfa apparsa in mezzo al bosco.»]</t>
+  </si>
+  <si>
+    <t>[p. 38 rr. 21-26 «[...]: nello spegnersi triste e grandioso degli astri dentro gli abissi del nulla c’è la passione desolata di quel cuore d’amante, una vibrazione personale che non ci lascia vedere nello sconvolgimento cosmicoche accompagna la morte di Simonetta, la reminiscenza di antecedenti letterari famosi.»]</t>
+  </si>
+  <si>
+    <t>Nota di possesso di Enrico Gadda in data 10.1917 Chiarotti.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dedica dell’autore in data 3.4.1970. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dedica dell’autore in data 1965. </t>
+  </si>
+  <si>
+    <t>Dedica dell’autore in data 13.5.70.</t>
+  </si>
+  <si>
+    <t>Nota di possesso di Enrico Gadda Chantis  6 ottobre 17.</t>
+  </si>
+  <si>
+    <t>Dedica dell’autore in data 5.1943.</t>
+  </si>
+  <si>
+    <t>Dedica dell’autore in data 5.1941.</t>
+  </si>
+  <si>
+    <t>CE Gadda</t>
+  </si>
+  <si>
+    <t>[p. 61 marg. sx]</t>
+  </si>
+  <si>
+    <t>Il dittongo voc. Lunga davanti alla vocale tesi diventa breve</t>
+  </si>
+  <si>
+    <t>[p. 171 rr. 9-10 «[...] ως οι κατα καιρον ην, ειρετο ο Κροισος ταδε»]</t>
+  </si>
+  <si>
+    <t>&lt;…&gt; comodo</t>
+  </si>
+  <si>
+    <t>[p. 171 rr. 10-11 «Ξεινε Αθεναιε, παρ’ημας γαρ περι σεο λογος απικται πολλος και σοφιης της σης και πλανης»]</t>
+  </si>
+  <si>
+    <t>Viaggio</t>
+  </si>
+  <si>
+    <t>[p. 171 rr.9-11 «νῦν ὦν ἐπειρέσθαι με ἵμερος ἐπῆλθέ σε εἴ τινα ἤδη πάντων εἶδες ὀλβιώτατον»]</t>
+  </si>
+  <si>
+    <t>Chiedersi</t>
+  </si>
+  <si>
+    <t>[p. 171 rr. 15-18 «Τέλλῳ τοῦτο μὲν τῆς πόλιος εὖ ἡκούσης παῖδες ἦσαν καλοί τε κἀγαθοί, καί σφι εἶδε ἅπασι τέκνα ἐκγενόμενα καὶ πάντα παραμείναντα· τοῦτο δὲ τοῦ βίου εὖ ἥκοντι, ὡς τὰ παρ᾽ ἡμῖν, τελευτὴ τοῦ βίου λαμπροτάτη ἐπεγένετο»]</t>
+  </si>
+  <si>
+    <t>Cresciuti</t>
+  </si>
+  <si>
+    <t>[pp. 171-172 rr. 18-21; 1 «γενομένης γὰρ Ἀθηναίοισι μάχης πρὸς τοὺς ἀστυγείτονας ἐν Ἐλευσῖνι, βοηθήσας καὶ τροπὴν ποιήσας τῶν πολεμίων ἀπέθανε κάλλιστα, καί μιν Ἀθηναῖοι δημοσίῃ τε ἔθαψαν αὐτοῦ τῇ περ ἔπεσε καὶ ἐτίμησαν μεγάλως»]</t>
+  </si>
+  <si>
+    <t>Vicini | Strage</t>
+  </si>
+  <si>
+    <t>[p. 172 rr. 1-4 «ὣς δὲ τὰ κατὰ τὸν Τέλλον προετρέψατο ὁ Σόλων τὸν Κροῖσον εἴπας πολλά τε καὶ ὀλβία, ἐπειρώτα τίνα δεύτερον μετ᾽ ἐκεῖνον ἴδοι, δοκέων πάγχυ δευτερεῖα γῶν οἴσεσθαι. ὃ δ᾽ εἶπε»]</t>
+  </si>
+  <si>
+    <t>Almeno</t>
+  </si>
+  <si>
+    <t>[p. 172 rr. 4-7 «Κλέοβίν τε καὶ Βίτωνα. τούτοισι γὰρ ἐοῦσι γένος Ἀργείοισι βίος τε ἀρκέων ὑπῆν, καὶ πρὸς τούτῳ ῥώμη σώματος τοιήδε ἀεθλοφόροι τε ἀμφότεροι ὁμοίως ἦσαν, καὶ δὴ καὶ λέγεται ὅδε ὁ λόγος»]</t>
+  </si>
+  <si>
+    <t>Era | Riportanti premi</t>
+  </si>
+  <si>
+    <t>[p. 172 rr- 7-8 «ἐούσης ὁρτῆς τῇ Ἥρῃ τοῖσι Ἀργείοισι ἔδεε πάντως τὴν μητέρα αὐτῶν ζεύγεϊ κομισθῆναι ἐς τὸ ἱρόν, οἱ δέ σφι βόες ἐκ τοῦ ἀγροῦ οὐ παρεγίνοντο ἐν ὥρῃ·»]</t>
+  </si>
+  <si>
+    <t>carro</t>
+  </si>
+  <si>
+    <t>[p. 172 rr. 21-23 «μετὰ ταύτην δὲ τὴν εὐχὴν ὡς ἔθυσάν τε καὶ εὐωχήθησαν, κατακοιμηθέντες ἐν αὐτῷ τῷ ἱρῷ οἱ νεηνίαι οὐκέτι ἀνέστησαν ἀλλ᾽ ἐν τέλεϊ τούτῳ ἔσχοντο.»]</t>
+  </si>
+  <si>
+    <t>Preghiera | Banchettavan andati a riposare</t>
+  </si>
+  <si>
+    <t>[p. 172 rr. 28-30 « ὁ δὲ εἶπε "ὦ Κροῖσε, ἐπιστάμενόν με τὸ θεῖον πᾶν ἐὸν φθονερόν τε καὶ ταραχῶδες ἐπειρωτᾷς ἀνθρωπηίων πρηγμάτων πέρι »]</t>
+  </si>
+  <si>
+    <t>Che sa | Invidiato</t>
+  </si>
+  <si>
+    <t>[p. 173 rr. 1-2 «ἐν γὰρ τῷ μακρῷ χρόνῳ πολλὰ μὲν ἐστὶ ἰδεῖν τὰ μή τις ἐθέλει, πολλὰ δὲ καὶ παθεῖν. ἐς γὰρ ἑβδομήκοντα ἔτεα οὖρον τῆς ζόης ἀνθρώπῳ προτίθημι. »]</t>
+  </si>
+  <si>
+    <t>Circa</t>
+  </si>
+  <si>
+    <t>[p. 173 rr. 2-4 «οὗτοι ἐόντες ἐνιαυτοὶ ἑβδομήκοντα παρέχονται ἡμέρας διηκοσίας καὶ πεντακισχιλίας καὶ δισμυρίας, ἐμβολίμου μηνὸς μὴ γινομένου»]</t>
+  </si>
+  <si>
+    <t>[p. 173 rr. 5-12 «εἰ δὲ δὴ ἐθελήσει τοὔτερον τῶν ἐτέων μηνὶ μακρότερον γίνεσθαι, ἵνα δὴ αἱ ὧραι συμβαίνωσι παραγινόμεναι ἐς τὸ δέον, μῆνες μὲν παρὰ τὰ ἑβδομήκοντα ἔτεα οἱ ἐμβόλιμοι γίνονται τριήκοντα πέντε, ἡμέραι δὲ ἐκ τῶν μηνῶν τούτων χίλιαι πεντήκοντα. τουτέων τῶν ἁπασέων ἡμερέων τῶν ἐς τὰ ἑβδομήκοντα ἔτεα, ἐουσέων πεντήκοντα καὶ διηκοσιέων καὶ ἑξακισχιλιέων καὶ δισμυριέων, ἡ ἑτέρη αὐτέων τῇ ἑτέρῃ ἡμέρῃ τὸ παράπαν οὐδὲν ὅμοιον προσάγει πρῆγμα. »]</t>
+  </si>
+  <si>
+    <t>accadano | 1050 | 96050</t>
+  </si>
+  <si>
+    <t>[p. 173 rr. 14-19 «ἐκεῖνο δὲ τὸ εἴρεό με, οὔκω σε ἐγὼ λέγω, πρὶν τελευτήσαντα καλῶς τὸν αἰῶνα πύθωμαι. οὐ γάρ τι ὁ μέγα πλούσιος μᾶλλον τοῦ ἐπ᾽ ἡμέρην ἔχοντος ὀλβιώτερος ἐστί, εἰ μή οἱ τύχη ἐπίσποιτο πάντα καλὰ ἔχοντα εὖ τελευτῆσαὶ τὸν βίον. πολλοὶ μὲν γὰρ ζάπλουτοι ἀνθρώπων ἀνόλβιοι εἰσί, πολλοὶ δὲ μετρίως ἔχοντες βίου εὐτυχέες.»]</t>
+  </si>
+  <si>
+    <t>Tempio della vita | Certamente | \\</t>
+  </si>
+  <si>
+    <t>[p. 173 rr. 21-25 «ὃ μὲν ἐπιθυμίην ἐκτελέσαι καί ἄτην μεγάλην προσπεσοῦσαν ἐνεῖκαι δυνατώτερος, ὁ δὲ τοῖσιδε προέχει ἐκείνου·»]</t>
+  </si>
+  <si>
+    <t>&lt;…&gt; | Φέρω</t>
+  </si>
+  <si>
+    <t>[p. 173 rr. 25-27 «ἄτην μὲν καὶ ἐπιθυμίην οὐκ ὁμοίως δυνατὸς ἐκείνῳ ἐνεῖκαι, ταῦτα δὲ ἡ εὐτυχίη οἱ ἀπερύκει, ἄπηρος δὲ ἐστί, ἄνουσος, ἀπαθὴς κακῶν, εὔπαις, εὐειδής. »]</t>
+  </si>
+  <si>
+    <t>allontana | non storpio | sano</t>
+  </si>
+  <si>
+    <t>[p. 173 rr.25-27 «εἰ δὲ πρὸς τούτοισι ἔτι τελευτήσῃ τὸν βίον εὖ, οὗτος ἐκεῖνος τὸν σὺ ζητέεις, ὁ ὄλβιος κεκλῆσθαι ἄξιος ἐστί·»]</t>
+  </si>
+  <si>
+    <t>Καλέω</t>
+  </si>
+  <si>
+    <t>[p. 173 rr. 28-30 «τὰ πάντα μέν νυν ταῦτα συλλαβεῖν ἄνθρωπον ἐόντα ἀδύνατον ἐστί, ὥσπερ χωρῇ οὐδεμία καταρκέει πάντα ἑωυτῇ παρέχουσα, ἀλλὰ ἄλλο μὲν ἔχει ἑτέρου δὲ ἐπιδέεται»]</t>
+  </si>
+  <si>
+    <t>&lt;…&gt;giere | A provvedere</t>
+  </si>
+  <si>
+    <t>[p.174 rr.1-2 «ὣς δὲ καὶ ἀνθρώπου σῶμα ἓν οὐδὲν αὔταρκες ἐστί· τὸ μὲν γὰρ ἔχει, ἄλλου δὲ ἐνδεές ἐστι·»]</t>
+  </si>
+  <si>
+    <t>Bastevole</t>
+  </si>
+  <si>
+    <t>[p. 174 rr. 5-6 «σκοπέειν δὲ χρὴ παντὸς χρήματος τὴν τελευτήν, κῇ ἀποβήσεται»]</t>
+  </si>
+  <si>
+    <t>Come finirà</t>
+  </si>
+  <si>
+    <t>[p. 174 rr. 6-7 «πολλοῖσι γὰρ δὴ ὑποδέξας ὄλβον ὁ θεὸς προῤῥίζους ἀνέτρεψε»]</t>
+  </si>
+  <si>
+    <t>avaτρεπω</t>
+  </si>
+  <si>
+    <t>[p. 174 rr. 7-10 «ταῦτα λέγων τῷ Κροίσῳ οὔ κως οὔτε ἐχαρίζετο, οὔτε λόγου μιν ποιησάμενος οὐδενὸς ἀποπέμπεται, κάρτα δόξας ἀμαθέα εἶναι, ὃς τὰ παρεόντα ἀγαθὰ μετεὶς τὴν τελευτὴν παντὸς χρήματος ὁρᾶν ἐκέλευε.»]</t>
+  </si>
+  <si>
+    <t>Ignorante | &lt;…&gt;</t>
+  </si>
+  <si>
+    <t>[p. 186 rr. 20-21 «ώς εμέ, ad me. – αυτόν, in persona. – το πραχθηναι ταυτα, cioè ch’egli sia accolta nella tua amicizia.»]</t>
+  </si>
+  <si>
+    <t>Invitato a venire da te</t>
+  </si>
+  <si>
+    <t>[p. 243 r. 27 «κρατησας δε τη γνομη»]</t>
+  </si>
+  <si>
+    <t>Avendo ottenuto l’intento</t>
+  </si>
+  <si>
+    <t>[p. 244 rr. 18-19 «ην δε τις και απο των ημερων και συντροφων ζωων επικλωσα γλυκυθυμια, μετ’ ωρογης»]</t>
+  </si>
+  <si>
+    <t>Era inoltre anche per gli animali mansueti domestici una certa tenerezza commovente per [traduce male. Il significato è con] il latrato</t>
+  </si>
+  <si>
+    <t>[p. 244 r. 22 «μονωσιν»]</t>
+  </si>
+  <si>
+    <t>Abbandono</t>
+  </si>
+  <si>
+    <t>Dedica dell’autore in data 11.1938.</t>
+  </si>
+  <si>
+    <t>Nota di possesso autografa in data 9.06.1941.</t>
+  </si>
+  <si>
+    <t>sottolineature</t>
+  </si>
+  <si>
+    <t>Dedica dell’autore in data 24.6.1935.</t>
+  </si>
+  <si>
+    <t>Dedica dell’autore in data 1966.</t>
+  </si>
+  <si>
+    <t>Nota di possesso autografa: «Carlo Emilio Gadda, Duca di Sant’Aquila. Campagna Austriaca 1915. Ponte di Legno (Valcamonica) 8 dicembre 1915».</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nota di possesso autografa in data 2.03.1931. </t>
+  </si>
+  <si>
+    <t>Dedica dell’autrice ad Adele Gadda Lehr.</t>
+  </si>
+  <si>
+    <t>Dedica dell’autrice ad Adele Gadda Lehr in data 10.1926.</t>
+  </si>
+  <si>
+    <t>Dedica di Marie R. Rolland.</t>
+  </si>
+  <si>
+    <t>Nota di possesso autografa in data 22.01.1941.</t>
+  </si>
+  <si>
+    <t>Dedica dell’autore in data 29.1.53.</t>
+  </si>
+  <si>
+    <t>[p. 73 rr. 3-7 «On ne peut imaginer que le people reste incessamment assemblé pour vaquer aux affaires publiques, et l’on voit aisément qu’il ne saurait établir pour cela des commissions, sans que la forme de l’administration change.]</t>
+  </si>
+  <si>
+    <t>[p. 76 rr. 4-6 «En un mot, c’est l’ordre le meilleur et le plus naturel que les plus sages gouvernent la multitude, quand ono est sûr qu’ils la gouverneront pour son profit et non pour le leur.]</t>
+  </si>
+  <si>
+    <t>[pp. 76-77 rr 33; 1-2 «Au contraire, il importe qu’un choix opposé apprenne quelquefois au peuple qu’il y a, dans le mérite des hommes, des raisons de préférence plus importantes que la richesse.»]</t>
+  </si>
+  <si>
+    <t>Mais c’est de &lt;…&gt;</t>
+  </si>
+  <si>
+    <t>[p. 88 rr. 4-6 «Or, là où il faut plus de bras pour donner le même produit, le superflu doit être nécessairement moindre»]</t>
+  </si>
+  <si>
+    <t>Et c’est la contraire</t>
+  </si>
+  <si>
+    <t>[p. 104 rr. 32-33 «des esclaves faisaient ses travaux; […]»]</t>
+  </si>
+  <si>
+    <t>[p. 105 rr. 19-21 «Je n’entends poit par tout cela qu’il faille avoir des esclaves, ni que le droit d’esclavage soit légitime, puisque j’hai prouvé le contraire: […]»]</t>
+  </si>
+  <si>
+    <t>Nota di possesso autografa in data 02.1905.</t>
+  </si>
+  <si>
+    <t>Nota di possesso autografa in data 08.1915                   Edolo.</t>
+  </si>
+  <si>
+    <t>Nota di possesso autografa di Enrico Gadda in data 25.01.1918 Gallarate.</t>
+  </si>
+  <si>
+    <t>Nota di possesso autografa di Carlo Lehr.</t>
+  </si>
+  <si>
+    <t>[p. 32 rr. 6-11 «La guerra troiana quindi rappresenta quasi la prima crociata che l'Occidente europeo conducesse contro l'Oriente asiatico. E l'unico eroe che si salva dalla caduta di Troia, Enea, quantunque sia il pius Aeneas, l'Enea religioso e amato dagli dei, soltanto sul suolo latino può trovare una nuova patria dopo aver placata e pacificata la collera dell'offesa Giunone.»]</t>
+  </si>
+  <si>
+    <t>banale sciocco</t>
+  </si>
+  <si>
+    <t>[p. 32 rr. 20-23 «I Greci avevano sempre la sensazione che il mondo orientale, il quale anche politicamente rappresentava per loro la minaccia più grave, fosse qualcosa di diverso e d'estraneo. Essi divennero più vivamente consapevoli di questa antitesi durante le guerre persiane»]</t>
+  </si>
+  <si>
+    <t>[p. 33 rr. 12-18 «Qui stanno di fronte, proprio come esatta espressione simbolica, da una parte Cleopatra, la precisa immagine dell'Oriente raffinato e degenerato, con alle sue dipendenze il generale romano Antonio, Cleopatra che comanda solo su masse di schiavi; dall'altro lato Ottaviano Cesare Augusto, le cui aquile legionarie romane hanno assunto l'eredità dei guerrieri di Maratona.»]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vero </t>
+  </si>
+  <si>
+    <t>[p. 36 rr. 7-14 «E così il passato era di continuo riassorbito nel mito e nel suo eterno ritorno. Ma la storia esiste soltanto là dove viene spezzato il circolo dei fatti naturali, che sempre si ripetono; dove accade qualche cosa che avviene solo una volta, cioè in un tempo irreversibile; quando l'uomo è interamente uomo, vale a dire allorché egli non è più soltanto un essere naturale; quando egli ha spezzata la sua congiunzione col mondo mitico degli dei; quando viene tolta di mezzo la quiete e subentra il moto reale»]</t>
+  </si>
+  <si>
+    <t>vero profondo</t>
+  </si>
+  <si>
+    <t>[p. 39 rr. 21-24 «Trovare, nell'ambito di questo Umanesimo, l'uomo di Stato provvisto di cultura classica, non è un caso eccezionale ma una regola costante, quand'anche questa cultura, specialmente tra i popoli rimanici, si volatilizzi in cultura esclusivamente rettorica.»]</t>
+  </si>
+  <si>
+    <t>? | adugia bischero</t>
+  </si>
+  <si>
+    <t>[p. 41 rr. 7-9 «Dum conderet urbem/ inferretque deos Latio, genus unde/ Albanique patres atque altae moenia Romae»]</t>
+  </si>
+  <si>
+    <t>latinum</t>
+  </si>
+  <si>
+    <t>[p. 41 rr. 14-17 «Haecker ha riscoperto nell'essenza della poesia di Viriglio quell'elemento profetico, quel presentimento d'un avvento che già mosse Dante a scegliere Virgilio per guida attraverso i mondi dell'al di là»]</t>
+  </si>
+  <si>
+    <t>[p. 44 rr. 10-15 «Ma Paolo non colloca questo Dio in un'assoluta e insormontabile trascendenza, secondo la maniera con cui lo concepisce il Vecchio Testamento, bensì cerca di gettare un ponte verso il panteismo degli Stoici e l'idea dell'immanenza dei Greci e del loro mito, giacché “in lui viviamo, ci moviamo e siamo”.»]</t>
+  </si>
+  <si>
+    <t>C&lt;ristianesimo&gt;</t>
+  </si>
+  <si>
+    <t>[p. 48 rr. 22-26 «Il Cristianesimo di Harnack, che egli vorrebbe separare nettamente dall'Ellenismo, non è mai esistito. Già quando Paolo si presentava ai filosofi sull'Areopago, veniva esteriormente proclamato con tutta solennità il diritto ereditario che il Cristianesimo testé nato pretendeva sulla sapienza antica;»]</t>
+  </si>
+  <si>
+    <t>[p. 49 rr. 22-27 «Alla domanda di Tertulliano che cosa vi sia dunque di comune tra i filosofi della Grecia, i profeti dell'Antico Patto e gli apostoli, il filosofo francese Etienne Gilson ga alcuni anni fa in nome della dottrina tomistica così risposto “L'uomo. L'uomo, quella inseparabile unità di corpo ed anima, che certo sena il Cristianesimo non poteva salvarsi, ma senza del quale anche il Cristianesimo non avrebbe trovato nulla da salvare.»]</t>
+  </si>
+  <si>
+    <t>[p. 50 rr. 5-13 «La filosofia degli antichi non è per il Cristianesimo alcunché di storicamente casuale, qualcosa d'aggiunto come mera sovrapposizione esteriore e che avrebbe potuto altrettanto bene anche non esserci; bensì essa possiede per il Cristianesimo un carattere provvidenziale. E l'affacciarsi d'una nuova e moderna filosofia non ha scosso questo carattere provvidenziale, ma l'ha anzi raffermato.»]</t>
+  </si>
+  <si>
+    <t>C&lt;ristianesimo&gt; | C&lt;ristianesimo&gt;</t>
+  </si>
+  <si>
+    <t>[p. 51 rr. 4-7 «Il bìos theoretikòs, la vita contemplativa, cioè della riflessione intellettuale, ebbe sempre, per loro, la prevalenza sul bìos politikòs, sulla vita delle occipazioni, degli affari, delle opere»]</t>
+  </si>
+  <si>
+    <t>[p. 51 rr. 15-21 «Sarebbe una concezione errrata ritenere che i Greci avrebbero dovuto essere infedeli al loro principio di investigazione indipendente della verità accogliendo il Cristianesimo e sottoponendosi all'autorità della Chiesa. Bastava invece che essi rimanessero fedeli a se stessi e continuassero a procedere col pensiero sul binario della loro filosofia, per rendersi, per così dire, maturi per la rivelazione cristiana.»]</t>
+  </si>
+  <si>
+    <t>[p. 51 rr. 23-25 «La metodica preparazione dell'Umanesimo cristiano mediante la fusione della filosofia antica con la teologia cristiana che stava nascendo, avvenne nella Patristica.»]</t>
+  </si>
+  <si>
+    <t>[p. 53 rr. 10-14 «[...] l'antichità pagana impallidisce, muore, fiaccata dalla sensazione che i suoi ideali non avevano più né avvenire né speranze. Essa non ha più prodotto (ad eccezione di Plotino) che stelle di terzo e quart'ordine, e tutti i suoi ultimi retori e filosofi, [...]»]</t>
+  </si>
+  <si>
+    <t>[p. 17-19 «Non appena s'allenta la stretta delle persecuzioni, la bellezza e l'eleganza della lingua, la chiarezza dell'esposizione, l'ampiezza della cultura si ritrovano anche nei Padri cristiani; [...]»]</t>
+  </si>
+  <si>
+    <t>? | Piuttosto: dopo maturazione e imitazione dell'avversario</t>
+  </si>
+  <si>
+    <t>[p. 53 rr. 27-30 «Giacché la cristologia dell'Oriente e l'antropologia dell'Occidente si incontrano su questo punto, che esse presuppongono un doppio ordine dell'Essere, quello della natura e quello della sopranatura»]</t>
+  </si>
+  <si>
+    <t>[p. 54 rr. 17-22 «Questa convinzione trovò un'espressione quasi dogmatica nella dottrina del “Logos spermatikos” di Clemente d'Alessandria. Secondo essa Dio si è manifesto non solo presso il popolo ebraico nel Vecchio Testamento, ma il Logos come sapienza divina è stato dalla creazione in poi distribuito a tutto il mondo in semi, […] »]</t>
+  </si>
+  <si>
+    <t>[p. 56 rr. 11-14 «Ma, in proposito, già Platone aveva denunciato l' “immortalità” delle favole omeriche circa gli dei e perciò bandito Omero nella sua scuola; e non parliamo dello schernitore Luciano»]</t>
+  </si>
+  <si>
+    <t>! | lascialo fare</t>
+  </si>
+  <si>
+    <t>[p. 56 rr. 15-18 «Contro questo tentativo romantico di restaurazione, il Cristianesimo quindi tenne fermo, con tutta la sua forza, non solo a leggere i suoi scritti, cosa che non gli si contestava, ma altresì a considerare come suoi propri gli scritti degli antichi.»]</t>
+  </si>
+  <si>
+    <t>C&lt;ristianesimo&gt; | esagera</t>
+  </si>
+  <si>
+    <t>[p. 70 rr. 1-7 «[...] gli uomini c'era quel posto che i Greci avevano scoperto. E come non v'era posto per l'omo, non v'era neppure per tutto ciò che da secoli era scaturito dall'idea greco-romana dell'uomo: una Polis ordinata secondo leggi o un Imperium del diritto, una scienza che procede nelle sue investigazioni su basi concettuali, un'etica che distingue il bene e il male, un'arte della misura e della bellezza, una vita di saggezza e padronanza di sè»]</t>
+  </si>
+  <si>
+    <t>[p. 70 rr. 19-22 «Quello che Tertulliano rimproverava alla filosofia greca, lo spirito della dialettica e il primato del sapere sopra la fede, questo, e appunto questo la teologia orientale lo ha preso dalla Gnosi»]</t>
+  </si>
+  <si>
+    <t>vuol dire i padri della chiesa greca</t>
+  </si>
+  <si>
+    <t>[p. 72 rr. 10-12 «Fino a quel punto gli Alessandrini nel loro dibattito con lo Gnosticismo difendessero anche l'eredità spirituale della Grecia, [...]»]</t>
+  </si>
+  <si>
+    <t>Qual</t>
+  </si>
+  <si>
+    <t>[p. 86 rr. 4-12 «“Coloro che dapprima usarono la parola Rinascenza e l'idea su cui essa si fonda, non intendevano con ciò la restaurazione dell'antichità romana. Non la riviviscenza d'alcunché di morto, d'una civiltà morta, non la reintegrazione d'un mondo distrutto. Invece essi pensavano a sé, il proprio io, alla propria vita presente, alla restaurazione umana loro propria, il rinnovamento dell'umanità. Essi facevano capo al noto concetto cristiano, che a noi tutti è stato reso familiare dalle lettere paoline, come anche dal dogma del sacramento del battesimo e della penitenza.»]</t>
+  </si>
+  <si>
+    <t>in parte errato testimonianze contrarie</t>
+  </si>
+  <si>
+    <t>[p. 87 rr. 18-21 «E' il medesimo atteggiamento spirituale che anche il Paganesimo antico conosceva nei suoi misteri orfici, elusini e dionisiaci e nei suoi grandi tentativi filosofici di rinnovamento, da Pitagora attraverso Platone sino a Plotino.»]</t>
+  </si>
+  <si>
+    <t>[p. 88 rr- 1-2 «[...] e cioè, tenuto conto della quasi completa unità spirituale dei suoi periodi, criteri formali»]</t>
+  </si>
+  <si>
+    <t>[p. 89 rr. 1-3 «Il Petrarca è umanista cristiano e come tale sta in aperto contrasto con la Scolastica medioevale, [...]»]</t>
+  </si>
+  <si>
+    <t>[p. 89 rr. 8-10 «Per il Petrarca, influenzato in ciò da Agostino, è Platone che possiede l'idea di Dio più conforme al Cristianesimo.»]</t>
+  </si>
+  <si>
+    <t>[p. 93 rr. 1-16 «Nessuna meraviglia quindi che già nello scolaro di entrambi quelli, in Marsilio Ficino, tale filosofia neoplatonica, nonostante il superamento delle pastoie dogmatiche e del formalismo scolastico, tendesse ad una restaurazione scolastica e nulla più. Walter Dress, nel suo penetrante scritto “La mistica di Marsilio Ficino” (Berlino, 1929), giunge alla conclusione che la filosofia del Rinascimento, specie in Ficino si manifesta, in sostanza, quale teologia orientata in senso scolastico. E ugualmete giudica Ernesto Cassirer nella sua opera “Individuo e Cosmo nella filosofia del Rinascimento”. “La filosofia del Quattrocento è e rimane, proprio nelle sue produzioni più significative e feconde, essenzialmente teologia”. Anzi in questo fondamento platonico si palesa non solo un atteggiamento essenziale completamente conservatore, ma altresì una tendenza apologetica chiaramente avvertibile.»]</t>
+  </si>
+  <si>
+    <t>[p. 97 rr. 5-9 «Il concetto del superuomo intellettualmente consapevole, col suo quasi isterico orrore per la pietà e per la sollecitudine per gli altri, orrore che per Nietzsche costituisce il rovescio dei suoi affetti, era estraneo alla Rinascenza anche nelle sue forme pagane.»]</t>
+  </si>
+  <si>
+    <t>[p. 105 rr. 2-8 «Non già un segno di maturità, ma una poco illuminata fanciullagine era, per es., il Paganesimo della Rinascenza, dal quale però le figure rappresentative sono libere: il far pompa di audacie pagane, la passione per esteriorità antiche, lo scerno orgoglioso circa la Chiesa e la reliogione, le eresie da salotto, la singolare mescolanza di libero pensiero e superstizione insensata»]</t>
+  </si>
+  <si>
+    <t>? | questi fatti non sono così “insensati” hanno un valore di reazione estetica e gnoseologica, oltreché sentimentale</t>
+  </si>
+  <si>
+    <t>[p. 106 rr. 19-25 «Mentre la scolastica della fase più antica aveva circoscritto il suo Umanesimo e il suo accordo con la filosofia antica al solo filosofo Aristotele, ora per la prima volta si concepisce veramente il pensiero d'un'effettiva philosophia perennis, d'un'unità spirituale della razza umana che comprende i diversi popoli, epoche, religioni. In Marsilio Ficino, Mosè e Zoroastro costituiscono, collocati alla pari sullo stesso piano, il principio d'ogni filosofia.»]</t>
+  </si>
+  <si>
+    <t>[p. 110 rr. 17-18 «Considerato Lutero soltanto nei suoi rapporti con l'Umanesimo sarebbe applicare un criterio sbagliato»]</t>
+  </si>
+  <si>
+    <t>Re</t>
+  </si>
+  <si>
+    <t>[p. 112 rr. 10-13 «E precisamente non già in base alla sua onniscenza, giacché egli previde le colpe di essa, ma solo perhcé egli vuole così, onde manifestare con ciò la sia grandezza e maestà»]</t>
+  </si>
+  <si>
+    <t>in quanto egli preveda</t>
+  </si>
+  <si>
+    <t>[p. 116 rr. 10-13 «L'anima non ha affatto una congiunzione naturale e necessaria col corpo, nel quale essa, in quanto ente derivante dal mondo interamente diverso della purezza e della luce, sta imprigioata»]</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>[p. 120 rr. 15-21 «Qui soltanto viene chiaramente in luce l'ultima conseguenza del concetto di Dio della Riforma la conseguenza per cui Dio è concepito quale il radicalmente Altro, separato dall'uomo e dal mondo mediante un abisso spalancato di terrificante maestà. Qui si opera la definitiva rinuncia alla dottrina antico-medioevale della analogia entis, della somiglianza e partecipazione del finito all'infinito, della imago Dei nell'uomo»]</t>
+  </si>
+  <si>
+    <t>[p. 120 rr. 25-28 «Qui viene anche di nuovo in luce la funesta funzione della dialettica, che con una presa di posizione estremista vuole sottilizzare acutamente tutto e alla fine resta presa in contraddizioni insormontabili.»]</t>
+  </si>
+  <si>
+    <t>[p. 121 r. 5 «In realtà egli non appariene a nessuno, [...]»]</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>[p. 128 rr. 24-30 «Per l'umanista cristiano in seguito alla sua educazione formata sui grandi modelli dell'antichità, è cosa di importanza essenziale la capacità di poter e voler dovunque scorgere in prima linea l'elemento positivo e di valore tanto nell'uomo quanto nelle manifestazioni spirituali. Ciò non significa indifferenza e indecisione circa le questioni fondamentali, ma fiducia nell'efficacia dell'azione del Logos nel mondo.»]</t>
+  </si>
+  <si>
+    <t>[p. 129 rr. 4-9 «Invece l'umanista cristiano non perde di vista, nemmeno nel caos del presente, la bellezza e l'armonia della vita e il fatto che essa ha un senso e possiede un carattere spirituale.»]</t>
+  </si>
+  <si>
+    <t>[p. 130 rr. 9-14 «Ma anche questa sfera è di Dio. E mediante l'arcana connessione di natura e grazia, la quale sta in ciò che la natura è il presupposto della grazia e che la grazia non toglie di mezzo né distrugge l'ordine naturale, ma lo santifica e consacra, anche il comportamento filosofico, pieno di riservatezza, dell'umanista cristiano è in ultima istanza orientato verso Dio.»]</t>
+  </si>
+  <si>
+    <t>[p. 130 rr. 17-20 «Egli non chiude gli occhi al fatto che negli accadimenti della storia operano sempre forze irrazionali e che il corso della storia è tutt'altro che un processo razionale»]</t>
+  </si>
+  <si>
+    <t>ed Hegel?</t>
+  </si>
+  <si>
+    <t>[p. 131 rr. 12-16 «Lo spirito, le capacità intellettuali sono in lui più sviluppati che non la volontà e la forza di decisione. Già il fatto di occuparsi dell'antichità richiede una buona dose di atteggiamento disinteressato, un temperamento contemplativo, una tranquilla obbiettività»]</t>
+  </si>
+  <si>
+    <t>[p. 132 rr. 3-5 «Non avvengono in lui conversioni improvvise, non gli si pare davanti la via per Damasco, ma c'è invece uno sviluppo ininterrotto.»]</t>
+  </si>
+  <si>
+    <t>[p. 132 rr. 19-21 «Nella santità si fa palese un ordine sovratemporale che trionfa, trasfigurandolo, su ogni elemento vitale e sulla soggezione alla morte.»]</t>
+  </si>
+  <si>
+    <t>[p. 134 rr. 1-4 «[...] con l'umiltà di fronte a Dio, e non ha niente di comune con la tracotanza e l'alterigia, le quali volentieri fanno appello a una predestinazione soprannaturale e costituiscono i peccati tipici dei farisei di tutte le confessioni e di tutte le filosofie»]</t>
+  </si>
+  <si>
+    <t>[p. 139 rr. 12-20 «Essa trascura di notare che per questo interno e giudizioso bilanciamento occorre anche forza e fermezza, non già, è vero, la forza della natura selvaggia e titanica, ma quella della forma e dell'ordine. L'umanista cristiano non vuole trovarsi avvolto dal caos, non approva la sfrenata ebberezza del sentimento, il suo ritorno alla natura non è lo scatenarsi di tutti gli impulsi geniali e del fermento demonico, bensì per lui la natura è fin dal principio una “natura formata”, una natura che ha appunto bella misura, equilibrio e forma»]</t>
+  </si>
+  <si>
+    <t>[p. 140 rr. 1-3 «[...] fecondarsi a vicenda, e non richiudersi in sé stessi. Un'Europa in cui la gioiosa forza del presente si impadronisca del tesoro del passato»]</t>
+  </si>
+  <si>
+    <t>[p. 144 r. 10-15 «Nell'uomo abbiamo dinanzi una formazione estremamente complessa: egli non è soltanto essere vivente, ma anche essere sociale; non è solo il grado più alto del regno dei mammiferi ma è anche veicolo dello spirito; non è condizionato soltanto dalla razza e dall'eredità, ma anche dalla tradizione della storia e dall'influsso del mondo circostante»]</t>
+  </si>
+  <si>
+    <t>[p. 148 rr. 3-9 «Egli opina di poter vincere quest'ultimo, solo se non fugge dinanzi ad esso. Anche la tenebra, l'impulsività, l'incatenamento alla terra, la pesantezza, l'elemento demonico, la scissura, lo spezzarsi sono propri dell'uomo. Non è già perché la debolezza, la stupidità, la malvagità umana ci tormentano che noi soffriamo sotto di esse, ma perché siamo costretti a sentire l'altrui colpa, mancanza, bassezza come nostra propria colpa.»]</t>
+  </si>
+  <si>
+    <t>[p. 149 rr. 4-7 «Questo amore affermativo per l'uomo non si dirige ad una qualsiasi immagine ideale dell'uomo romanticamente stilizzata, ma all'uomo anche nella sua debolezza, miseria, imperfezione.»]</t>
+  </si>
+  <si>
+    <t>[p. 149 rr. 28-30 «Giacché questo processo non si effettua soltanto con necessità naturale e fatale, ma in esso sono anche operanti la libertà umana, la decisione umana e la volontà umana di affermazione di sé»]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C&lt;ristianesimo&gt; </t>
+  </si>
+  <si>
+    <t>Nota di possesso autografa in data 1949.</t>
+  </si>
+  <si>
+    <t>[p. 42 rr. 18-19 «Le duc d’Orléans avait encore sa mère, Madame la princesse Palatine, qui ne mourunt qu’en 1622»]</t>
+  </si>
+  <si>
+    <t>Nota di possesso Gadda 4.10.1921.</t>
+  </si>
+  <si>
+    <t>Dedica dell’autore in data 9.10.1950.</t>
+  </si>
+  <si>
+    <t>Dedica dell’autore in data 9.5.1966.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dedica dell’autore in data 13.7.1954. </t>
+  </si>
+  <si>
+    <t>Dedica dell’autore in data 6.11.1945.</t>
+  </si>
+  <si>
+    <t>A. Gadda Lehr</t>
+  </si>
+  <si>
+    <t>[p. 26 margine sinistro]</t>
+  </si>
+  <si>
+    <t>Sigfrido</t>
   </si>
 </sst>
 </file>
@@ -5522,7 +6173,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -5546,6 +6197,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -5860,11 +6512,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136E0D60-51E6-464F-AE7B-AB655C9FB227}">
-  <dimension ref="A1:F1228"/>
+  <dimension ref="A1:F1394"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1227" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1228" sqref="D1228"/>
+      <pane ySplit="1" topLeftCell="A1392" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F1394" sqref="F1394"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="43.21875" defaultRowHeight="58.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -18331,6 +18983,1682 @@
         <v>51</v>
       </c>
     </row>
+    <row r="1229" spans="1:3" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1229" s="8">
+        <v>2167</v>
+      </c>
+      <c r="C1229" s="3" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:3" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1230" s="8">
+        <v>2177</v>
+      </c>
+      <c r="B1230" s="3" t="s">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:3" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1231" s="8">
+        <v>2178</v>
+      </c>
+      <c r="B1231" s="3" t="s">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:3" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1232" s="8">
+        <v>2179</v>
+      </c>
+      <c r="B1232" s="3" t="s">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1233" s="8">
+        <v>2185</v>
+      </c>
+      <c r="C1233" s="3" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1234" s="8">
+        <v>2188</v>
+      </c>
+      <c r="F1234" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1235" s="8">
+        <v>2198</v>
+      </c>
+      <c r="B1235" t="s">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1236" s="8">
+        <v>2203</v>
+      </c>
+      <c r="B1236" s="3" t="s">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1237" s="8">
+        <v>2212</v>
+      </c>
+      <c r="B1237" s="3" t="s">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1238" s="8">
+        <v>2214</v>
+      </c>
+      <c r="C1238" s="3" t="s">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1239" s="8">
+        <v>2216</v>
+      </c>
+      <c r="D1239" t="s">
+        <v>1779</v>
+      </c>
+      <c r="E1239" t="s">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1240" s="8">
+        <v>2216</v>
+      </c>
+      <c r="D1240" t="s">
+        <v>1781</v>
+      </c>
+      <c r="E1240" s="1" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1241" s="8">
+        <v>2216</v>
+      </c>
+      <c r="D1241" t="s">
+        <v>1783</v>
+      </c>
+      <c r="E1241" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1242" s="8">
+        <v>2216</v>
+      </c>
+      <c r="D1242" t="s">
+        <v>1785</v>
+      </c>
+      <c r="E1242" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1243" s="8">
+        <v>2216</v>
+      </c>
+      <c r="D1243" t="s">
+        <v>1786</v>
+      </c>
+      <c r="E1243" t="s">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1244" s="8">
+        <v>2216</v>
+      </c>
+      <c r="D1244" t="s">
+        <v>1788</v>
+      </c>
+      <c r="E1244" t="s">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1245" s="8">
+        <v>2216</v>
+      </c>
+      <c r="D1245" t="s">
+        <v>1790</v>
+      </c>
+      <c r="E1245" s="1" t="s">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1246" s="8">
+        <v>2216</v>
+      </c>
+      <c r="D1246" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E1246" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1247" s="8">
+        <v>2216</v>
+      </c>
+      <c r="D1247" t="s">
+        <v>1794</v>
+      </c>
+      <c r="E1247" t="s">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1248" s="8">
+        <v>2216</v>
+      </c>
+      <c r="D1248" t="s">
+        <v>1796</v>
+      </c>
+      <c r="E1248" t="s">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1249" s="8">
+        <v>2216</v>
+      </c>
+      <c r="D1249" t="s">
+        <v>1798</v>
+      </c>
+      <c r="E1249" t="s">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1250" s="8">
+        <v>2216</v>
+      </c>
+      <c r="D1250" t="s">
+        <v>1800</v>
+      </c>
+      <c r="E1250" t="s">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1251" s="8">
+        <v>2216</v>
+      </c>
+      <c r="D1251" t="s">
+        <v>1802</v>
+      </c>
+      <c r="E1251" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1252" s="8">
+        <v>2216</v>
+      </c>
+      <c r="D1252" t="s">
+        <v>1804</v>
+      </c>
+      <c r="E1252" t="s">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1253" s="8">
+        <v>2216</v>
+      </c>
+      <c r="D1253" t="s">
+        <v>1806</v>
+      </c>
+      <c r="E1253" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1254" s="8">
+        <v>2216</v>
+      </c>
+      <c r="D1254" t="s">
+        <v>1808</v>
+      </c>
+      <c r="E1254" t="s">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1255" s="8">
+        <v>2216</v>
+      </c>
+      <c r="D1255" t="s">
+        <v>1810</v>
+      </c>
+      <c r="E1255" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1256" s="8">
+        <v>2216</v>
+      </c>
+      <c r="D1256" t="s">
+        <v>1811</v>
+      </c>
+      <c r="E1256" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1257" s="8">
+        <v>2216</v>
+      </c>
+      <c r="D1257" t="s">
+        <v>1812</v>
+      </c>
+      <c r="E1257" s="1" t="s">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1258" s="8">
+        <v>2220</v>
+      </c>
+      <c r="C1258" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1259" s="8">
+        <v>2226</v>
+      </c>
+      <c r="C1259" s="3" t="s">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1260" s="8">
+        <v>2227</v>
+      </c>
+      <c r="D1260" t="s">
+        <v>1815</v>
+      </c>
+      <c r="E1260" s="1" t="s">
+        <v>1816</v>
+      </c>
+      <c r="F1260" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1261" s="8">
+        <v>2227</v>
+      </c>
+      <c r="D1261" t="s">
+        <v>1817</v>
+      </c>
+      <c r="E1261" s="1" t="s">
+        <v>1818</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1262" s="8">
+        <v>2227</v>
+      </c>
+      <c r="D1262" t="s">
+        <v>1819</v>
+      </c>
+      <c r="E1262" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1263" s="8">
+        <v>2227</v>
+      </c>
+      <c r="D1263" t="s">
+        <v>1820</v>
+      </c>
+      <c r="E1263" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1264" s="8">
+        <v>2228</v>
+      </c>
+      <c r="B1264" s="3" t="s">
+        <v>1821</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1265" s="8">
+        <v>2238</v>
+      </c>
+      <c r="C1265" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1266" s="8">
+        <v>2245</v>
+      </c>
+      <c r="B1266" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1267" s="8">
+        <v>2247</v>
+      </c>
+      <c r="C1267" s="3" t="s">
+        <v>1822</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1268" s="8">
+        <v>2248</v>
+      </c>
+      <c r="C1268" s="3" t="s">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1269" s="8">
+        <v>2249</v>
+      </c>
+      <c r="C1269" s="3" t="s">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1270" s="8">
+        <v>2251</v>
+      </c>
+      <c r="B1270" s="3" t="s">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1271" s="8">
+        <v>2253</v>
+      </c>
+      <c r="C1271" s="3" t="s">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1272" s="8">
+        <v>2255</v>
+      </c>
+      <c r="C1272" s="3" t="s">
+        <v>1827</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1273" s="8">
+        <v>2256</v>
+      </c>
+      <c r="C1273" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1274" s="8">
+        <v>2268</v>
+      </c>
+      <c r="B1274" t="s">
+        <v>1828</v>
+      </c>
+      <c r="D1274" t="s">
+        <v>1829</v>
+      </c>
+      <c r="E1274" t="s">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1275" s="8">
+        <v>2268</v>
+      </c>
+      <c r="D1275" t="s">
+        <v>1831</v>
+      </c>
+      <c r="E1275" t="s">
+        <v>1832</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1276" s="8">
+        <v>2268</v>
+      </c>
+      <c r="D1276" t="s">
+        <v>1833</v>
+      </c>
+      <c r="E1276" t="s">
+        <v>1834</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1277" s="8">
+        <v>2268</v>
+      </c>
+      <c r="D1277" t="s">
+        <v>1835</v>
+      </c>
+      <c r="E1277" t="s">
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1278" s="8">
+        <v>2268</v>
+      </c>
+      <c r="D1278" t="s">
+        <v>1837</v>
+      </c>
+      <c r="E1278" t="s">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1279" s="8">
+        <v>2268</v>
+      </c>
+      <c r="D1279" t="s">
+        <v>1839</v>
+      </c>
+      <c r="E1279" t="s">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1280" s="8">
+        <v>2268</v>
+      </c>
+      <c r="D1280" t="s">
+        <v>1841</v>
+      </c>
+      <c r="E1280" t="s">
+        <v>1842</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1281" s="8">
+        <v>2268</v>
+      </c>
+      <c r="D1281" t="s">
+        <v>1843</v>
+      </c>
+      <c r="E1281" t="s">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1282" s="8">
+        <v>2268</v>
+      </c>
+      <c r="D1282" t="s">
+        <v>1845</v>
+      </c>
+      <c r="E1282" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1283" s="8">
+        <v>2268</v>
+      </c>
+      <c r="D1283" t="s">
+        <v>1847</v>
+      </c>
+      <c r="E1283" t="s">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1284" s="8">
+        <v>2268</v>
+      </c>
+      <c r="D1284" t="s">
+        <v>1849</v>
+      </c>
+      <c r="E1284" t="s">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1285" s="8">
+        <v>2268</v>
+      </c>
+      <c r="D1285" t="s">
+        <v>1851</v>
+      </c>
+      <c r="E1285" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1286" s="8">
+        <v>2268</v>
+      </c>
+      <c r="D1286" t="s">
+        <v>1853</v>
+      </c>
+      <c r="E1286" s="11">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1287" s="8">
+        <v>2268</v>
+      </c>
+      <c r="D1287" t="s">
+        <v>1854</v>
+      </c>
+      <c r="E1287" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1288" s="8">
+        <v>2268</v>
+      </c>
+      <c r="D1288" t="s">
+        <v>1856</v>
+      </c>
+      <c r="E1288" t="s">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1289" s="8">
+        <v>2268</v>
+      </c>
+      <c r="D1289" t="s">
+        <v>1858</v>
+      </c>
+      <c r="E1289" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1290" s="8">
+        <v>2268</v>
+      </c>
+      <c r="D1290" t="s">
+        <v>1860</v>
+      </c>
+      <c r="E1290" t="s">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1291" s="8">
+        <v>2268</v>
+      </c>
+      <c r="D1291" t="s">
+        <v>1862</v>
+      </c>
+      <c r="E1291" t="s">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1292" s="8">
+        <v>2268</v>
+      </c>
+      <c r="D1292" t="s">
+        <v>1864</v>
+      </c>
+      <c r="E1292" t="s">
+        <v>1865</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1293" s="8">
+        <v>2268</v>
+      </c>
+      <c r="D1293" t="s">
+        <v>1866</v>
+      </c>
+      <c r="E1293" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1294" s="8">
+        <v>2268</v>
+      </c>
+      <c r="D1294" t="s">
+        <v>1868</v>
+      </c>
+      <c r="E1294" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1295" s="8">
+        <v>2268</v>
+      </c>
+      <c r="D1295" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E1295" t="s">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1296" s="8">
+        <v>2268</v>
+      </c>
+      <c r="D1296" t="s">
+        <v>1872</v>
+      </c>
+      <c r="E1296" t="s">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1297" s="8">
+        <v>2268</v>
+      </c>
+      <c r="D1297" t="s">
+        <v>1874</v>
+      </c>
+      <c r="E1297" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1298" s="8">
+        <v>2268</v>
+      </c>
+      <c r="D1298" t="s">
+        <v>1876</v>
+      </c>
+      <c r="E1298" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1299" s="8">
+        <v>2268</v>
+      </c>
+      <c r="D1299" t="s">
+        <v>1878</v>
+      </c>
+      <c r="E1299" t="s">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1300" s="8">
+        <v>2268</v>
+      </c>
+      <c r="D1300" t="s">
+        <v>1880</v>
+      </c>
+      <c r="E1300" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1301" s="8">
+        <v>2274</v>
+      </c>
+      <c r="B1301" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1302" s="8">
+        <v>2275</v>
+      </c>
+      <c r="B1302" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1303" s="8">
+        <v>2293</v>
+      </c>
+      <c r="C1303" s="3" t="s">
+        <v>1882</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1304" s="8">
+        <v>2297</v>
+      </c>
+      <c r="B1304" s="1" t="s">
+        <v>1883</v>
+      </c>
+      <c r="F1304" s="1" t="s">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1305" s="8">
+        <v>2299</v>
+      </c>
+      <c r="B1305" s="3" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1306" s="8">
+        <v>2316</v>
+      </c>
+      <c r="C1306" s="3" t="s">
+        <v>1885</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1307" s="8">
+        <v>2318</v>
+      </c>
+      <c r="C1307" s="3" t="s">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1308" s="8">
+        <v>2333</v>
+      </c>
+      <c r="B1308" s="3" t="s">
+        <v>1887</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1309" s="8">
+        <v>2334</v>
+      </c>
+      <c r="B1309" s="3" t="s">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1310" s="8">
+        <v>2347</v>
+      </c>
+      <c r="C1310" s="3" t="s">
+        <v>1889</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1311" s="8">
+        <v>2348</v>
+      </c>
+      <c r="C1311" s="1" t="s">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1312" s="8">
+        <v>2354</v>
+      </c>
+      <c r="C1312" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1313" s="8">
+        <v>2360</v>
+      </c>
+      <c r="C1313" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1314" s="8">
+        <v>2364</v>
+      </c>
+      <c r="C1314" s="3" t="s">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1315" s="8">
+        <v>2374</v>
+      </c>
+      <c r="B1315" s="3" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1316" s="8">
+        <v>2381</v>
+      </c>
+      <c r="C1316" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1317" s="8">
+        <v>2382</v>
+      </c>
+      <c r="C1317" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1318" s="8">
+        <v>2387</v>
+      </c>
+      <c r="F1318" s="3" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1319" s="8">
+        <v>2389</v>
+      </c>
+      <c r="C1319" s="3" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1320" s="8">
+        <v>2393</v>
+      </c>
+      <c r="D1320" t="s">
+        <v>1894</v>
+      </c>
+      <c r="E1320" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1321" s="8">
+        <v>2393</v>
+      </c>
+      <c r="D1321" t="s">
+        <v>1895</v>
+      </c>
+      <c r="E1321" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1322" s="8">
+        <v>2393</v>
+      </c>
+      <c r="D1322" t="s">
+        <v>1896</v>
+      </c>
+      <c r="E1322" t="s">
+        <v>1897</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1323" s="8">
+        <v>2393</v>
+      </c>
+      <c r="D1323" t="s">
+        <v>1898</v>
+      </c>
+      <c r="E1323" t="s">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1324" s="8">
+        <v>2393</v>
+      </c>
+      <c r="D1324" t="s">
+        <v>1900</v>
+      </c>
+      <c r="E1324" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1325" s="8">
+        <v>2393</v>
+      </c>
+      <c r="D1325" t="s">
+        <v>1901</v>
+      </c>
+      <c r="E1325" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1326" s="8">
+        <v>2394</v>
+      </c>
+      <c r="B1326" s="3" t="s">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1327" s="8">
+        <v>2397</v>
+      </c>
+      <c r="B1327" s="3" t="s">
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1328" s="8">
+        <v>2399</v>
+      </c>
+      <c r="B1328" s="3" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1329" s="8">
+        <v>2408</v>
+      </c>
+      <c r="B1329" s="3" t="s">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1330" s="8">
+        <v>2409</v>
+      </c>
+      <c r="B1330" s="3" t="s">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1331" s="8">
+        <v>2411</v>
+      </c>
+      <c r="D1331" t="s">
+        <v>1906</v>
+      </c>
+      <c r="E1331" t="s">
+        <v>1907</v>
+      </c>
+      <c r="F1331" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1332" s="8">
+        <v>2411</v>
+      </c>
+      <c r="D1332" t="s">
+        <v>1908</v>
+      </c>
+      <c r="E1332" s="1" t="s">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1333" s="8">
+        <v>2411</v>
+      </c>
+      <c r="D1333" t="s">
+        <v>1909</v>
+      </c>
+      <c r="E1333" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1334" s="8">
+        <v>2411</v>
+      </c>
+      <c r="D1334" t="s">
+        <v>1911</v>
+      </c>
+      <c r="E1334" t="s">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1335" s="8">
+        <v>2411</v>
+      </c>
+      <c r="D1335" t="s">
+        <v>1913</v>
+      </c>
+      <c r="E1335" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1336" s="8">
+        <v>2411</v>
+      </c>
+      <c r="D1336" t="s">
+        <v>1915</v>
+      </c>
+      <c r="E1336" t="s">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1337" s="8">
+        <v>2411</v>
+      </c>
+      <c r="D1337" t="s">
+        <v>1917</v>
+      </c>
+      <c r="E1337" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1338" s="8">
+        <v>2411</v>
+      </c>
+      <c r="D1338" t="s">
+        <v>1918</v>
+      </c>
+      <c r="E1338" s="1" t="s">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1339" s="8">
+        <v>2411</v>
+      </c>
+      <c r="D1339" t="s">
+        <v>1920</v>
+      </c>
+      <c r="E1339" s="1" t="s">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1340" s="8">
+        <v>2411</v>
+      </c>
+      <c r="D1340" t="s">
+        <v>1921</v>
+      </c>
+      <c r="E1340" s="1" t="s">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1341" s="8">
+        <v>2411</v>
+      </c>
+      <c r="D1341" t="s">
+        <v>1922</v>
+      </c>
+      <c r="E1341" s="1" t="s">
+        <v>1923</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1342" s="8">
+        <v>2411</v>
+      </c>
+      <c r="D1342" t="s">
+        <v>1924</v>
+      </c>
+      <c r="E1342" s="1" t="s">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1343" s="8">
+        <v>2411</v>
+      </c>
+      <c r="D1343" t="s">
+        <v>1925</v>
+      </c>
+      <c r="E1343" s="1" t="s">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1344" s="8">
+        <v>2411</v>
+      </c>
+      <c r="D1344" t="s">
+        <v>1926</v>
+      </c>
+      <c r="E1344" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1345" s="8">
+        <v>2411</v>
+      </c>
+      <c r="D1345" t="s">
+        <v>1927</v>
+      </c>
+      <c r="E1345" s="1" t="s">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1346" s="8">
+        <v>2411</v>
+      </c>
+      <c r="D1346" t="s">
+        <v>1928</v>
+      </c>
+      <c r="E1346" t="s">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1347" s="8">
+        <v>2411</v>
+      </c>
+      <c r="D1347" t="s">
+        <v>1930</v>
+      </c>
+      <c r="E1347" s="1" t="s">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1348" s="8">
+        <v>2411</v>
+      </c>
+      <c r="D1348" t="s">
+        <v>1931</v>
+      </c>
+      <c r="E1348" s="1" t="s">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1349" s="8">
+        <v>2411</v>
+      </c>
+      <c r="D1349" t="s">
+        <v>1932</v>
+      </c>
+      <c r="E1349" t="s">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1350" s="8">
+        <v>2411</v>
+      </c>
+      <c r="D1350" t="s">
+        <v>1934</v>
+      </c>
+      <c r="E1350" s="1" t="s">
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1351" s="8">
+        <v>2411</v>
+      </c>
+      <c r="D1351" t="s">
+        <v>1936</v>
+      </c>
+      <c r="E1351" s="1" t="s">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1352" s="8">
+        <v>2411</v>
+      </c>
+      <c r="D1352" t="s">
+        <v>1937</v>
+      </c>
+      <c r="E1352" t="s">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1353" s="8">
+        <v>2411</v>
+      </c>
+      <c r="D1353" t="s">
+        <v>1939</v>
+      </c>
+      <c r="E1353" t="s">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1354" s="8">
+        <v>2411</v>
+      </c>
+      <c r="D1354" t="s">
+        <v>1941</v>
+      </c>
+      <c r="E1354" t="s">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1355" s="8">
+        <v>2411</v>
+      </c>
+      <c r="D1355" t="s">
+        <v>1943</v>
+      </c>
+      <c r="E1355" s="1" t="s">
+        <v>1923</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1356" s="8">
+        <v>2411</v>
+      </c>
+      <c r="D1356" t="s">
+        <v>1944</v>
+      </c>
+      <c r="E1356" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1357" s="8">
+        <v>2411</v>
+      </c>
+      <c r="D1357" t="s">
+        <v>1945</v>
+      </c>
+      <c r="E1357" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1358" s="8">
+        <v>2411</v>
+      </c>
+      <c r="D1358" t="s">
+        <v>1946</v>
+      </c>
+      <c r="E1358" s="1" t="s">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1359" s="8">
+        <v>2411</v>
+      </c>
+      <c r="D1359" t="s">
+        <v>1947</v>
+      </c>
+      <c r="E1359" s="1" t="s">
+        <v>1923</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1360" s="8">
+        <v>2411</v>
+      </c>
+      <c r="D1360" t="s">
+        <v>1948</v>
+      </c>
+      <c r="E1360" s="1" t="s">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1361" s="8">
+        <v>2411</v>
+      </c>
+      <c r="D1361" t="s">
+        <v>1949</v>
+      </c>
+      <c r="E1361" t="s">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1362" s="8">
+        <v>2411</v>
+      </c>
+      <c r="D1362" t="s">
+        <v>1951</v>
+      </c>
+      <c r="E1362" s="1" t="s">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1363" s="8">
+        <v>2411</v>
+      </c>
+      <c r="D1363" t="s">
+        <v>1952</v>
+      </c>
+      <c r="E1363" s="1" t="s">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1364" s="8">
+        <v>2411</v>
+      </c>
+      <c r="D1364" t="s">
+        <v>1954</v>
+      </c>
+      <c r="E1364" t="s">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1365" s="8">
+        <v>2411</v>
+      </c>
+      <c r="D1365" t="s">
+        <v>1956</v>
+      </c>
+      <c r="E1365" s="1" t="s">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1366" s="8">
+        <v>2411</v>
+      </c>
+      <c r="D1366" t="s">
+        <v>1958</v>
+      </c>
+      <c r="E1366" s="1" t="s">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="1367" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1367" s="8">
+        <v>2411</v>
+      </c>
+      <c r="D1367" t="s">
+        <v>1959</v>
+      </c>
+      <c r="E1367" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1368" s="8">
+        <v>2411</v>
+      </c>
+      <c r="D1368" t="s">
+        <v>1960</v>
+      </c>
+      <c r="E1368" s="1" t="s">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1369" s="8">
+        <v>2411</v>
+      </c>
+      <c r="D1369" t="s">
+        <v>1962</v>
+      </c>
+      <c r="E1369" s="1" t="s">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1370" s="8">
+        <v>2411</v>
+      </c>
+      <c r="D1370" t="s">
+        <v>1963</v>
+      </c>
+      <c r="E1370" s="1" t="s">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1371" s="8">
+        <v>2411</v>
+      </c>
+      <c r="D1371" t="s">
+        <v>1964</v>
+      </c>
+      <c r="E1371" s="1" t="s">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1372" s="8">
+        <v>2411</v>
+      </c>
+      <c r="D1372" t="s">
+        <v>1965</v>
+      </c>
+      <c r="E1372" t="s">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="1373" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1373" s="8">
+        <v>2411</v>
+      </c>
+      <c r="D1373" t="s">
+        <v>1967</v>
+      </c>
+      <c r="E1373" s="1" t="s">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1374" s="8">
+        <v>2411</v>
+      </c>
+      <c r="D1374" t="s">
+        <v>1968</v>
+      </c>
+      <c r="E1374" s="1" t="s">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1375" s="8">
+        <v>2411</v>
+      </c>
+      <c r="D1375" t="s">
+        <v>1969</v>
+      </c>
+      <c r="E1375" s="1" t="s">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1376" s="8">
+        <v>2411</v>
+      </c>
+      <c r="D1376" t="s">
+        <v>1970</v>
+      </c>
+      <c r="E1376" s="1" t="s">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="1377" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1377" s="8">
+        <v>2411</v>
+      </c>
+      <c r="D1377" t="s">
+        <v>1971</v>
+      </c>
+      <c r="E1377" s="1" t="s">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1378" s="8">
+        <v>2411</v>
+      </c>
+      <c r="D1378" t="s">
+        <v>1972</v>
+      </c>
+      <c r="E1378" s="1" t="s">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="1379" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1379" s="8">
+        <v>2411</v>
+      </c>
+      <c r="D1379" t="s">
+        <v>1973</v>
+      </c>
+      <c r="E1379" s="1" t="s">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="1380" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1380" s="8">
+        <v>2411</v>
+      </c>
+      <c r="D1380" t="s">
+        <v>1974</v>
+      </c>
+      <c r="E1380" s="1" t="s">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="1381" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1381" s="8">
+        <v>2411</v>
+      </c>
+      <c r="D1381" t="s">
+        <v>1975</v>
+      </c>
+      <c r="E1381" s="1" t="s">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="1382" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1382" s="8">
+        <v>2411</v>
+      </c>
+      <c r="D1382" t="s">
+        <v>1976</v>
+      </c>
+      <c r="E1382" s="1" t="s">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="1383" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1383" s="8">
+        <v>2430</v>
+      </c>
+      <c r="B1383" s="3" t="s">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1384" s="8">
+        <v>2441</v>
+      </c>
+      <c r="D1384" t="s">
+        <v>1979</v>
+      </c>
+      <c r="E1384">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="1385" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1385" s="8">
+        <v>2447</v>
+      </c>
+      <c r="B1385" s="3" t="s">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1386" s="8">
+        <v>2467</v>
+      </c>
+      <c r="B1386" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="1387" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1387" s="8">
+        <v>2469</v>
+      </c>
+      <c r="C1387" s="3" t="s">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="1388" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1388" s="8">
+        <v>2470</v>
+      </c>
+      <c r="C1388" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="1389" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1389" s="8">
+        <v>2471</v>
+      </c>
+      <c r="C1389" s="3" t="s">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1390" s="8">
+        <v>2472</v>
+      </c>
+      <c r="C1390" s="3" t="s">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1391" s="8">
+        <v>2473</v>
+      </c>
+      <c r="C1391" s="3" t="s">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1392" s="8">
+        <v>2480</v>
+      </c>
+      <c r="C1392" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1393" s="8">
+        <v>2498</v>
+      </c>
+      <c r="B1393" t="s">
+        <v>1985</v>
+      </c>
+      <c r="D1393" t="s">
+        <v>1986</v>
+      </c>
+      <c r="E1393" t="s">
+        <v>1987</v>
+      </c>
+      <c r="F1393" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1394" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1394" s="8">
+        <v>2503</v>
+      </c>
+      <c r="F1394" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Postille.xlsx
+++ b/Postille.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5d451be126981215/Desktop/GitHub/Gadda/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="375" documentId="14_{67F171D5-B97A-47EF-8106-34223293467D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{08F9D81B-D354-4CD6-AC37-3E819FAABC09}"/>
+  <xr:revisionPtr revIDLastSave="247" documentId="14_{3251F2EB-A083-49EE-B5B4-4EE2C3425F63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{204334B5-E0B1-4201-9526-CEB02E79B674}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="5916" windowWidth="23040" windowHeight="7152" xr2:uid="{47043BD0-CCA9-4BF6-9B93-1764477DDE15}"/>
+    <workbookView xWindow="-84" yWindow="5448" windowWidth="23040" windowHeight="7152" xr2:uid="{47043BD0-CCA9-4BF6-9B93-1764477DDE15}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2344" uniqueCount="1988">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2507" uniqueCount="2109">
   <si>
     <t>Id</t>
   </si>
@@ -6102,6 +6102,370 @@
   </si>
   <si>
     <t>Sigfrido</t>
+  </si>
+  <si>
+    <t>Nota di possesso autografa in data 14.07.1909.</t>
+  </si>
+  <si>
+    <t>Dedica dell’autore in data 6.12.1956.</t>
+  </si>
+  <si>
+    <t>Martedì 9 ½ | Pag. 59 | Pag. 74 | Fu giovedì 3 4 | Pag. 66 | 12</t>
+  </si>
+  <si>
+    <t>Nota di possesso autografa di Enrico Gadda in data 18.08.1917.</t>
+  </si>
+  <si>
+    <t>Dedica dell’autore in data 19.5.1968.</t>
+  </si>
+  <si>
+    <t>Nota di possesso autografa in data 1924 Milano. Postille</t>
+  </si>
+  <si>
+    <t>Dedica del traduttore in data 5.1957.</t>
+  </si>
+  <si>
+    <t>Nota di possesso autografa di Enrico Gadda in data 11.05.1910.</t>
+  </si>
+  <si>
+    <t>Dedica dell’autore in data 27.3.1970. Parzialmente intonso.</t>
+  </si>
+  <si>
+    <t>Dedica dell’autore in data 26.3.1971.</t>
+  </si>
+  <si>
+    <t>Dedica dell’autore in data 2.2.1973.</t>
+  </si>
+  <si>
+    <t>Dedica dell’autore in data 11.1951.</t>
+  </si>
+  <si>
+    <t>[p. 13 marg. sx]</t>
+  </si>
+  <si>
+    <t>Pavido &lt;…&gt; risposta</t>
+  </si>
+  <si>
+    <t>[p.17 rr. 7-11 «οἶτον ἔχουσα κακῶν· ὁ δὲ λάθεται/ ὧν τ᾽ ἔπαθ᾽ ὧν τ᾽ ἐδάη. τί γὰρ οὐκ ἐμοὶ/ ἔρχεται ἀγγελίας ἀπατώμενον;/ ἀεὶ μὲν γὰρ ποθεῖ,/ ποθῶν δ᾽ οὐκ ἀξιοῖ φανῆναι.»]</t>
+  </si>
+  <si>
+    <t>2 1 6 4 3 3</t>
+  </si>
+  <si>
+    <t>[p. 19 rr. 9-12 «οἰκτρὰ μὲν νόστοις αὐδά, /οἰκτρὰ δ᾽ ἐν κοίταις πατρῴαις/ ὅτε οἱ παγχάλκων ἀνταία/ γενύων ὡρμάθη πλαγά.»]</t>
+  </si>
+  <si>
+    <t>Dat.&lt;…&gt;</t>
+  </si>
+  <si>
+    <t>[p. 80 rr. 1-2 «οὕτως ἔχει σοι ταῦτ᾽· ἐὰν δέ μοι πίθῃ, /τῆς νῦν παρούσης πημονῆς λύσεις βάρος.»]</t>
+  </si>
+  <si>
+    <t>Πεινο</t>
+  </si>
+  <si>
+    <t>[p. 106 rr. 1-2 «ὁρῶμεν, ὦ παῖ, κἀπὶ συμφοραῖσί μοι/ γεγηθὸς ἕρπει δάκρυον ὀμμάτων ἄπο.»]</t>
+  </si>
+  <si>
+    <t>Γεζω</t>
+  </si>
+  <si>
+    <t>[p. 106 r. 7 «ἐφηύρετ᾽, ἤλθετ᾽, εἴδεθ᾽ οὓς ἐχρῄζετε.»]</t>
+  </si>
+  <si>
+    <t>Ερυδισκω</t>
+  </si>
+  <si>
+    <t>Dedica dell’autore in data 8.1957.</t>
+  </si>
+  <si>
+    <t>Dedica dell’autore in data 1941 Milano.</t>
+  </si>
+  <si>
+    <t>Dedica dell’autore in data 31.10.1950.</t>
+  </si>
+  <si>
+    <t>[p. 19 rr. 16-17 «In altre parole la poesia del Montale, come quasi tutta la migliore d'oggi, nasce da un profondo travaglio di formazione e di scelta critica»]</t>
+  </si>
+  <si>
+    <t>mia lettura personale</t>
+  </si>
+  <si>
+    <t>[p. 20 rr. 21-24 «Un’atmosfera di arida e riflessa desolazione sembra mordere d’ogni parte la materia di questa poesia. Sotto questo clima lucido e deluso le apparenze naturali prendono tinte accese e incantate, volti definiti e fissati come in soste stupefatte del tempo, i modi dell’animo una smarrita evodenza sensuale: [...]»]</t>
+  </si>
+  <si>
+    <t>Sì | Già scritto</t>
+  </si>
+  <si>
+    <t>[p. 21 rr. 17-21 «La poesia del Montale non si esaurisce quasi mai nel sensualismo naturale o nei motivi di paese, ma anela il più delle volte a risolvere l’immediata materia della ispirazione in un fondamentale tono riflessivo e misurato che oltrepassa le esigenze di un atteggiamento vagamente impressionista e occasionale.»]</t>
+  </si>
+  <si>
+    <t>No per S.&lt;ergio&gt; S.&lt;olmi&gt;</t>
+  </si>
+  <si>
+    <t>[p. 21 rr. 26-27 «Queste parole, se valgono per tutta la poesia del Montale, in particolar modo valgono per la parte composta di brevi liriche che dà il titolo al libro.»]</t>
+  </si>
+  <si>
+    <t>Sì</t>
+  </si>
+  <si>
+    <t>[p. 21 rr. 33-37 «Si direbbe che il verso, invece di investire direttamente la materia del proprio motivo musicale, si attardi a seguire la materia stessa in tutti i suoi anfratti e meandri, facendosi lento e tortuoso e scabro e rotto e ricercando altrove che in sé la propria misura.»]</t>
+  </si>
+  <si>
+    <t>[p. 22 rr. 2-5 «Gloria del disteso mezzogiorno/ quand'ombra non rendono gli alberi/ e più e più si mostrano d'attorno/ per troppa luce, le parvenze, falbe»]</t>
+  </si>
+  <si>
+    <t>giallo scuro, pelo di cammello</t>
+  </si>
+  <si>
+    <t>[p. 22 rr. 9-13 «Ma di tutte le brevi composizioni di cui parliamo non sapremmo veramente quale scegliere. Veda il lettore da sé. Valmorbia, in cui si delinea, con un stacco di trasognata fantasia il paesaggio d'un lontano ricordo di guerra; “Meriggiare pallido e assorto...” il doloroso smarrimento dei sensi assopiti nella calura;»]</t>
+  </si>
+  <si>
+    <t>Sì | Sì</t>
+  </si>
+  <si>
+    <t>[p. 22 rr. 26-29 «In altra parte del libro di direbbe che il Montale, senza tradire la nativa schiettezza dei temi del suo canto, intenda ampliarli e fissarli in figure più drammatiche, in toni più elevati e mossi, in uno sviluppo di modi ritmici più aperto e dichiarato»]</t>
+  </si>
+  <si>
+    <t>[p. 35 marg. inf. ]</t>
+  </si>
+  <si>
+    <t>Longa M &lt;anus&gt;– Ben. &lt;tham&gt; [?] Spinoza</t>
+  </si>
+  <si>
+    <t>Nota di mano ignota «1er janvier 1920».</t>
+  </si>
+  <si>
+    <t>[foglio di guardia]</t>
+  </si>
+  <si>
+    <t>consumi di Milano nel 1796 v. pag. 126 e seg.</t>
+  </si>
+  <si>
+    <t>[copertina interna «Stendhal]</t>
+  </si>
+  <si>
+    <t>(Henry Beyle)</t>
+  </si>
+  <si>
+    <t>Nota di possesso di Gadda in data 01.1932 Milano.</t>
+  </si>
+  <si>
+    <t>[p. 227 marg. sup.]</t>
+  </si>
+  <si>
+    <t>Giovanni Pascoli – Sul limitare</t>
+  </si>
+  <si>
+    <t>[p. 435 rr. 2-9 «Quando la fredda luna/ sul lago Adige pende/ e i lor defunti l'itale/ madri sognando van;/ un corruscar di sciabole,/ un biancheggiar di tende,/ un moto di fantasmi,/ compre un funereo pian»]</t>
+  </si>
+  <si>
+    <t>o il</t>
+  </si>
+  <si>
+    <t>[p. 492 rr. 16-21 «E come quei che con lena affannata/ uscito fuor del pelago alla riva,/ si volge all'acqua perigliosa, e guata,/ così l'animo mio, che ancor fuggiva,/ si volse indietro a rimirar lo passo,/ che non lasciò giammai persona viva»]</t>
+  </si>
+  <si>
+    <t>con stupore</t>
+  </si>
+  <si>
+    <t>[p. 495 rr. 23-25 «Quivi sospiri, pianti ed alti guai/ risonavan per l'aer senza stelle,/ perch'io al cominciar ne lagrimai.»]</t>
+  </si>
+  <si>
+    <t>lamento</t>
+  </si>
+  <si>
+    <t>[p. 495 rr. 26-28 «Diverse lingue, orribili favelle,/ parole di dolore, accenti d'ira,/ voci alte e fioche, e suon di man con elle, [...]»]</t>
+  </si>
+  <si>
+    <t>imprecazioni</t>
+  </si>
+  <si>
+    <t>[p. 496 rr. 4-6 «Ed io ch'avea d'orror la testa cinta,/ dissi: Maestro, che è quel ch'i' odo?/ e che gent'è, che par nel duol sì vinta?»]</t>
+  </si>
+  <si>
+    <t>inorridito</t>
+  </si>
+  <si>
+    <t>Nota di possesso autografa: «Bibl. Blocco C».</t>
+  </si>
+  <si>
+    <t>Nota di possesso autografa di Enrico Gadda in data 15.02.1905.</t>
+  </si>
+  <si>
+    <t>Dedica del curatore in data 10.1966.</t>
+  </si>
+  <si>
+    <t>A Carlo E. Gradda con la vecchia, immutata amicizia B. Tecchi</t>
+  </si>
+  <si>
+    <t>[p. 99 foglio inserito]</t>
+  </si>
+  <si>
+    <t>articolo su CORADO ALVARO p. 99-107 da L'Italia Letteraria 21.12.1930 Bonaventura Tecchi</t>
+  </si>
+  <si>
+    <t>[p. 299 rr. 3-4 «I romanzi sardi della Deledda pag. 21 L'arte della Deledda pag. 33»]</t>
+  </si>
+  <si>
+    <t>“Ricordo di G. Salvadori” → 21 | “I romanzi sardi della Deledda” → 33</t>
+  </si>
+  <si>
+    <t>Nota di possesso autografa in data 26.02.1922.</t>
+  </si>
+  <si>
+    <t>Dedica dell’autore in data 21.9.1950</t>
+  </si>
+  <si>
+    <t>Dedica dell’autore in data 28.2.1942.</t>
+  </si>
+  <si>
+    <t>Nota di possesso autografa in data 06.1918.</t>
+  </si>
+  <si>
+    <t>Dedica dell’autore ad Alberto Carocci</t>
+  </si>
+  <si>
+    <t>Note di possesso autografa di Leone Traverso nelle date 1934-35</t>
+  </si>
+  <si>
+    <t>[p. 3 rr. 11-14 «Il volait cotre argent eu jeu avec des forms tout aimables; mais pour la médisance, c’était un veritable aspic: ses épigrammes emportaient la pièce; […]»]</t>
+  </si>
+  <si>
+    <t>Mordere | Portare via la pelle</t>
+  </si>
+  <si>
+    <t>[p. 7 r. 15 «“Je serai donc oblige de monter?”»]</t>
+  </si>
+  <si>
+    <t>Andare di sopra</t>
+  </si>
+  <si>
+    <t>[p. 7 rr. 18-21 «A ces mots, d’Antin saute de sa chaise, monte dans l’appartement de la marquise, écrite son linge de cou et saisit, sur ce sein que soulève le râle de la mort, la clef, unique objet de sa convoitise.»]</t>
+  </si>
+  <si>
+    <t>Cupidigia</t>
+  </si>
+  <si>
+    <t>[p. 7 rr. 36-38 «Trompé par sa cupidité, un malheureux journalier de Bourbon prit enfin la boîte pestilentielle...»]</t>
+  </si>
+  <si>
+    <t>&lt;...&gt;</t>
+  </si>
+  <si>
+    <t>[p. 9 rr. 29-33 «vigilant, actif, sage, intrépide et d’une persévérance à l’epreuve de tous les obstacles, ce général puise dans les revers non le découragement qu’y touvent les esprits vulgaires, mais le courage et l’expérience qui font reconquérir le succès.»]</t>
+  </si>
+  <si>
+    <t>Sventure</t>
+  </si>
+  <si>
+    <t>[p. 10 rr. 34-36 «sa pénétration a percé la mince couche de bienséance qui recouvre nos moeurs, et la princesse a trouvé le plasir caché plus aimable que la sagesse affichée.»]</t>
+  </si>
+  <si>
+    <t>Tappo</t>
+  </si>
+  <si>
+    <t>[p. 15 rr. 13-15 «[...]: son Diable boiteux est lu dans rous les salons, et tout Paris court au Théâtre-français voir Crispin rival de  son maître.»]</t>
+  </si>
+  <si>
+    <t>[p. 17 rr. 7-12 «les historiens passionnés par les cours ne manqueront pas d’écrire qu’au moment où Louis XIV maintenait avec peine son petit-fils en Espagne et défendait difficilement ses propres États d’une invasion, il y avait de la grandeur à tenter le rétablissement de Jacques III sur le trône de ses pères. »]</t>
+  </si>
+  <si>
+    <t>Mantenersi</t>
+  </si>
+  <si>
+    <t>[p. 38 rr. 23-25 «En effet Desmarets ne savait plus où trouver de l’argent: tous les engagements pris avec les financiers demeuraient en souffrance; […]»]</t>
+  </si>
+  <si>
+    <t>Sospensione</t>
+  </si>
+  <si>
+    <t>[p. 40 rr. 15-20 «Un docteur flamand, nommé Jansenius, jalouz d’ergoter, comme tous les docteur, s’avisa, au commencement du siècle dernier, de composer in libre intitule Augustinus, où l’auter, après son compatriot Michel Bay, crut avoir résumé miex que lui, la doctrine de saint Augustin, sur la grâce, le libre arbiter et la prédestination.»]</t>
+  </si>
+  <si>
+    <t>Sofosticare</t>
+  </si>
+  <si>
+    <t>[p. 45 rr. 25-28 «Malheureusement Arnauld, Saci, Nicole, le Maître, Herman ne se contentèrent pas de manier les instruments du jardinage; ils reprirent aussi la plume.»]</t>
+  </si>
+  <si>
+    <t>Maneggiare</t>
+  </si>
+  <si>
+    <t>[p. 47 rr. 4-7 «J’ai dit ailleurs que ce moine ardent avait osé reprocher en quelque sorte au monarque son indulgence anvers les jansénistes; […] »]</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>[p. 48 rr. 11-13 «Voici une autre branche, une branche moins directe de l’arbre illustre dont le grand Béarnais fut la tige, qui promet de nouveax rejetons: […]»]</t>
+  </si>
+  <si>
+    <t>Palloni</t>
+  </si>
+  <si>
+    <t>[p. 48 rr. 16-19 «La blanchisseuse de l’écrivain comique, ouvrière dont le compte avec lui étasit toujours une pièce sans dénoûment, entra un matin chez ce mauvais payeur pour lui demander de conclure enfin en la payant.»]</t>
+  </si>
+  <si>
+    <t>Lavandaia</t>
+  </si>
+  <si>
+    <t>[p. 48 rr. 34-35 «“Je pourrais bien compter sur une planche vermouloue... voilà ce que vous coulez dire.”»]</t>
+  </si>
+  <si>
+    <t>[p. 55 rr. 30-34 «Mais, à la guerre, comme sur un échiquier, c’est la position des combattants qui fait le seccès… le thèâtre de la plus hideuse boucherie qu’on eût vuedepuis plusieurs siècle devint la conquête d’Eugène et de Marlborough.»]</t>
+  </si>
+  <si>
+    <t>Carneficina</t>
+  </si>
+  <si>
+    <t>[p. 60 rr. 16-20 «Voici le précis rapide de la carrière de cet abbé: Vatteville était chartreux, lorsuqe, jeune encore et dominé par d’ardentes passions, il se disposait, pendant une benne nuit d’été, à fuir son couvent.»]</t>
+  </si>
+  <si>
+    <t>Certosino</t>
+  </si>
+  <si>
+    <t>[p. 60 rr. 25-28 «Un voyageur survenant et affamé représente au vorace religieux que deux poulardes sont trop pour un
+seul homme, sourtout quand un autre homme n’à rien à manger.»]</t>
+  </si>
+  <si>
+    <t>Mots</t>
+  </si>
+  <si>
+    <t>[p. 87 rr. 14-15 «Je ne connais qu’en seul motif de ce genre de différend au début de l’hymen.»]</t>
+  </si>
+  <si>
+    <t>Che la &lt;...&gt; non è più &lt;...&gt;</t>
+  </si>
+  <si>
+    <t>[p. 103 rr. 8-11 «Une v... salutaire/ du règne de Joseph vient d’arretêr le cours,/ ainsi la petite en dix jours/ a fait ce que la grosse en dix ans n’a pu faire.»]</t>
+  </si>
+  <si>
+    <t>Ècole | Ache | &lt;...&gt;</t>
+  </si>
+  <si>
+    <t>[p. 507 foglio inserito]</t>
+  </si>
+  <si>
+    <t>Merci &lt;...&gt;</t>
+  </si>
+  <si>
+    <t>Nota di possesso autografa di Adele Gadda     Lehr.</t>
+  </si>
+  <si>
+    <t>Dedica dell’autore in data 7.11.1960.</t>
+  </si>
+  <si>
+    <t>Note di possesso autografe di Adele Gadda Lehr e Carlo Emilio Gadda.</t>
+  </si>
+  <si>
+    <t>Nota di possesso autografa in data 9.06.1925 Milano.</t>
+  </si>
+  <si>
+    <t>Dedica dell’autore in data 18.7.1932.</t>
+  </si>
+  <si>
+    <t>Nota di possesso autografa di Emilio Cecchi in data 14.9.1939.</t>
   </si>
 </sst>
 </file>
@@ -6213,6 +6577,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6512,11 +6880,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136E0D60-51E6-464F-AE7B-AB655C9FB227}">
-  <dimension ref="A1:F1394"/>
+  <dimension ref="A1:F1503"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1392" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1394" sqref="F1394"/>
+      <pane ySplit="1" topLeftCell="A1501" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1503" sqref="A1503"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="43.21875" defaultRowHeight="58.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -20659,6 +21027,1037 @@
         <v>44</v>
       </c>
     </row>
+    <row r="1395" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1395" s="8">
+        <v>2506</v>
+      </c>
+      <c r="B1395" s="3" t="s">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="1396" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1396" s="8">
+        <v>2510</v>
+      </c>
+      <c r="C1396" s="3" t="s">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="1397" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1397" s="8">
+        <v>2516</v>
+      </c>
+      <c r="D1397" t="s">
+        <v>1374</v>
+      </c>
+      <c r="E1397" t="s">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="1398" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1398" s="8">
+        <v>2521</v>
+      </c>
+      <c r="C1398" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="1399" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1399" s="8">
+        <v>2525</v>
+      </c>
+      <c r="C1399" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="1400" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1400" s="8">
+        <v>2528</v>
+      </c>
+      <c r="B1400" s="3" t="s">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1401" s="8">
+        <v>2529</v>
+      </c>
+      <c r="C1401" s="3" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="1402" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1402" s="8">
+        <v>2532</v>
+      </c>
+      <c r="C1402" s="3" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="1403" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1403" s="8">
+        <v>2533</v>
+      </c>
+      <c r="C1403" s="3" t="s">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1404" s="8">
+        <v>2538</v>
+      </c>
+      <c r="B1404" s="1" t="s">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="1405" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1405" s="8">
+        <v>2542</v>
+      </c>
+      <c r="F1405" s="3" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="1406" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1406" s="8">
+        <v>2552</v>
+      </c>
+      <c r="C1406" s="3" t="s">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="1407" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1407" s="8">
+        <v>2568</v>
+      </c>
+      <c r="B1407" s="3" t="s">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1408" s="8">
+        <v>2570</v>
+      </c>
+      <c r="C1408" s="3" t="s">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="1409" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1409" s="8">
+        <v>2571</v>
+      </c>
+      <c r="C1409" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="1410" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1410" s="8">
+        <v>2572</v>
+      </c>
+      <c r="C1410" s="3" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="1411" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1411" s="8">
+        <v>2573</v>
+      </c>
+      <c r="C1411" s="3" t="s">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="1412" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1412" s="8">
+        <v>2575</v>
+      </c>
+      <c r="F1412" s="3" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="1413" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1413" s="8">
+        <v>2576</v>
+      </c>
+      <c r="F1413" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="1414" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1414" s="8">
+        <v>2582</v>
+      </c>
+      <c r="B1414" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1415" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1415" s="8">
+        <v>2589</v>
+      </c>
+      <c r="B1415" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1416" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1416" s="8">
+        <v>2591</v>
+      </c>
+      <c r="C1416" s="3" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="1417" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1417" s="8">
+        <v>2597</v>
+      </c>
+      <c r="F1417" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1418" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1418" s="8">
+        <v>2598</v>
+      </c>
+      <c r="F1418" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="1419" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1419" s="8">
+        <v>2599</v>
+      </c>
+      <c r="D1419" t="s">
+        <v>2000</v>
+      </c>
+      <c r="E1419" t="s">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="1420" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1420" s="8">
+        <v>2599</v>
+      </c>
+      <c r="D1420" t="s">
+        <v>2002</v>
+      </c>
+      <c r="E1420" t="s">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="1421" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1421" s="8">
+        <v>2599</v>
+      </c>
+      <c r="D1421" t="s">
+        <v>2004</v>
+      </c>
+      <c r="E1421" t="s">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="1422" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1422" s="8">
+        <v>2599</v>
+      </c>
+      <c r="D1422" t="s">
+        <v>2006</v>
+      </c>
+      <c r="E1422" t="s">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1423" s="8">
+        <v>2599</v>
+      </c>
+      <c r="D1423" t="s">
+        <v>2008</v>
+      </c>
+      <c r="E1423" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1424" s="8">
+        <v>2599</v>
+      </c>
+      <c r="D1424" t="s">
+        <v>2010</v>
+      </c>
+      <c r="E1424" t="s">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1425" s="8">
+        <v>2603</v>
+      </c>
+      <c r="C1425" s="3" t="s">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1426" s="8">
+        <v>2606</v>
+      </c>
+      <c r="C1426" s="1" t="s">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1427" s="8">
+        <v>2607</v>
+      </c>
+      <c r="C1427" s="3" t="s">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1428" s="8">
+        <v>2609</v>
+      </c>
+      <c r="C1428" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1429" s="8">
+        <v>2610</v>
+      </c>
+      <c r="D1429" t="s">
+        <v>2015</v>
+      </c>
+      <c r="E1429" t="s">
+        <v>2016</v>
+      </c>
+      <c r="F1429" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1430" s="8">
+        <v>2610</v>
+      </c>
+      <c r="D1430" t="s">
+        <v>2017</v>
+      </c>
+      <c r="E1430" t="s">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="1431" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1431" s="8">
+        <v>2610</v>
+      </c>
+      <c r="D1431" t="s">
+        <v>2019</v>
+      </c>
+      <c r="E1431" t="s">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="1432" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1432" s="8">
+        <v>2610</v>
+      </c>
+      <c r="D1432" t="s">
+        <v>2021</v>
+      </c>
+      <c r="E1432" t="s">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="1433" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1433" s="8">
+        <v>2610</v>
+      </c>
+      <c r="D1433" t="s">
+        <v>2023</v>
+      </c>
+      <c r="E1433" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1434" s="8">
+        <v>2610</v>
+      </c>
+      <c r="D1434" t="s">
+        <v>2024</v>
+      </c>
+      <c r="E1434" t="s">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1435" s="8">
+        <v>2610</v>
+      </c>
+      <c r="D1435" t="s">
+        <v>2026</v>
+      </c>
+      <c r="E1435" t="s">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1436" s="8">
+        <v>2610</v>
+      </c>
+      <c r="D1436" t="s">
+        <v>2028</v>
+      </c>
+      <c r="E1436" t="s">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1437" s="8">
+        <v>2623</v>
+      </c>
+      <c r="D1437" t="s">
+        <v>2029</v>
+      </c>
+      <c r="E1437" s="1" t="s">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1438" s="8">
+        <v>2624</v>
+      </c>
+      <c r="E1438" s="3" t="s">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1439" s="8">
+        <v>2625</v>
+      </c>
+      <c r="F1439" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1440" s="8">
+        <v>2632</v>
+      </c>
+      <c r="C1440" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1441" s="8">
+        <v>2639</v>
+      </c>
+      <c r="C1441" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1442" s="8">
+        <v>2642</v>
+      </c>
+      <c r="D1442" t="s">
+        <v>2032</v>
+      </c>
+      <c r="E1442" t="s">
+        <v>2033</v>
+      </c>
+      <c r="F1442" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1443" s="8">
+        <v>2642</v>
+      </c>
+      <c r="D1443" t="s">
+        <v>2034</v>
+      </c>
+      <c r="E1443" t="s">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1444" s="8">
+        <v>2659</v>
+      </c>
+      <c r="B1444" s="1" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1445" s="8">
+        <v>2668</v>
+      </c>
+      <c r="B1445" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D1445" t="s">
+        <v>2037</v>
+      </c>
+      <c r="E1445" t="s">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1446" s="8">
+        <v>2668</v>
+      </c>
+      <c r="D1446" t="s">
+        <v>2039</v>
+      </c>
+      <c r="E1446" t="s">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1447" s="8">
+        <v>2668</v>
+      </c>
+      <c r="D1447" t="s">
+        <v>2041</v>
+      </c>
+      <c r="E1447" t="s">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1448" s="8">
+        <v>2668</v>
+      </c>
+      <c r="D1448" t="s">
+        <v>2043</v>
+      </c>
+      <c r="E1448" t="s">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1449" s="8">
+        <v>2668</v>
+      </c>
+      <c r="D1449" t="s">
+        <v>2045</v>
+      </c>
+      <c r="E1449" t="s">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1450" s="8">
+        <v>2668</v>
+      </c>
+      <c r="D1450" t="s">
+        <v>2047</v>
+      </c>
+      <c r="E1450" t="s">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1451" s="8">
+        <v>2677</v>
+      </c>
+      <c r="B1451" s="3" t="s">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="1452" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1452" s="8">
+        <v>2684</v>
+      </c>
+      <c r="B1452" s="3" t="s">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1453" s="8">
+        <v>2691</v>
+      </c>
+      <c r="C1453" s="3" t="s">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="1454" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1454" s="8">
+        <v>2697</v>
+      </c>
+      <c r="F1454" s="3" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="1455" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1455" s="8">
+        <v>2702</v>
+      </c>
+      <c r="F1455" s="3" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="1456" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1456" s="8">
+        <v>2707</v>
+      </c>
+      <c r="C1456" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="1457" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1457" s="8">
+        <v>2708</v>
+      </c>
+      <c r="C1457" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1458" s="8">
+        <v>2711</v>
+      </c>
+      <c r="C1458" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="1459" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1459" s="8">
+        <v>2712</v>
+      </c>
+      <c r="C1459" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="1460" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1460" s="8">
+        <v>2713</v>
+      </c>
+      <c r="C1460" t="s">
+        <v>2052</v>
+      </c>
+      <c r="D1460" t="s">
+        <v>2053</v>
+      </c>
+      <c r="E1460" t="s">
+        <v>2054</v>
+      </c>
+    </row>
+    <row r="1461" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1461" s="8">
+        <v>2713</v>
+      </c>
+      <c r="D1461" s="1" t="s">
+        <v>2055</v>
+      </c>
+      <c r="E1461" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1462" s="8">
+        <v>2714</v>
+      </c>
+      <c r="C1462" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1463" s="8">
+        <v>2717</v>
+      </c>
+      <c r="C1463" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="1464" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1464" s="8">
+        <v>2718</v>
+      </c>
+      <c r="C1464" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="1465" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1465" s="8">
+        <v>2729</v>
+      </c>
+      <c r="B1465" s="3" t="s">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="1466" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1466" s="8">
+        <v>2738</v>
+      </c>
+      <c r="C1466" s="3" t="s">
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="1467" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1467" s="8">
+        <v>2740</v>
+      </c>
+      <c r="C1467" s="3" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="1468" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1468" s="8">
+        <v>2741</v>
+      </c>
+      <c r="B1468" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1469" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1469" s="8">
+        <v>2754</v>
+      </c>
+      <c r="B1469" s="3" t="s">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="1470" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1470" s="8">
+        <v>2755</v>
+      </c>
+      <c r="C1470" s="1" t="s">
+        <v>2061</v>
+      </c>
+      <c r="F1470" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1471" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1471" s="8">
+        <v>2756</v>
+      </c>
+      <c r="B1471" s="3" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="1472" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1472" s="8">
+        <v>2758</v>
+      </c>
+      <c r="C1472" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="1473" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1473" s="8">
+        <v>2760</v>
+      </c>
+      <c r="B1473" s="1" t="s">
+        <v>2062</v>
+      </c>
+      <c r="D1473" t="s">
+        <v>2063</v>
+      </c>
+      <c r="E1473" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="1474" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1474" s="8">
+        <v>2760</v>
+      </c>
+      <c r="D1474" t="s">
+        <v>2065</v>
+      </c>
+      <c r="E1474" t="s">
+        <v>2066</v>
+      </c>
+    </row>
+    <row r="1475" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1475" s="8">
+        <v>2760</v>
+      </c>
+      <c r="D1475" t="s">
+        <v>2067</v>
+      </c>
+      <c r="E1475" t="s">
+        <v>2068</v>
+      </c>
+    </row>
+    <row r="1476" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1476" s="8">
+        <v>2760</v>
+      </c>
+      <c r="D1476" t="s">
+        <v>2069</v>
+      </c>
+      <c r="E1476" s="1" t="s">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="1477" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1477" s="8">
+        <v>2760</v>
+      </c>
+      <c r="D1477" t="s">
+        <v>2071</v>
+      </c>
+      <c r="E1477" t="s">
+        <v>2072</v>
+      </c>
+    </row>
+    <row r="1478" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1478" s="8">
+        <v>2760</v>
+      </c>
+      <c r="D1478" t="s">
+        <v>2073</v>
+      </c>
+      <c r="E1478" s="1" t="s">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="1479" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1479" s="8">
+        <v>2760</v>
+      </c>
+      <c r="D1479" t="s">
+        <v>2075</v>
+      </c>
+      <c r="E1479" t="s">
+        <v>2074</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1480" s="8">
+        <v>2760</v>
+      </c>
+      <c r="D1480" t="s">
+        <v>2076</v>
+      </c>
+      <c r="E1480" t="s">
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="1481" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1481" s="8">
+        <v>2760</v>
+      </c>
+      <c r="D1481" t="s">
+        <v>2078</v>
+      </c>
+      <c r="E1481" t="s">
+        <v>2079</v>
+      </c>
+    </row>
+    <row r="1482" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1482" s="8">
+        <v>2760</v>
+      </c>
+      <c r="D1482" t="s">
+        <v>2080</v>
+      </c>
+      <c r="E1482" t="s">
+        <v>2081</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1483" s="8">
+        <v>2760</v>
+      </c>
+      <c r="D1483" t="s">
+        <v>2082</v>
+      </c>
+      <c r="E1483" t="s">
+        <v>2083</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1484" s="8">
+        <v>2760</v>
+      </c>
+      <c r="D1484" t="s">
+        <v>2084</v>
+      </c>
+      <c r="E1484" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="1485" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1485" s="8">
+        <v>2760</v>
+      </c>
+      <c r="D1485" t="s">
+        <v>2086</v>
+      </c>
+      <c r="E1485" t="s">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="1486" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1486" s="8">
+        <v>2760</v>
+      </c>
+      <c r="D1486" t="s">
+        <v>2088</v>
+      </c>
+      <c r="E1486" t="s">
+        <v>2089</v>
+      </c>
+    </row>
+    <row r="1487" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1487" s="8">
+        <v>2760</v>
+      </c>
+      <c r="D1487" t="s">
+        <v>2090</v>
+      </c>
+      <c r="E1487" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1488" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1488" s="8">
+        <v>2760</v>
+      </c>
+      <c r="D1488" t="s">
+        <v>2091</v>
+      </c>
+      <c r="E1488" t="s">
+        <v>2092</v>
+      </c>
+    </row>
+    <row r="1489" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1489" s="8">
+        <v>2760</v>
+      </c>
+      <c r="D1489" t="s">
+        <v>2093</v>
+      </c>
+      <c r="E1489" t="s">
+        <v>2094</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1490" s="8">
+        <v>2760</v>
+      </c>
+      <c r="D1490" s="1" t="s">
+        <v>2095</v>
+      </c>
+      <c r="E1490" t="s">
+        <v>2096</v>
+      </c>
+    </row>
+    <row r="1491" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1491" s="8">
+        <v>2760</v>
+      </c>
+      <c r="D1491" t="s">
+        <v>2097</v>
+      </c>
+      <c r="E1491" s="1" t="s">
+        <v>2098</v>
+      </c>
+    </row>
+    <row r="1492" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1492" s="8">
+        <v>2760</v>
+      </c>
+      <c r="D1492" t="s">
+        <v>2099</v>
+      </c>
+      <c r="E1492" s="1" t="s">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="1493" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1493" s="8">
+        <v>2760</v>
+      </c>
+      <c r="D1493" t="s">
+        <v>2101</v>
+      </c>
+      <c r="E1493" s="1" t="s">
+        <v>2102</v>
+      </c>
+    </row>
+    <row r="1494" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1494" s="8">
+        <v>2767</v>
+      </c>
+      <c r="B1494" s="3" t="s">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="1495" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1495" s="8">
+        <v>2768</v>
+      </c>
+      <c r="B1495" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1496" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1496" s="8">
+        <v>2769</v>
+      </c>
+      <c r="C1496" s="3" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="1497" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1497" s="8">
+        <v>2788</v>
+      </c>
+      <c r="C1497" s="3" t="s">
+        <v>2104</v>
+      </c>
+    </row>
+    <row r="1498" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1498" s="8">
+        <v>2793</v>
+      </c>
+      <c r="C1498" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="1499" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1499" s="8">
+        <v>2794</v>
+      </c>
+      <c r="C1499" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="1500" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1500" s="8">
+        <v>2797</v>
+      </c>
+      <c r="B1500" s="3" t="s">
+        <v>2105</v>
+      </c>
+    </row>
+    <row r="1501" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1501" s="3" t="s">
+        <v>2107</v>
+      </c>
+      <c r="B1501" s="3" t="s">
+        <v>2106</v>
+      </c>
+    </row>
+    <row r="1502" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1502" s="8">
+        <v>2802</v>
+      </c>
+      <c r="C1502" s="3" t="s">
+        <v>2107</v>
+      </c>
+    </row>
+    <row r="1503" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1503" s="8">
+        <v>2810</v>
+      </c>
+      <c r="B1503" s="3" t="s">
+        <v>2108</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Postille.xlsx
+++ b/Postille.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5d451be126981215/Desktop/GitHub/Gadda/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="247" documentId="14_{3251F2EB-A083-49EE-B5B4-4EE2C3425F63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{204334B5-E0B1-4201-9526-CEB02E79B674}"/>
+  <xr:revisionPtr revIDLastSave="353" documentId="14_{6F7B98AD-6A60-400E-B377-E629896506A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{510C3745-C8A6-4D9E-AD75-E95DF5F55E5E}"/>
   <bookViews>
-    <workbookView xWindow="-84" yWindow="5448" windowWidth="23040" windowHeight="7152" xr2:uid="{47043BD0-CCA9-4BF6-9B93-1764477DDE15}"/>
+    <workbookView xWindow="0" yWindow="5088" windowWidth="23040" windowHeight="7152" xr2:uid="{47043BD0-CCA9-4BF6-9B93-1764477DDE15}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2507" uniqueCount="2109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2780" uniqueCount="2357">
   <si>
     <t>Id</t>
   </si>
@@ -6466,6 +6466,806 @@
   </si>
   <si>
     <t>Nota di possesso autografa di Emilio Cecchi in data 14.9.1939.</t>
+  </si>
+  <si>
+    <t>Dedica dell’autore in data 21.12.1957. In tonso.</t>
+  </si>
+  <si>
+    <t>Nota di possesso in data 7.1920 Milano.</t>
+  </si>
+  <si>
+    <t>[p. 8-9 rr. 20-24; 1 «Dalla finestra della capitaneria aperta sul fosso canale si scorgeva la darsena madreperlata dall'untume, gli scafi scarnati dal fasciame, l'ossa dei barchi in demolizione, le staminare impeciate e uno sfacelo di barconi in concia.»]</t>
+  </si>
+  <si>
+    <t>Nota di possesso autografa in data 17.09.1919</t>
+  </si>
+  <si>
+    <t>Nota di possesso autografa in data 17.09.1919.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dedica dell’autore in data 1.6.1934.  </t>
+  </si>
+  <si>
+    <t>Dedica del traduttore in data 9.1945.</t>
+  </si>
+  <si>
+    <t>Nota di possesso e appunto: «Carlo Emilio Gadda comperato il giorno 28 febbraio 1908. E ciò è assicuratissimo».</t>
+  </si>
+  <si>
+    <t>Sed fugit, interea fugit inreparabile tempus . Pag. 108 verso 284</t>
+  </si>
+  <si>
+    <t>[p. 107 rr. 9-13 «Tempore non alio catulorum oblita leaena/ saevior erravit campis nec funera volgo/ tam multa indormes ursi stragemque dedere/ per silvas; tum saevos aper, tum pessima tigris: / heu! Male tum Lybiae solis erratur in agris.»]</t>
+  </si>
+  <si>
+    <t>saevos|asper</t>
+  </si>
+  <si>
+    <t>[p. 108 rr. 21-22 «Sed fugit interea, fugit inreparabile tempus,/ singula dum capti circumuectamur amore.»]</t>
+  </si>
+  <si>
+    <t>C.E.G.</t>
+  </si>
+  <si>
+    <t>Dedica dell’autore in data 19.12.1931</t>
+  </si>
+  <si>
+    <t>Nota di possesso autografa di Adele
+Gadda Lehr.</t>
+  </si>
+  <si>
+    <t>[p. 1 rr. 11-12 «{
+𝑎𝑥 +𝑏𝑦 = 𝑐
+𝑎
+1𝑥 + 𝑏
+1𝑦 = 𝑐
+1
+}»]</t>
+  </si>
+  <si>
+    <t>𝑥 =
+𝑐𝑏
+1−𝑏𝑐
+1
+𝑎𝑏1−𝑏𝑎1
+| 𝑦 =
+𝑎𝑐
+1−𝑎
+1𝑐
+𝑎𝑏1−𝑏𝑎1</t>
+  </si>
+  <si>
+    <t>[p. 20 rr. 7-9 «
+𝑎 𝑏 𝑎𝑥 + 𝑏𝑦 + 𝑐𝑧
+𝑎
+1 𝑏
+1 𝑎
+1𝑥 + 𝑏
+1𝑦 + 𝑐
+1
+𝑧
+𝑎
+2 𝑏
+2 𝑎
+2𝑥 + 𝑏
+2𝑦 + 𝑐
+2
+𝑧
+=
+𝑎 𝑏 𝑑
+𝑎
+1 𝑏
+1
+𝑐
+1
+»
+𝑎
+2 𝑏
+2
+𝑐
+2
+]</t>
+  </si>
+  <si>
+    <t>.= 𝐷3</t>
+  </si>
+  <si>
+    <t>[p. 40 marg. sup.]</t>
+  </si>
+  <si>
+    <t>Una costante si dice limite di una variabile quando le differenze tra la c. e la v. o tra la v. e la c. diviene e diventa, si mantiene più piccola di qualsiasi grandezza comunque piccola, precedentemente assegnatole.</t>
+  </si>
+  <si>
+    <t>[p. 46 r.1 «Chaptre VI»]</t>
+  </si>
+  <si>
+    <t>v.&lt;edi&gt; p. 268</t>
+  </si>
+  <si>
+    <t>[p. 68 r. 1 «Chaptre VII»]</t>
+  </si>
+  <si>
+    <t>[p. 68 marg. inf.]</t>
+  </si>
+  <si>
+    <t>[p. 71 rr. 22-24 «[...] si, de plus, n est assez grand pour que n+1 soit supérieur à x, la paranthèse est une progression géométrique convergente, et a pour somme 𝑛+1 𝑛+1−𝑥 .»]</t>
+  </si>
+  <si>
+    <t>Si [...] 𝑥
+𝑛+1</t>
+  </si>
+  <si>
+    <t>[p. 75 rr. 18-21 «Nous avons ainsi montré l’identité de la série E(x) et de la puissance 𝑒 𝑥 , lorsque x est rationelle, positif ou négatif. Lorsque x est un nombre irrationnel, nous appellerons, par définition, valeur de 𝑒 𝑥 la valeur de la série E(x).»]</t>
+  </si>
+  <si>
+    <t>[p. 76 marg. inf.]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[p. 83 r. 4 «X=𝑎 𝑥 = 𝑒 𝑥𝑙𝑜𝑔 𝑎»] </t>
+  </si>
+  <si>
+    <t>[p. 83 r.8 «log X= x log α = 𝑙𝑜𝑔𝑎𝑋. log 𝑎»]</t>
+  </si>
+  <si>
+    <t>[p. 83 rr. 27 «log X = 𝑙𝑜𝑔10 𝑋. log 10.»]</t>
+  </si>
+  <si>
+    <t>Log [...] un numero [...] è = al log [...] | Se questo numero è 𝑥
+5
+[… ]𝑙 = 10</t>
+  </si>
+  <si>
+    <t>[p. 91 r.6 «62. Homogénité des formules»]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v.&lt;edi&gt; frazioni vol. II p. 32 </t>
+  </si>
+  <si>
+    <t>[p. 91 rr. 18-20 «Soient A, B, C, X, Y des loungueurs connues ou incconueus dont les mesures au moyen d’une meme unite 𝐿0 sont a,b,c,x,y; […]»]</t>
+  </si>
+  <si>
+    <t>[p. 91 marg. dex]</t>
+  </si>
+  <si>
+    <t>[p. 92 marg. sx.]</t>
+  </si>
+  <si>
+    <t>[p. 92 rr. 28-24 «On dit qu’une expression compose au moyen de plusieurs lettres a, b, c, x, y, reunites par les symbols de l’algèbre: addition, soustraction, multiplication, division, élévation aux puissances, extraction de raciness, est homogène si en y ramplaçat ces lettres respectivement par ka, kb, kc, kx, ky, on obtient une nouvelle expression qui est égale au produit de la première par une certaine puissance de k; le degree de cette puissance est appelé degree d’jomogénéité; […]»]</t>
+  </si>
+  <si>
+    <t>[p. 93 marg. sup.]</t>
+  </si>
+  <si>
+    <t>[p. 93 marg. dex]</t>
+  </si>
+  <si>
+    <t>[p. 93 marg. inf.]</t>
+  </si>
+  <si>
+    <t>[p. 98 rr. 1-2 «La valeur relative de la résultante d’un contour est égale à la somme algébrique des valeurs relatives des composantes»]</t>
+  </si>
+  <si>
+    <t>[p. 99 fig. 5]</t>
+  </si>
+  <si>
+    <t>[p. 101 fig. 7]</t>
+  </si>
+  <si>
+    <t>[p. 101 marg. inf.]</t>
+  </si>
+  <si>
+    <t>[p. 107 fig. 11]</t>
+  </si>
+  <si>
+    <t>Teorema di Basle</t>
+  </si>
+  <si>
+    <t>Posto CD funzione [...] =1 | Posto AB = (AB) [...] CD</t>
+  </si>
+  <si>
+    <t>Teor.&lt;ia&gt; di Talete: Se più parallele sono segate da due trasversali, due segmenti &lt;…&gt; si &lt;...&gt;
+proporzionali ai due segmenti corrispondenti dell’altra</t>
+  </si>
+  <si>
+    <t>α | segna della figura il nome dell’angolo</t>
+  </si>
+  <si>
+    <t>Y | Segna il nome della retta che dal centro della figura arriva al cerchio in cui è inscritta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[p. 115 fig. 17] </t>
+  </si>
+  <si>
+    <t>[p. 115 rr. 33-34 «x=(OP)=Rcosφ y=(OQ)=Rsinφ»]</t>
+  </si>
+  <si>
+    <t>.= Rcos(φo-φ)</t>
+  </si>
+  <si>
+    <t>[p. 116 marg. inf.]</t>
+  </si>
+  <si>
+    <t>Disegno di figura geometrica</t>
+  </si>
+  <si>
+    <t>[p. 118 marg. sx.]</t>
+  </si>
+  <si>
+    <t>F(xy)=0</t>
+  </si>
+  <si>
+    <t>[p. 119 fig. 19]</t>
+  </si>
+  <si>
+    <t>v=polo | Ρ=&lt;...&gt; in polare | 0=&lt;...&gt;</t>
+  </si>
+  <si>
+    <t>[p. 120 marg. sup.]</t>
+  </si>
+  <si>
+    <t>Per un corollario del teorema: | ogni angolo alla circonferenza è metà dell’angolo il centro corrispondente. Nel nostro caso l’ang. al centro è l’ang. Piatto OaA quindi AmO è retto</t>
+  </si>
+  <si>
+    <t>[p. 120 marg. inf.]</t>
+  </si>
+  <si>
+    <t>[p. 123 rr. 9-12 «Si nous désignons par α l’angle de OM avec Ox, nous avons comme équations des droites OM et AM, d’aprés la formule (%) du n°78, […]»]</t>
+  </si>
+  <si>
+    <t>p. 116 (x-𝑥1 𝑠𝑒𝑛𝛼 − (𝑦 − 𝑦1 )𝑐𝑜𝑠 = 0</t>
+  </si>
+  <si>
+    <t>[p. 123 marg. inf.]</t>
+  </si>
+  <si>
+    <t>[p. 124 marg. sup.]</t>
+  </si>
+  <si>
+    <t>[p. 124 rr. 10-11 «1 𝑒𝑟 Cas.- On donne un point 𝑀0 de la droite, et l’angle α que fait avec 𝑂𝑥 une direction positive choisie sur elle.»]</t>
+  </si>
+  <si>
+    <t>v. p. 116</t>
+  </si>
+  <si>
+    <t>Disegni sulla figura</t>
+  </si>
+  <si>
+    <t>[p. 125 rr. 5-9 «m est appelé coefficent angulaire de la droite; il est égal à tg α; h est appelé ordonnée à l’origine de la droite; il est égal à l’ordonnée de son point de recontre B avec l’axe des y, car on obtient l’ordonnée de ce point en remplaçant l’abscisse x par zéro dans l’équation (4), ette celle-ci donne alors y=h.»]</t>
+  </si>
+  <si>
+    <t>[p. 124 fig. 22]</t>
+  </si>
+  <si>
+    <t>c. p. 199-371</t>
+  </si>
+  <si>
+    <t>[p. 125 rr. 13-15 «il est donc inutile dans l’étude d’une droite représentéè par l’eqaution (4) de considérer cette droite comme dirigée.»]</t>
+  </si>
+  <si>
+    <t>∟ 180° &lt;...&gt;</t>
+  </si>
+  <si>
+    <t>[p. 125 rr. 20-21 «Si nous introduisons dans l’équation le coefficient angulaire m, elle s’écrit sous la forme»]</t>
+  </si>
+  <si>
+    <t>[p. 125 rr. 28-29 «y=xtgα ou y=mx; elle est homogène en x et y.»]</t>
+  </si>
+  <si>
+    <t>(perché I due membri hanno la stessa quota [?])</t>
+  </si>
+  <si>
+    <t>[p. 125 marg. inf.]</t>
+  </si>
+  <si>
+    <t>Disegni di angoli</t>
+  </si>
+  <si>
+    <t>[p. 129 r. 25 «85. Angle de duex droites. – Droites perpendiculaires.»]</t>
+  </si>
+  <si>
+    <t>p. 104</t>
+  </si>
+  <si>
+    <t>[p. 130 marg. sx.]</t>
+  </si>
+  <si>
+    <t>[p. 130 r. 20 «l’équation cherchée est alors, en appliquant l’équation (5),»]</t>
+  </si>
+  <si>
+    <t>[p. 134 rr. 7-10 «en général si une circonférence a pour centre un point donné de coordonnées (𝑥0 , 𝑦0 ) et pour rayon R, nous obtiendrons son équation en écrivant que le carré de la distance d’un point (x,y) de la courbe au point (𝑥0 , 𝑦0 ) est égal à 𝑅 2 »]</t>
+  </si>
+  <si>
+    <t>± p. 117</t>
+  </si>
+  <si>
+    <t>[p. 135 rr. 16-18 «Nous voyons que c’est une équation du second degré, mais elle n’est pas de la forme la plus générale, car il n’y a pas de terme en xy, et les coefficients de 𝑥 2 et de 𝑦 2 sont égaux»]</t>
+  </si>
+  <si>
+    <t>+ A𝑥 2 + 𝐵𝑥𝑦 + 𝐶𝑦 2 + 𝐷𝑥 + 𝐸𝑦 + 𝐹 = 0</t>
+  </si>
+  <si>
+    <t>[p. 135 fig.25 ]</t>
+  </si>
+  <si>
+    <t>[p. 135 marg. inf.]</t>
+  </si>
+  <si>
+    <t>[p. 138 fig. 27]</t>
+  </si>
+  <si>
+    <t>[p. 139 fig.28]</t>
+  </si>
+  <si>
+    <t>[p. 141 fig.20]</t>
+  </si>
+  <si>
+    <t>(v.&lt;edi&gt; p. 133)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[p. 141 rr. 15-16 «Si nous supprimons dans l’équation (9) le terme constant, nous obtenons une équation homogène»] </t>
+  </si>
+  <si>
+    <t>[p. 142 marg. sx.]</t>
+  </si>
+  <si>
+    <t>Come si dimostra che la &lt;…&gt; 𝑀𝑀2 non è mai=0?</t>
+  </si>
+  <si>
+    <t>[p. 143 r. 6 «xy=k»]</t>
+  </si>
+  <si>
+    <t>Equaz. Dell’iperbole avente per &lt;...&gt; gli assi di &lt;...&gt;</t>
+  </si>
+  <si>
+    <t>[p. 144 fig.31]</t>
+  </si>
+  <si>
+    <t>[p. 144 marg. inf.]</t>
+  </si>
+  <si>
+    <t>[p. 146 fig. 32]</t>
+  </si>
+  <si>
+    <t>[p. 148 marg. sup.]</t>
+  </si>
+  <si>
+    <t>v. &lt;...&gt; p. 195</t>
+  </si>
+  <si>
+    <t>[p. 185 marg. sup.]</t>
+  </si>
+  <si>
+    <t>[p. 106 marg. sx.]</t>
+  </si>
+  <si>
+    <t>p. 78</t>
+  </si>
+  <si>
+    <t>[p. 207 rr. 16-17 «lorsque h tend vers zéro, le premier rapport du second membre a pour limie l’unité et le second, [...]»]</t>
+  </si>
+  <si>
+    <t>‡ perché &lt;...&gt; di b &lt;...&gt;</t>
+  </si>
+  <si>
+    <t>[p. 210 r. 10 «140. Derivée d’une fonction composée:»]</t>
+  </si>
+  <si>
+    <t>Di una sola &lt;...&gt; | v.p. 232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[p. 217 marg. dex] </t>
+  </si>
+  <si>
+    <t>Nell’&lt;&gt;] (a,b) | Una funz. è &lt;…&gt; se &lt;…&gt; b&gt;a | F(b)-f(a) &gt; sempre &gt; 0 | &lt;...&gt; b&gt;a | F(b)-f(a) sempre &lt;0</t>
+  </si>
+  <si>
+    <t>[p. 219 rr. 27-31 «Lemme. Si une fonction f(x) est continue et admet une derivée déterminée pour toutes les valeurs de x comprided entre deux nombres a at b, et si elle s’annulle pour ces deux nombres, sa dérivée s’annulle au moins pour une valeur de x comprise entre a et b.»]</t>
+  </si>
+  <si>
+    <t>Infatti o la funzione è [...]</t>
+  </si>
+  <si>
+    <t>[p. 235 rr.24-27 «161. Théorème d’Euler sur les fonctions homogènes. – On reconnaît qu’une function f(x,y,z) est homogène et de degree m (n°62) à ce que l’on a identiquement f(kx, ky, kz) = 𝑘 𝑚𝑓(𝑥, 𝑦, 𝑧).»]</t>
+  </si>
+  <si>
+    <t>[p. 238 rr. 1-2 «Nous démontrerons ce théorème de la même manière que la formule des accroissements finis»]</t>
+  </si>
+  <si>
+    <t>← p. 220</t>
+  </si>
+  <si>
+    <t>[p. 238 rr. 25-26 «Cette dérivée est bien déterminée dans l’intervalle (a,b) puisque 𝑓 (𝑛+1) (𝑥) est déterminée; d’apres le lemme du n°149, [...]»]</t>
+  </si>
+  <si>
+    <t>.+ v. p. 219: se f(x) è &lt;...&gt;</t>
+  </si>
+  <si>
+    <t>[p.239 rr. 21-22 «Lorsque f(x) est un polynome de degrè n, la dérivée d’ordre n+1 est nulle (n°140)»]</t>
+  </si>
+  <si>
+    <t>v.&lt;edi&gt; p. 211 esempio</t>
+  </si>
+  <si>
+    <t>[p. 243 rr. 3-6 «165. Maxima et minima d’une fonction d’une variable. – Nous avons vu dans le chapitre II comment la recherche des maxima et minima d’une fonction résulte de l’étude de la dérivée première de cette fonction [...]»]</t>
+  </si>
+  <si>
+    <t>p. 217 | collegato a “II” da una riga | + la condizione [...]</t>
+  </si>
+  <si>
+    <t>[p. 244 marg. inf.]</t>
+  </si>
+  <si>
+    <t>.+ altrimenti il 1° membro cambierebbe di segno con b</t>
+  </si>
+  <si>
+    <t>[p. 247 rr.15-17 «si en effet dans led formules (5) et (8) des n° 162 et 164, h et k sont très petits, […]»]</t>
+  </si>
+  <si>
+    <t>[p. 248 r. 26 «168. Cas ou l’on applique la formule de Maclaurin»]</t>
+  </si>
+  <si>
+    <t>[p. 249 marg. dex]</t>
+  </si>
+  <si>
+    <t>[p. 251 rr. 22-23 «en employant la formule de Taylor du n°164 pour n+1=1, nous avons»]</t>
+  </si>
+  <si>
+    <t>.+ p. 241</t>
+  </si>
+  <si>
+    <t>[p. 258 marg. sup.]</t>
+  </si>
+  <si>
+    <t>Perché la somma algebrica degli &lt;…&gt;</t>
+  </si>
+  <si>
+    <t>[p. 258 rr. 22-23 «D’apres ce que nous avons vu au n°166, [...]»]</t>
+  </si>
+  <si>
+    <t>p. 244</t>
+  </si>
+  <si>
+    <t>[p. 268 marg. sup.]</t>
+  </si>
+  <si>
+    <t>[p. 269 rr. 6-8 «En effet, d’après ce que nous avons vu aux n° 33 et 37, la série (1) est convergente et même absolument convergente pour toute valeur de x dans l’intevalle (a,b); [...]»]</t>
+  </si>
+  <si>
+    <t>p. 50 e 56 + | +&lt;...&gt;</t>
+  </si>
+  <si>
+    <t>[p. 276 rr. 21-22 «en sobstituant les valeurs trouvées dans la formule de Maclaurin, […]»]</t>
+  </si>
+  <si>
+    <t>[p. 277 rr. 15-16 «nous aurons alors recours à la forme particuliere du reste que nous avons mentionnée (n°163, formule 7); […]»]</t>
+  </si>
+  <si>
+    <t>[p. 277 marg. inf.]</t>
+  </si>
+  <si>
+    <t>[p. 285 rr. 13-14 «et elle est un polynome de degree n-1 en 𝑥0 ; la difference seconde est un polynome de degree n-2, et ainsi de suite; [...]»]</t>
+  </si>
+  <si>
+    <t>[p. 289 marg. inf.]</t>
+  </si>
+  <si>
+    <t>[p. 290 rr. 25-27 «Corollaire. On ne change pas la limite du rapport de deux infiniment petits du même ordre en augmentant ou diminuant chacun d’eux d’une quantité infiniment petite par rapport à lui.»]</t>
+  </si>
+  <si>
+    <t>[p. 292 rr. 17-20 «Théorème I. – La différentielle d’une function est égale à la dérive de cette function par rapport à la variable don’t elle depend immédiatement, multiple par la différentielle de cette variable, que celle-ci soit independent ou non.»]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v.&lt;edi&gt; p. 303 | ‡Il &lt;...&gt; totale di una funz. Composta è = somma dei prodotti delle &lt;...&gt; funzione presa
+rispetto a ciascuna variabile tra cui essa &lt;...&gt; per il &lt;...&gt; variabile sia essa &lt;...&gt;. Se una funzione composta
+f(n,v,m) e &lt;...&gt; di funz. N, v, m, &lt;...&gt;. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[p. 294 marg. sx.] </t>
+  </si>
+  <si>
+    <t>Pag. 91-92 | N°62 | Pag 235 | &lt;...&gt;</t>
+  </si>
+  <si>
+    <t>[p. 298 rr. 2-3 «D’après une formule démontrée (n°196), [...]»]</t>
+  </si>
+  <si>
+    <t>[p. 371 marg. sup.]</t>
+  </si>
+  <si>
+    <t>371-</t>
+  </si>
+  <si>
+    <t>[p. 371 marg. dex]</t>
+  </si>
+  <si>
+    <t>p. 199-125-291</t>
+  </si>
+  <si>
+    <t>[p. 371 rr. 13-15 «Soient x,y les coordonnées cartésienne du point M de la courbe; x+Δx, y+Δy celles du point voisin 𝑀′ , et X, Y les coordonnées courantes;»]</t>
+  </si>
+  <si>
+    <t>‡ p. 128</t>
+  </si>
+  <si>
+    <t>[p. 373 rr. 9-10 «nous avons vu (n°91) que les coordonnées d’un point de la courbe s’expriment au moyen du parameter angulaire φ par la formules […]»]</t>
+  </si>
+  <si>
+    <t>+ p. 196</t>
+  </si>
+  <si>
+    <t>[p. 374 rr. 14-16 «Si nous faisons ensuite z=1 dans les deux membres de cette identité, le second deviant égal à mf(x,y) et il est nul, puisque le point (x,y) est sur la courbe;»]</t>
+  </si>
+  <si>
+    <t>.+ che ha per equaz.&lt;ione&gt; appunto f(x,y)=0</t>
+  </si>
+  <si>
+    <t>[p. 375 fig. 70]</t>
+  </si>
+  <si>
+    <t>xMty | &lt;...&gt;</t>
+  </si>
+  <si>
+    <t>[p. 378 rr. 21-22 «Pour nous rendre compte de la forme d’une courbe représentée par l’equation (4)»]</t>
+  </si>
+  <si>
+    <t>F(x,y)=0</t>
+  </si>
+  <si>
+    <t>[p. 388 r. 6 «D’apres ce que nous avons dit (n°147) , […]»]</t>
+  </si>
+  <si>
+    <t>.+ Se una funz. È uguale a un lato dell’intervallo la cui derivate è vicino o nulla, ma non mai neg per ogni valore delle variabili ma pari all’intervallo (p 218)</t>
+  </si>
+  <si>
+    <t>[p. 389 rr. 9-10 «les conclusions sont inverses de celles du cas précédent. »]</t>
+  </si>
+  <si>
+    <t>.+ e cioè il tratto si curvai cui &lt;…&gt; sono &lt;...&gt; è concavo dalla parte della y &lt;...&gt; è il tratto i cui &lt;...&gt; non si
+&lt;...&gt; è convesso &lt;...&gt;</t>
+  </si>
+  <si>
+    <t>[p. 389 rr. 21-22 «Nous avons vu, dans l’étude des maxima et minima des fonctions d’une variable (n°165), […]»]</t>
+  </si>
+  <si>
+    <t>.+ p. 243</t>
+  </si>
+  <si>
+    <t>[p. 389 r. 30 «𝑏 ′𝑀′ = 𝑓(𝑥 + Δ𝑥), 𝑃 ′𝑁 ′ = 𝑓(𝑥)+ Δ𝑥𝑓 ′ (𝑥)»]</t>
+  </si>
+  <si>
+    <t>.=dy | v.&lt;edi&gt; p. 291</t>
+  </si>
+  <si>
+    <t>[p. 389 marg. dex]</t>
+  </si>
+  <si>
+    <t>Che &lt;…&gt;</t>
+  </si>
+  <si>
+    <t>[p. 389 marg. inf.]</t>
+  </si>
+  <si>
+    <t>[p. 394 rr. 8-9 «C’est ainsi que nous avons trouvé l’asymptote de la cissoïde (n°253)»]</t>
+  </si>
+  <si>
+    <t>p. 383</t>
+  </si>
+  <si>
+    <t>[p. 440 rr. 5-10 «lorsque Δa tend vers zero, C’ tend vers C, et les points communs à ces deux lignes ont des positions limites que nous appellerons points caractéristique de C; le lieu des points caractéristique de toutes les lignes C sera par definition l’anveloppe de ces lignes; nous allons determiner ce lieu par le calcul»]</t>
+  </si>
+  <si>
+    <t>Punti carattestici = posizioni limiti dei punti &lt;...&gt; alle &lt;...&gt;</t>
+  </si>
+  <si>
+    <t>[p. 441 rr. 11-12 «l’équation de la tangente en ce pointe à C est, comme nous l’avons vu au n°249»]</t>
+  </si>
+  <si>
+    <t>[p. 451 marg. sup.]</t>
+  </si>
+  <si>
+    <t>v.&lt;edi&gt; cont. 495</t>
+  </si>
+  <si>
+    <t>[p. 497 rr. 9-13 «si l’on détermine la partie principale de chacune des quantités infiniment petit données, et si la somme de ces parties principales a une limite, on est certain, d’aprés le théorème du n°193 et le precedent, que la somme donnée a la même limite.»]</t>
+  </si>
+  <si>
+    <t>p. 290 + Teorema: il limite del rapp.&lt;orto&gt; di due &lt;...&gt; è = &lt;...&gt;</t>
+  </si>
+  <si>
+    <t>[p. 498 rr. 10-11 «Nous répresentons la somme Σ par la notation ∑ 𝑓(𝑥)Δ𝑥
+𝑏
+𝑎 , [...]»]</t>
+  </si>
+  <si>
+    <t>Lim.&lt;ite&gt;</t>
+  </si>
+  <si>
+    <t>[p. 498 rr. 25-26 «𝑆 = 𝑌1Δ𝑥1 + 𝑌2Δ𝑥2 + ⋯ + 𝑌𝑛Δ𝑥𝑛, 𝑠 = 𝑦1Δ𝑥1 + 𝑦2Δ𝑥2 + ⋯ + 𝑦𝑛Δ𝑥𝑛»]</t>
+  </si>
+  <si>
+    <t>(S-s) tende a zero &lt;...&gt; con la &lt;…&gt; degli intervalli</t>
+  </si>
+  <si>
+    <t>[p. 499 rr. 6-9 «si nous parvenons à démontrer que l’une de ces dernières a une limite l, nous pouvons affirmer, d’après ce qui précède, que l’autre a la même limite, et que Σ a aussi une limite égale à l.»]</t>
+  </si>
+  <si>
+    <t>∫ come &lt;...&gt;</t>
+  </si>
+  <si>
+    <t>[p. 499 rr. 23-25 «s’=𝑦1 ′Δ𝑥1 + 𝑦2 ′Δ′𝑥2 + ⋯ +𝑦𝑛1 ′ Δ ′𝑥𝑛1 + 𝑦𝑛1+1 ′ Δ′𝑥𝑛1+1 + 𝑦𝑛1+2 ′ Δ′𝑥𝑛1+2 + ⋯ + ⋯»]</t>
+  </si>
+  <si>
+    <t>[p. 503 fig. 114]</t>
+  </si>
+  <si>
+    <t>[p. 506 rr. 9-11 «Il résulte de là quel’on peut considérer une différentielle non seulement comme la partie principale d’un accroissement infiniment petit d’une fonction (n°194), [...]»]</t>
+  </si>
+  <si>
+    <t>[p. 506 rr. 24-27 «Si en effet F(x) et 𝐹1(𝑥) désignent deux fonctions ayant f(x) comme derivée, la différence 𝐹1 (𝑥) − 𝐹(𝑥) a une derive nulle et elle est une costante (n°151); nous avons donc, en désignant par C cette costante, [...]»]</t>
+  </si>
+  <si>
+    <t>.+ Il limite di una +, una -, una x, una : = alla +, -, x, : dei limiti | p. 221 * Se una funz. Continua ha una
+&lt;...&gt; costante &lt;...&gt;</t>
+  </si>
+  <si>
+    <t>[p. 507 rr. 9-11 «Si l’on connaît une intégrale indéfinie F(x) d’une fonction f(x), l’intégrale définie de cette fonction entre les linites a et X est égale à la difference F(X)-F(a).»]</t>
+  </si>
+  <si>
+    <t>v.&lt;edi&gt; p. 592</t>
+  </si>
+  <si>
+    <t>[p. 507 r. 23 «Remarquons encore que la formule (2) du n°327 peut s’ecrire [...]»]</t>
+  </si>
+  <si>
+    <t>[p. 511 r. 6 «Comme t est égal à arc sin x […]»]</t>
+  </si>
+  <si>
+    <t>∫ essendo x=sen t t=arc sen x</t>
+  </si>
+  <si>
+    <t>[p. 511 r. 21 «nous en déduisons v=-cos x »]</t>
+  </si>
+  <si>
+    <t>.+ v.&lt;edi&gt; p. 293 d cosx=-sen xdx</t>
+  </si>
+  <si>
+    <t>[p. 527 rr. 19-20 «344. Intégration de series.- Nous avons vu (n°178) que si les termes d’une série uniformement convergent dans une intervalle»]</t>
+  </si>
+  <si>
+    <t>.+ tale cioè che se ne possa determinare il numero di termini abbastanza [...] perché il nostro
+corrispondente 𝑅𝑛 si &lt;...&gt; ad un numero &lt;...&gt;</t>
+  </si>
+  <si>
+    <t>[p. 543 rr. 3-4 «354. Aire des surfaces planes.- Nous avons vu au n°328 que l’intégrale définie […]»]</t>
+  </si>
+  <si>
+    <t>p. 503</t>
+  </si>
+  <si>
+    <t>[p. 544 r. 6 «Hyperbole.- […]»]</t>
+  </si>
+  <si>
+    <t>v.&lt;edi&gt; p.143</t>
+  </si>
+  <si>
+    <t>[p. 576 rr. 15-18 «Mais les derives partielle de F ne sont pas deux fonctions indépendantes l’une de l’autre, car la derive de la première par rapport à y at la derive de la seconde pr rapport à x doivent être identiques, (n°158); […]»]</t>
+  </si>
+  <si>
+    <t>v.&lt;edi&gt; p. 231</t>
+  </si>
+  <si>
+    <t>[p. 609 rr. 7-9 «en effet, en chacun de ses points, elle est tangent à une certaine courbe de la famille donc ce point est le point caractéristique (n°288); […]»]</t>
+  </si>
+  <si>
+    <t>+ p 439-41</t>
+  </si>
+  <si>
+    <t>[ultimo foglio di guardia]</t>
+  </si>
+  <si>
+    <t>[copertina rigida]</t>
+  </si>
+  <si>
+    <t>p. 389-374-378-379 | 35 | 39 | 60 | ____ | 55 | Tanto | Per pena ch’ io pas | non paventa tanto amorosamente</t>
+  </si>
+  <si>
+    <t>Dedica del traduttore in data 4.1941</t>
+  </si>
+  <si>
+    <t>[p. 37 rr. 13-15 «[...] vogliamo solo toccare di quello che risponde allo spirito della nazione, e di ciò che distingue, da tutte le altre guerre civili, questa della Fronda.»]</t>
+  </si>
+  <si>
+    <t>X A</t>
+  </si>
+  <si>
+    <t>[p. 48 rr. 16-18 «[…] uno di essi, Bitaut, fu fatto prigioniero dalle truppe del re, rilasciato poi per un atto d'indulgenza, e divenuto lo zimbello di tutti i partiti (6 agosto 1652»]</t>
+  </si>
+  <si>
+    <t>B X</t>
+  </si>
+  <si>
+    <t>[p. 49 rr. 9-14 «La scarsezza di danaro non permetteva né all'uno né all'altro la raccolta di grandi forze; ma anche con piccoli eserciti si decideva allora la sorte dello Stato. Ci sono momenti in cui centomila uomini mossi in guerra riescono appena a prendere due città; in altre, una battaglia sola fra sette o ottomila uomini può rovesciare un trono, o rinsaldarlo.»]</t>
+  </si>
+  <si>
+    <t>[p. 49 rr. 15-19 «Luigi XIV, cresciuto nell'avversità, girava con sua madre, suo fratello e il cardinal Mazzarino di provincia in provincia, non raccogliendo intorno a sé, neppure approssimativamente, tanti uomini quanti ne ebbe poi in tempo di pace per la sua sola guardia personale.»]</t>
+  </si>
+  <si>
+    <t>C X</t>
+  </si>
+  <si>
+    <t>[p. 49 rr. 24-25 «Tutta la speranza della corte era riposta nel maresciallo di Turenna.»]</t>
+  </si>
+  <si>
+    <t>D X</t>
+  </si>
+  <si>
+    <t>[p. 51 rr. 1-5 «Si fece andar in processione per Parigi il reliquiario di santa Genoveffa, per impetrare l'espulsione del cardinale ministro, e il popolaccio non dubitò che la santa avrebbe operato il miracolo, come riesce a far scendere la pioggia.»]</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>[p. 51 rr. 15-16 «Il duca di Lorena lasciò tosto la Francia, dopo averla devastata al suo passaggio, intascando il danaro dalle due parti»]</t>
+  </si>
+  <si>
+    <t>E E</t>
+  </si>
+  <si>
+    <t>[p. 51 rr. 27-28 «il cardinale di Retz s'era chiuso nel suo arcivescovado; [...]»]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paolo Gondi </t>
+  </si>
+  <si>
+    <t>[p. 52 rr. 20-21 «Racconta questi fatti come se si trattasse delle azioni più consuete.»]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E </t>
+  </si>
+  <si>
+    <t>Nota di possesso autografa in data 11.06.1924 Milano.</t>
+  </si>
+  <si>
+    <t>[p. 217 r. 3 «La casa degli spiriti p. 31»]</t>
+  </si>
+  <si>
+    <t>5 m.</t>
+  </si>
+  <si>
+    <t>[p. 217 r. 10 «La partita di caccia p. 101»]</t>
+  </si>
+  <si>
+    <t>20 m.</t>
+  </si>
+  <si>
+    <t>[p. 217 rr. 13-14 «La signora nello specchio p. 139 La duchessa e il gioielliere p. 149»]</t>
+  </si>
+  <si>
+    <t>12 m. | 15 m.</t>
+  </si>
+  <si>
+    <t>[p- 217 r. 17 «Il riflettore p- 181»]</t>
+  </si>
+  <si>
+    <t>10 m.</t>
+  </si>
+  <si>
+    <t>A C.E. Gadda questo miserrimo dono di Roma, 3 ott.’53</t>
+  </si>
+  <si>
+    <t>[p. IX rr. 14-22 «Un pieno distacco, dunque, dalla realtà oggettiva del “suo” popolano; e, in grazia, di quel vaneggiamentoingenuo e delicato, Giggi Zanazzo sarà involontariamente il padre putativo d’una industre genia di poetastri che per mezzo secolo almeno si baloccheranno con Nine e Mariettine e Nunziatine (non ultimo Sergio Corazzini che, dopo le scialbe prove in dialetto, trasferendo alla lingua quei toni artificiosi, darà la mossa alla poesia cosiddetta “crepuscolare”.»]</t>
+  </si>
+  <si>
+    <t>Nota di possesso e data 18.05.1924, Milano</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nota di possesso autografa.</t>
+  </si>
+  <si>
+    <t>Timbro della libreria italiana A. Mele di Buenos Aires.</t>
+  </si>
+  <si>
+    <t>Nota di possesso autografa di Enrico Gadda in data 1.09.1917.</t>
   </si>
 </sst>
 </file>
@@ -6537,7 +7337,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -6562,6 +7362,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -6880,11 +7683,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136E0D60-51E6-464F-AE7B-AB655C9FB227}">
-  <dimension ref="A1:F1503"/>
+  <dimension ref="A1:F1704"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1501" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1503" sqref="A1503"/>
+      <pane ySplit="1" topLeftCell="A1703" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1704" sqref="A1704"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="43.21875" defaultRowHeight="58.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -22058,6 +22861,1837 @@
         <v>2108</v>
       </c>
     </row>
+    <row r="1504" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1504" s="8">
+        <v>2813</v>
+      </c>
+      <c r="C1504" s="3" t="s">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="1505" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1505" s="8">
+        <v>2815</v>
+      </c>
+      <c r="C1505" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="1506" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1506" s="8">
+        <v>2846</v>
+      </c>
+      <c r="C1506" s="3" t="s">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="1507" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1507" s="8">
+        <v>2848</v>
+      </c>
+      <c r="B1507" s="3" t="s">
+        <v>2110</v>
+      </c>
+    </row>
+    <row r="1508" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1508" s="8">
+        <v>2859</v>
+      </c>
+      <c r="D1508" t="s">
+        <v>2111</v>
+      </c>
+      <c r="E1508" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1508" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1509" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1509" s="8">
+        <v>2863</v>
+      </c>
+      <c r="B1509" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1510" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1510" s="8">
+        <v>2866</v>
+      </c>
+      <c r="B1510" s="1" t="s">
+        <v>2112</v>
+      </c>
+    </row>
+    <row r="1511" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1511" s="8">
+        <v>2867</v>
+      </c>
+      <c r="B1511" s="3" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="1512" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1512" s="8">
+        <v>2869</v>
+      </c>
+      <c r="B1512" s="3" t="s">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="1513" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1513" s="8">
+        <v>2871</v>
+      </c>
+      <c r="C1513" s="3" t="s">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="1514" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1514" s="8">
+        <v>2874</v>
+      </c>
+      <c r="C1514" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="1515" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1515" s="8">
+        <v>2875</v>
+      </c>
+      <c r="C1515" s="3" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="1516" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1516" s="8">
+        <v>2876</v>
+      </c>
+      <c r="C1516" s="3" t="s">
+        <v>2115</v>
+      </c>
+    </row>
+    <row r="1517" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1517" s="8">
+        <v>2877</v>
+      </c>
+      <c r="C1517" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="1518" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1518" s="8">
+        <v>2878</v>
+      </c>
+      <c r="C1518" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="1519" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1519" s="8">
+        <v>2887</v>
+      </c>
+      <c r="B1519" s="1" t="s">
+        <v>2116</v>
+      </c>
+    </row>
+    <row r="1520" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1520" s="8">
+        <v>2892</v>
+      </c>
+      <c r="D1520" t="s">
+        <v>945</v>
+      </c>
+      <c r="E1520" t="s">
+        <v>2117</v>
+      </c>
+    </row>
+    <row r="1521" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1521" s="8">
+        <v>2892</v>
+      </c>
+      <c r="D1521" t="s">
+        <v>2118</v>
+      </c>
+      <c r="E1521" t="s">
+        <v>2119</v>
+      </c>
+    </row>
+    <row r="1522" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1522" s="8">
+        <v>2892</v>
+      </c>
+      <c r="D1522" t="s">
+        <v>2120</v>
+      </c>
+      <c r="E1522" t="s">
+        <v>2121</v>
+      </c>
+    </row>
+    <row r="1523" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1523" s="8">
+        <v>2905</v>
+      </c>
+      <c r="C1523" s="1" t="s">
+        <v>2122</v>
+      </c>
+    </row>
+    <row r="1524" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1524" s="8">
+        <v>2906</v>
+      </c>
+      <c r="C1524" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="1525" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1525" s="8">
+        <v>2910</v>
+      </c>
+      <c r="B1525" s="12" t="s">
+        <v>2123</v>
+      </c>
+    </row>
+    <row r="1526" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1526" s="8">
+        <v>2917</v>
+      </c>
+      <c r="B1526" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1527" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1527" s="8">
+        <v>2919</v>
+      </c>
+      <c r="D1527" s="1" t="s">
+        <v>2124</v>
+      </c>
+      <c r="E1527" s="1" t="s">
+        <v>2125</v>
+      </c>
+    </row>
+    <row r="1528" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1528" s="8">
+        <v>2919</v>
+      </c>
+      <c r="D1528" s="1" t="s">
+        <v>2126</v>
+      </c>
+      <c r="E1528" s="1" t="s">
+        <v>2127</v>
+      </c>
+    </row>
+    <row r="1529" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1529" s="8">
+        <v>2919</v>
+      </c>
+      <c r="D1529" t="s">
+        <v>2128</v>
+      </c>
+      <c r="E1529" t="s">
+        <v>2129</v>
+      </c>
+    </row>
+    <row r="1530" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1530" s="8">
+        <v>2919</v>
+      </c>
+      <c r="D1530" t="s">
+        <v>2130</v>
+      </c>
+      <c r="E1530" s="1" t="s">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="1531" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1531" s="8">
+        <v>2919</v>
+      </c>
+      <c r="D1531" t="s">
+        <v>2132</v>
+      </c>
+      <c r="E1531" s="1" t="s">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="1532" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1532" s="8">
+        <v>2919</v>
+      </c>
+      <c r="D1532" t="s">
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="1533" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1533" s="8">
+        <v>2919</v>
+      </c>
+      <c r="D1533" t="s">
+        <v>2134</v>
+      </c>
+      <c r="E1533" s="1" t="s">
+        <v>2135</v>
+      </c>
+    </row>
+    <row r="1534" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1534" s="8">
+        <v>2919</v>
+      </c>
+      <c r="D1534" t="s">
+        <v>2136</v>
+      </c>
+    </row>
+    <row r="1535" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1535" s="8">
+        <v>2919</v>
+      </c>
+      <c r="D1535" t="s">
+        <v>2137</v>
+      </c>
+    </row>
+    <row r="1536" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1536" s="8">
+        <v>2919</v>
+      </c>
+      <c r="D1536" t="s">
+        <v>2138</v>
+      </c>
+    </row>
+    <row r="1537" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1537" s="8">
+        <v>2919</v>
+      </c>
+      <c r="D1537" t="s">
+        <v>2139</v>
+      </c>
+    </row>
+    <row r="1538" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1538" s="8">
+        <v>2919</v>
+      </c>
+      <c r="D1538" t="s">
+        <v>2140</v>
+      </c>
+      <c r="E1538" s="1" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="1539" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1539" s="8">
+        <v>2919</v>
+      </c>
+      <c r="D1539" t="s">
+        <v>2142</v>
+      </c>
+      <c r="E1539" s="1" t="s">
+        <v>2143</v>
+      </c>
+    </row>
+    <row r="1540" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1540" s="8">
+        <v>2919</v>
+      </c>
+      <c r="D1540" t="s">
+        <v>2144</v>
+      </c>
+    </row>
+    <row r="1541" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1541" s="8">
+        <v>2919</v>
+      </c>
+      <c r="D1541" t="s">
+        <v>2145</v>
+      </c>
+    </row>
+    <row r="1542" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1542" s="8">
+        <v>2919</v>
+      </c>
+      <c r="D1542" t="s">
+        <v>2146</v>
+      </c>
+    </row>
+    <row r="1543" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1543" s="8">
+        <v>2919</v>
+      </c>
+      <c r="D1543" t="s">
+        <v>2147</v>
+      </c>
+    </row>
+    <row r="1544" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1544" s="8">
+        <v>2919</v>
+      </c>
+      <c r="D1544" t="s">
+        <v>2148</v>
+      </c>
+    </row>
+    <row r="1545" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1545" s="8">
+        <v>2919</v>
+      </c>
+      <c r="D1545" t="s">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="1546" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1546" s="8">
+        <v>2919</v>
+      </c>
+      <c r="D1546" t="s">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="1547" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1547" s="8">
+        <v>2919</v>
+      </c>
+      <c r="D1547" t="s">
+        <v>2151</v>
+      </c>
+      <c r="E1547" t="s">
+        <v>2156</v>
+      </c>
+    </row>
+    <row r="1548" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1548" s="8">
+        <v>2919</v>
+      </c>
+      <c r="D1548" t="s">
+        <v>2152</v>
+      </c>
+    </row>
+    <row r="1549" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1549" s="8">
+        <v>2919</v>
+      </c>
+      <c r="D1549" t="s">
+        <v>2153</v>
+      </c>
+      <c r="E1549" t="s">
+        <v>2157</v>
+      </c>
+    </row>
+    <row r="1550" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1550" s="8">
+        <v>2919</v>
+      </c>
+      <c r="D1550" t="s">
+        <v>2154</v>
+      </c>
+      <c r="E1550" s="1" t="s">
+        <v>2158</v>
+      </c>
+    </row>
+    <row r="1551" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1551" s="8">
+        <v>2919</v>
+      </c>
+      <c r="D1551" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E1551" t="s">
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="1552" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1552" s="8">
+        <v>2919</v>
+      </c>
+      <c r="D1552" t="s">
+        <v>2161</v>
+      </c>
+      <c r="E1552" t="s">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="1553" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1553" s="8">
+        <v>2919</v>
+      </c>
+      <c r="D1553" t="s">
+        <v>2162</v>
+      </c>
+      <c r="E1553" s="1" t="s">
+        <v>2163</v>
+      </c>
+    </row>
+    <row r="1554" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1554" s="8">
+        <v>2919</v>
+      </c>
+      <c r="D1554" t="s">
+        <v>2164</v>
+      </c>
+      <c r="E1554" t="s">
+        <v>2165</v>
+      </c>
+    </row>
+    <row r="1555" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1555" s="8">
+        <v>2919</v>
+      </c>
+      <c r="D1555" t="s">
+        <v>2166</v>
+      </c>
+      <c r="E1555" t="s">
+        <v>2167</v>
+      </c>
+    </row>
+    <row r="1556" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1556" s="8">
+        <v>2919</v>
+      </c>
+      <c r="D1556" t="s">
+        <v>2168</v>
+      </c>
+      <c r="E1556" s="1" t="s">
+        <v>2169</v>
+      </c>
+    </row>
+    <row r="1557" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1557" s="8">
+        <v>2919</v>
+      </c>
+      <c r="D1557" t="s">
+        <v>2170</v>
+      </c>
+      <c r="E1557" t="s">
+        <v>2171</v>
+      </c>
+    </row>
+    <row r="1558" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1558" s="8">
+        <v>2919</v>
+      </c>
+      <c r="D1558" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="1559" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1559" s="8">
+        <v>2919</v>
+      </c>
+      <c r="D1559" t="s">
+        <v>2173</v>
+      </c>
+      <c r="E1559" t="s">
+        <v>2174</v>
+      </c>
+    </row>
+    <row r="1560" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1560" s="8">
+        <v>2919</v>
+      </c>
+      <c r="D1560" t="s">
+        <v>2175</v>
+      </c>
+    </row>
+    <row r="1561" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1561" s="8">
+        <v>2919</v>
+      </c>
+      <c r="D1561" t="s">
+        <v>2176</v>
+      </c>
+    </row>
+    <row r="1562" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1562" s="8">
+        <v>2919</v>
+      </c>
+      <c r="D1562" t="s">
+        <v>2177</v>
+      </c>
+      <c r="E1562" t="s">
+        <v>2178</v>
+      </c>
+    </row>
+    <row r="1563" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1563" s="8">
+        <v>2919</v>
+      </c>
+      <c r="D1563" t="s">
+        <v>2181</v>
+      </c>
+      <c r="E1563" t="s">
+        <v>2179</v>
+      </c>
+    </row>
+    <row r="1564" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1564" s="8">
+        <v>2919</v>
+      </c>
+      <c r="D1564" t="s">
+        <v>2180</v>
+      </c>
+      <c r="E1564" t="s">
+        <v>2182</v>
+      </c>
+    </row>
+    <row r="1565" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1565" s="8">
+        <v>2919</v>
+      </c>
+      <c r="D1565" t="s">
+        <v>2183</v>
+      </c>
+      <c r="E1565" s="1" t="s">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="1566" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1566" s="8">
+        <v>2919</v>
+      </c>
+      <c r="D1566" t="s">
+        <v>2185</v>
+      </c>
+      <c r="E1566" s="1" t="s">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="1567" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1567" s="8">
+        <v>2919</v>
+      </c>
+      <c r="D1567" t="s">
+        <v>2186</v>
+      </c>
+      <c r="E1567" t="s">
+        <v>2187</v>
+      </c>
+    </row>
+    <row r="1568" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1568" s="8">
+        <v>2919</v>
+      </c>
+      <c r="D1568" t="s">
+        <v>2188</v>
+      </c>
+      <c r="E1568" t="s">
+        <v>2189</v>
+      </c>
+    </row>
+    <row r="1569" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1569" s="8">
+        <v>2919</v>
+      </c>
+      <c r="D1569"/>
+    </row>
+    <row r="1570" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1570" s="8">
+        <v>2919</v>
+      </c>
+    </row>
+    <row r="1571" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1571" s="8">
+        <v>2919</v>
+      </c>
+      <c r="D1571" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E1571" t="s">
+        <v>2191</v>
+      </c>
+    </row>
+    <row r="1572" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1572" s="8">
+        <v>2919</v>
+      </c>
+      <c r="D1572" t="s">
+        <v>2192</v>
+      </c>
+      <c r="E1572" t="s">
+        <v>2189</v>
+      </c>
+    </row>
+    <row r="1573" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1573" s="8">
+        <v>2919</v>
+      </c>
+      <c r="D1573" t="s">
+        <v>2193</v>
+      </c>
+    </row>
+    <row r="1574" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1574" s="8">
+        <v>2919</v>
+      </c>
+      <c r="D1574" t="s">
+        <v>2194</v>
+      </c>
+      <c r="E1574" s="1" t="s">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="1575" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1575" s="8">
+        <v>2919</v>
+      </c>
+      <c r="D1575" t="s">
+        <v>2196</v>
+      </c>
+      <c r="E1575" t="s">
+        <v>2197</v>
+      </c>
+    </row>
+    <row r="1576" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1576" s="8">
+        <v>2919</v>
+      </c>
+      <c r="D1576" t="s">
+        <v>2198</v>
+      </c>
+    </row>
+    <row r="1577" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1577" s="8">
+        <v>2919</v>
+      </c>
+      <c r="D1577" t="s">
+        <v>2199</v>
+      </c>
+    </row>
+    <row r="1578" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1578" s="8">
+        <v>2919</v>
+      </c>
+      <c r="D1578" t="s">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="1579" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1579" s="8">
+        <v>2919</v>
+      </c>
+      <c r="D1579" t="s">
+        <v>2201</v>
+      </c>
+    </row>
+    <row r="1580" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1580" s="8">
+        <v>2919</v>
+      </c>
+      <c r="D1580" t="s">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="1581" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1581" s="8">
+        <v>2919</v>
+      </c>
+      <c r="D1581" t="s">
+        <v>2204</v>
+      </c>
+      <c r="E1581" s="1" t="s">
+        <v>2203</v>
+      </c>
+    </row>
+    <row r="1582" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1582" s="8">
+        <v>2919</v>
+      </c>
+      <c r="D1582" t="s">
+        <v>2205</v>
+      </c>
+      <c r="E1582" s="1" t="s">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="1583" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1583" s="8">
+        <v>2919</v>
+      </c>
+      <c r="D1583" t="s">
+        <v>2207</v>
+      </c>
+      <c r="E1583" s="1" t="s">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="1584" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1584" s="8">
+        <v>2919</v>
+      </c>
+      <c r="D1584" t="s">
+        <v>2209</v>
+      </c>
+    </row>
+    <row r="1585" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1585" s="8">
+        <v>2919</v>
+      </c>
+      <c r="D1585" t="s">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="1586" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1586" s="8">
+        <v>2919</v>
+      </c>
+      <c r="D1586" t="s">
+        <v>2211</v>
+      </c>
+    </row>
+    <row r="1587" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1587" s="8">
+        <v>2919</v>
+      </c>
+      <c r="D1587" t="s">
+        <v>2212</v>
+      </c>
+      <c r="E1587" s="1" t="s">
+        <v>2213</v>
+      </c>
+    </row>
+    <row r="1588" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1588" s="8">
+        <v>2919</v>
+      </c>
+      <c r="D1588" t="s">
+        <v>2214</v>
+      </c>
+      <c r="E1588" s="1" t="s">
+        <v>2213</v>
+      </c>
+    </row>
+    <row r="1589" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1589" s="8">
+        <v>2919</v>
+      </c>
+    </row>
+    <row r="1590" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1590" s="8">
+        <v>2919</v>
+      </c>
+    </row>
+    <row r="1591" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1591" s="8">
+        <v>2919</v>
+      </c>
+      <c r="D1591" t="s">
+        <v>2215</v>
+      </c>
+      <c r="E1591" t="s">
+        <v>2216</v>
+      </c>
+    </row>
+    <row r="1592" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1592" s="8">
+        <v>2919</v>
+      </c>
+    </row>
+    <row r="1593" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1593" s="8">
+        <v>2919</v>
+      </c>
+    </row>
+    <row r="1594" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1594" s="8">
+        <v>2919</v>
+      </c>
+      <c r="D1594" t="s">
+        <v>2217</v>
+      </c>
+      <c r="E1594" s="1" t="s">
+        <v>2218</v>
+      </c>
+    </row>
+    <row r="1595" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1595" s="8">
+        <v>2919</v>
+      </c>
+      <c r="D1595" t="s">
+        <v>2219</v>
+      </c>
+      <c r="E1595" s="1" t="s">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="1596" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1596" s="8">
+        <v>2919</v>
+      </c>
+    </row>
+    <row r="1597" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1597" s="8">
+        <v>2919</v>
+      </c>
+      <c r="D1597" t="s">
+        <v>2221</v>
+      </c>
+      <c r="E1597" s="1" t="s">
+        <v>2222</v>
+      </c>
+    </row>
+    <row r="1598" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1598" s="8">
+        <v>2919</v>
+      </c>
+    </row>
+    <row r="1599" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1599" s="8">
+        <v>2919</v>
+      </c>
+      <c r="D1599" t="s">
+        <v>2223</v>
+      </c>
+      <c r="E1599" t="s">
+        <v>2224</v>
+      </c>
+    </row>
+    <row r="1600" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1600" s="8">
+        <v>2919</v>
+      </c>
+    </row>
+    <row r="1601" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1601" s="8">
+        <v>2919</v>
+      </c>
+      <c r="D1601" t="s">
+        <v>2225</v>
+      </c>
+    </row>
+    <row r="1602" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1602" s="8">
+        <v>2919</v>
+      </c>
+      <c r="D1602" t="s">
+        <v>2226</v>
+      </c>
+      <c r="E1602" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="1603" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1603" s="8">
+        <v>2919</v>
+      </c>
+      <c r="D1603" t="s">
+        <v>2228</v>
+      </c>
+      <c r="E1603" s="1" t="s">
+        <v>2229</v>
+      </c>
+    </row>
+    <row r="1604" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1604" s="8">
+        <v>2919</v>
+      </c>
+      <c r="D1604" t="s">
+        <v>2230</v>
+      </c>
+      <c r="E1604" s="1" t="s">
+        <v>2231</v>
+      </c>
+    </row>
+    <row r="1605" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1605" s="8">
+        <v>2919</v>
+      </c>
+      <c r="D1605" t="s">
+        <v>2232</v>
+      </c>
+      <c r="E1605" t="s">
+        <v>2233</v>
+      </c>
+    </row>
+    <row r="1606" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1606" s="8">
+        <v>2919</v>
+      </c>
+      <c r="D1606" t="s">
+        <v>739</v>
+      </c>
+      <c r="E1606" s="1" t="s">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="1607" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1607" s="8">
+        <v>2919</v>
+      </c>
+      <c r="D1607" t="s">
+        <v>2234</v>
+      </c>
+      <c r="E1607" t="s">
+        <v>2235</v>
+      </c>
+    </row>
+    <row r="1608" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1608" s="8">
+        <v>2919</v>
+      </c>
+    </row>
+    <row r="1609" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1609" s="8">
+        <v>2919</v>
+      </c>
+    </row>
+    <row r="1610" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1610" s="8">
+        <v>2919</v>
+      </c>
+    </row>
+    <row r="1611" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1611" s="8">
+        <v>2919</v>
+      </c>
+    </row>
+    <row r="1612" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1612" s="8">
+        <v>2919</v>
+      </c>
+      <c r="D1612" t="s">
+        <v>2236</v>
+      </c>
+    </row>
+    <row r="1613" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1613" s="8">
+        <v>2919</v>
+      </c>
+      <c r="D1613" t="s">
+        <v>2237</v>
+      </c>
+    </row>
+    <row r="1614" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1614" s="8">
+        <v>2919</v>
+      </c>
+    </row>
+    <row r="1615" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1615" s="8">
+        <v>2919</v>
+      </c>
+      <c r="D1615" t="s">
+        <v>2238</v>
+      </c>
+    </row>
+    <row r="1616" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1616" s="8">
+        <v>2919</v>
+      </c>
+      <c r="D1616" t="s">
+        <v>2239</v>
+      </c>
+      <c r="E1616" t="s">
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="1617" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1617" s="8">
+        <v>2919</v>
+      </c>
+      <c r="D1617" t="s">
+        <v>2241</v>
+      </c>
+      <c r="E1617" s="1" t="s">
+        <v>2242</v>
+      </c>
+    </row>
+    <row r="1618" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1618" s="8">
+        <v>2919</v>
+      </c>
+      <c r="D1618" t="s">
+        <v>2243</v>
+      </c>
+      <c r="E1618" t="s">
+        <v>2244</v>
+      </c>
+    </row>
+    <row r="1619" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1619" s="8">
+        <v>2919</v>
+      </c>
+      <c r="D1619" t="s">
+        <v>2245</v>
+      </c>
+      <c r="E1619">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1620" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1620" s="8">
+        <v>2919</v>
+      </c>
+      <c r="D1620" t="s">
+        <v>2246</v>
+      </c>
+      <c r="E1620" s="1" t="s">
+        <v>2247</v>
+      </c>
+    </row>
+    <row r="1621" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1621" s="8">
+        <v>2919</v>
+      </c>
+    </row>
+    <row r="1622" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1622" s="8">
+        <v>2919</v>
+      </c>
+    </row>
+    <row r="1623" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1623" s="8">
+        <v>2919</v>
+      </c>
+    </row>
+    <row r="1624" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1624" s="8">
+        <v>2919</v>
+      </c>
+      <c r="D1624" t="s">
+        <v>2248</v>
+      </c>
+    </row>
+    <row r="1625" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1625" s="8">
+        <v>2919</v>
+      </c>
+      <c r="D1625" t="s">
+        <v>2249</v>
+      </c>
+    </row>
+    <row r="1626" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1626" s="8">
+        <v>2919</v>
+      </c>
+      <c r="D1626" t="s">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="1627" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1627" s="8">
+        <v>2919</v>
+      </c>
+      <c r="D1627" t="s">
+        <v>2251</v>
+      </c>
+    </row>
+    <row r="1628" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1628" s="8">
+        <v>2919</v>
+      </c>
+      <c r="D1628" t="s">
+        <v>2252</v>
+      </c>
+    </row>
+    <row r="1629" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1629" s="8">
+        <v>2919</v>
+      </c>
+      <c r="D1629" t="s">
+        <v>2253</v>
+      </c>
+    </row>
+    <row r="1630" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1630" s="8">
+        <v>2919</v>
+      </c>
+    </row>
+    <row r="1631" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1631" s="8">
+        <v>2919</v>
+      </c>
+      <c r="D1631" t="s">
+        <v>2254</v>
+      </c>
+      <c r="E1631" s="1" t="s">
+        <v>2255</v>
+      </c>
+    </row>
+    <row r="1632" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1632" s="8">
+        <v>2919</v>
+      </c>
+      <c r="D1632" t="s">
+        <v>2256</v>
+      </c>
+      <c r="E1632" s="1" t="s">
+        <v>2257</v>
+      </c>
+    </row>
+    <row r="1633" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1633" s="8">
+        <v>2919</v>
+      </c>
+      <c r="D1633" t="s">
+        <v>2258</v>
+      </c>
+    </row>
+    <row r="1634" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1634" s="8">
+        <v>2919</v>
+      </c>
+    </row>
+    <row r="1635" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1635" s="8">
+        <v>2919</v>
+      </c>
+      <c r="D1635" t="s">
+        <v>2259</v>
+      </c>
+      <c r="E1635" t="s">
+        <v>2260</v>
+      </c>
+    </row>
+    <row r="1636" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1636" s="8">
+        <v>2919</v>
+      </c>
+      <c r="D1636" t="s">
+        <v>2261</v>
+      </c>
+      <c r="E1636" t="s">
+        <v>2262</v>
+      </c>
+    </row>
+    <row r="1637" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1637" s="8">
+        <v>2919</v>
+      </c>
+      <c r="D1637" t="s">
+        <v>2263</v>
+      </c>
+      <c r="E1637" t="s">
+        <v>2264</v>
+      </c>
+    </row>
+    <row r="1638" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1638" s="8">
+        <v>2919</v>
+      </c>
+    </row>
+    <row r="1639" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1639" s="8">
+        <v>2919</v>
+      </c>
+      <c r="D1639" t="s">
+        <v>2265</v>
+      </c>
+      <c r="E1639" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="1640" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1640" s="8">
+        <v>2919</v>
+      </c>
+    </row>
+    <row r="1641" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1641" s="8">
+        <v>2919</v>
+      </c>
+      <c r="D1641" t="s">
+        <v>2267</v>
+      </c>
+      <c r="E1641" s="1" t="s">
+        <v>2268</v>
+      </c>
+    </row>
+    <row r="1642" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1642" s="8">
+        <v>2919</v>
+      </c>
+      <c r="D1642" t="s">
+        <v>2269</v>
+      </c>
+      <c r="E1642" s="1" t="s">
+        <v>2270</v>
+      </c>
+    </row>
+    <row r="1643" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1643" s="8">
+        <v>2919</v>
+      </c>
+      <c r="D1643" t="s">
+        <v>2271</v>
+      </c>
+      <c r="E1643" t="s">
+        <v>2272</v>
+      </c>
+    </row>
+    <row r="1644" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1644" s="8">
+        <v>2919</v>
+      </c>
+      <c r="D1644" t="s">
+        <v>2273</v>
+      </c>
+      <c r="E1644" t="s">
+        <v>2274</v>
+      </c>
+    </row>
+    <row r="1645" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1645" s="8">
+        <v>2919</v>
+      </c>
+      <c r="D1645" t="s">
+        <v>2275</v>
+      </c>
+      <c r="E1645" s="1" t="s">
+        <v>2276</v>
+      </c>
+    </row>
+    <row r="1646" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1646" s="8">
+        <v>2919</v>
+      </c>
+      <c r="D1646" t="s">
+        <v>2277</v>
+      </c>
+      <c r="E1646" t="s">
+        <v>2278</v>
+      </c>
+    </row>
+    <row r="1647" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1647" s="8">
+        <v>2919</v>
+      </c>
+      <c r="D1647" t="s">
+        <v>2279</v>
+      </c>
+      <c r="E1647" s="1" t="s">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="1648" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1648" s="8">
+        <v>2919</v>
+      </c>
+      <c r="D1648" t="s">
+        <v>2281</v>
+      </c>
+      <c r="E1648" s="1" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="1649" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1649" s="8">
+        <v>2919</v>
+      </c>
+      <c r="D1649" t="s">
+        <v>2283</v>
+      </c>
+    </row>
+    <row r="1650" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1650" s="8">
+        <v>2919</v>
+      </c>
+      <c r="D1650" t="s">
+        <v>2284</v>
+      </c>
+      <c r="E1650" t="s">
+        <v>2285</v>
+      </c>
+    </row>
+    <row r="1651" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1651" s="8">
+        <v>2919</v>
+      </c>
+    </row>
+    <row r="1652" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1652" s="8">
+        <v>2919</v>
+      </c>
+      <c r="D1652" t="s">
+        <v>2286</v>
+      </c>
+      <c r="E1652" s="1" t="s">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="1653" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1653" s="8">
+        <v>2919</v>
+      </c>
+      <c r="D1653" t="s">
+        <v>2288</v>
+      </c>
+      <c r="E1653">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="1654" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1654" s="8">
+        <v>2919</v>
+      </c>
+      <c r="D1654" t="s">
+        <v>2289</v>
+      </c>
+      <c r="E1654" s="1" t="s">
+        <v>2290</v>
+      </c>
+    </row>
+    <row r="1655" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1655" s="8">
+        <v>2919</v>
+      </c>
+    </row>
+    <row r="1656" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1656" s="8">
+        <v>2919</v>
+      </c>
+    </row>
+    <row r="1657" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1657" s="8">
+        <v>2919</v>
+      </c>
+      <c r="D1657" t="s">
+        <v>2291</v>
+      </c>
+      <c r="E1657" s="1" t="s">
+        <v>2292</v>
+      </c>
+    </row>
+    <row r="1658" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1658" s="8">
+        <v>2919</v>
+      </c>
+      <c r="D1658" s="1" t="s">
+        <v>2293</v>
+      </c>
+      <c r="E1658" s="1" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="1659" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1659" s="8">
+        <v>2919</v>
+      </c>
+      <c r="D1659" t="s">
+        <v>2295</v>
+      </c>
+      <c r="E1659" s="1" t="s">
+        <v>2296</v>
+      </c>
+    </row>
+    <row r="1660" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1660" s="8">
+        <v>2919</v>
+      </c>
+      <c r="D1660" t="s">
+        <v>2297</v>
+      </c>
+      <c r="E1660" s="1" t="s">
+        <v>2298</v>
+      </c>
+    </row>
+    <row r="1661" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1661" s="8">
+        <v>2919</v>
+      </c>
+      <c r="D1661" t="s">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="1662" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1662" s="8">
+        <v>2919</v>
+      </c>
+    </row>
+    <row r="1663" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1663" s="8">
+        <v>2919</v>
+      </c>
+      <c r="D1663" t="s">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="1664" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1664" s="8">
+        <v>2919</v>
+      </c>
+      <c r="D1664" t="s">
+        <v>2301</v>
+      </c>
+    </row>
+    <row r="1665" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1665" s="8">
+        <v>2919</v>
+      </c>
+      <c r="D1665" t="s">
+        <v>2302</v>
+      </c>
+      <c r="E1665" s="1" t="s">
+        <v>2303</v>
+      </c>
+    </row>
+    <row r="1666" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1666" s="8">
+        <v>2919</v>
+      </c>
+      <c r="D1666" t="s">
+        <v>2304</v>
+      </c>
+      <c r="E1666" s="1" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="1667" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1667" s="8">
+        <v>2919</v>
+      </c>
+      <c r="D1667" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="1668" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1668" s="8">
+        <v>2919</v>
+      </c>
+    </row>
+    <row r="1669" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1669" s="8">
+        <v>2919</v>
+      </c>
+    </row>
+    <row r="1670" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1670" s="8">
+        <v>2919</v>
+      </c>
+    </row>
+    <row r="1671" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1671" s="8">
+        <v>2919</v>
+      </c>
+    </row>
+    <row r="1672" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1672" s="8">
+        <v>2919</v>
+      </c>
+      <c r="D1672" t="s">
+        <v>2307</v>
+      </c>
+      <c r="E1672" t="s">
+        <v>2308</v>
+      </c>
+    </row>
+    <row r="1673" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1673" s="8">
+        <v>2919</v>
+      </c>
+      <c r="D1673" t="s">
+        <v>2309</v>
+      </c>
+      <c r="E1673" s="1" t="s">
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="1674" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1674" s="8">
+        <v>2919</v>
+      </c>
+    </row>
+    <row r="1675" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1675" s="8">
+        <v>2919</v>
+      </c>
+    </row>
+    <row r="1676" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1676" s="8">
+        <v>2919</v>
+      </c>
+      <c r="D1676" t="s">
+        <v>2311</v>
+      </c>
+      <c r="E1676" s="1" t="s">
+        <v>2312</v>
+      </c>
+    </row>
+    <row r="1677" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1677" s="8">
+        <v>2919</v>
+      </c>
+      <c r="D1677" t="s">
+        <v>2313</v>
+      </c>
+      <c r="E1677" t="s">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="1678" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1678" s="8">
+        <v>2919</v>
+      </c>
+      <c r="D1678" t="s">
+        <v>2315</v>
+      </c>
+      <c r="E1678" s="1" t="s">
+        <v>2316</v>
+      </c>
+    </row>
+    <row r="1679" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1679" s="8">
+        <v>2919</v>
+      </c>
+      <c r="D1679" t="s">
+        <v>2317</v>
+      </c>
+      <c r="E1679" s="1" t="s">
+        <v>2318</v>
+      </c>
+    </row>
+    <row r="1680" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1680" s="8">
+        <v>2919</v>
+      </c>
+      <c r="D1680" t="s">
+        <v>2319</v>
+      </c>
+      <c r="E1680" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="1681" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1681" s="8">
+        <v>2919</v>
+      </c>
+      <c r="D1681" t="s">
+        <v>2321</v>
+      </c>
+    </row>
+    <row r="1682" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1682" s="8">
+        <v>2919</v>
+      </c>
+      <c r="D1682" t="s">
+        <v>2322</v>
+      </c>
+      <c r="E1682" t="s">
+        <v>2323</v>
+      </c>
+    </row>
+    <row r="1683" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1683" s="8">
+        <v>2923</v>
+      </c>
+      <c r="C1683" s="1" t="s">
+        <v>2324</v>
+      </c>
+    </row>
+    <row r="1684" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1684" s="8">
+        <v>2924</v>
+      </c>
+      <c r="D1684" t="s">
+        <v>2325</v>
+      </c>
+      <c r="E1684" t="s">
+        <v>2326</v>
+      </c>
+    </row>
+    <row r="1685" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1685" s="8">
+        <v>2924</v>
+      </c>
+      <c r="D1685" t="s">
+        <v>2327</v>
+      </c>
+      <c r="E1685" t="s">
+        <v>2328</v>
+      </c>
+    </row>
+    <row r="1686" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1686" s="8">
+        <v>2924</v>
+      </c>
+      <c r="D1686" t="s">
+        <v>2329</v>
+      </c>
+      <c r="E1686" t="s">
+        <v>2328</v>
+      </c>
+    </row>
+    <row r="1687" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1687" s="8">
+        <v>2924</v>
+      </c>
+      <c r="D1687" t="s">
+        <v>2330</v>
+      </c>
+      <c r="E1687" t="s">
+        <v>2331</v>
+      </c>
+    </row>
+    <row r="1688" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1688" s="8">
+        <v>2924</v>
+      </c>
+      <c r="D1688" t="s">
+        <v>2332</v>
+      </c>
+      <c r="E1688" t="s">
+        <v>2333</v>
+      </c>
+    </row>
+    <row r="1689" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1689" s="8">
+        <v>2924</v>
+      </c>
+      <c r="D1689" t="s">
+        <v>2334</v>
+      </c>
+      <c r="E1689" s="1" t="s">
+        <v>2335</v>
+      </c>
+    </row>
+    <row r="1690" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1690" s="8">
+        <v>2924</v>
+      </c>
+      <c r="D1690" t="s">
+        <v>2336</v>
+      </c>
+      <c r="E1690" t="s">
+        <v>2337</v>
+      </c>
+    </row>
+    <row r="1691" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1691" s="8">
+        <v>2924</v>
+      </c>
+      <c r="D1691" t="s">
+        <v>2338</v>
+      </c>
+      <c r="E1691" t="s">
+        <v>2339</v>
+      </c>
+    </row>
+    <row r="1692" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1692" s="8">
+        <v>2924</v>
+      </c>
+      <c r="D1692" t="s">
+        <v>2340</v>
+      </c>
+      <c r="E1692" s="1" t="s">
+        <v>2341</v>
+      </c>
+    </row>
+    <row r="1693" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1693" s="8">
+        <v>2931</v>
+      </c>
+      <c r="C1693" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="1694" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1694" s="8">
+        <v>2956</v>
+      </c>
+      <c r="B1694" s="1" t="s">
+        <v>2342</v>
+      </c>
+    </row>
+    <row r="1695" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1695" s="8">
+        <v>2957</v>
+      </c>
+      <c r="F1695" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1696" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1696" s="8">
+        <v>2959</v>
+      </c>
+      <c r="F1696" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1697" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1697" s="8">
+        <v>2963</v>
+      </c>
+      <c r="D1697" t="s">
+        <v>2343</v>
+      </c>
+      <c r="E1697" t="s">
+        <v>2344</v>
+      </c>
+    </row>
+    <row r="1698" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1698" s="8">
+        <v>2963</v>
+      </c>
+      <c r="D1698" t="s">
+        <v>2345</v>
+      </c>
+      <c r="E1698" t="s">
+        <v>2346</v>
+      </c>
+    </row>
+    <row r="1699" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1699" s="8">
+        <v>2963</v>
+      </c>
+      <c r="D1699" t="s">
+        <v>2347</v>
+      </c>
+      <c r="E1699" t="s">
+        <v>2348</v>
+      </c>
+    </row>
+    <row r="1700" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1700" s="8">
+        <v>2963</v>
+      </c>
+      <c r="D1700" t="s">
+        <v>2349</v>
+      </c>
+      <c r="E1700" t="s">
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="1701" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1701" s="8">
+        <v>2970</v>
+      </c>
+      <c r="C1701" t="s">
+        <v>2351</v>
+      </c>
+      <c r="D1701" t="s">
+        <v>2352</v>
+      </c>
+      <c r="E1701" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="1702" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1702" s="8">
+        <v>2974</v>
+      </c>
+      <c r="B1702" s="1" t="s">
+        <v>2353</v>
+      </c>
+      <c r="F1702" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1703" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1703" s="8">
+        <v>2989</v>
+      </c>
+      <c r="B1703" s="1" t="s">
+        <v>2354</v>
+      </c>
+      <c r="F1703" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1704" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1704" s="8">
+        <v>2992</v>
+      </c>
+      <c r="B1704" s="1" t="s">
+        <v>2356</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Postille.xlsx
+++ b/Postille.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5d451be126981215/Desktop/GitHub/Gadda/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="14_{63404D32-A505-46F4-822A-19EA64223499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0782F44A-454F-4E84-BC8F-59DFF8148C73}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{01D1BA58-A56F-4642-A13F-5992F19A4D87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{47043BD0-CCA9-4BF6-9B93-1764477DDE15}"/>
   </bookViews>
@@ -13514,7 +13514,7 @@
   <dimension ref="A1:F2678"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>

--- a/Postille.xlsx
+++ b/Postille.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5d451be126981215/Desktop/TesiGadda/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="216" documentId="14_{63404D32-A505-46F4-822A-19EA64223499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3BA50E9A-F041-4B9C-8DC3-AB5FDA46EDB8}"/>
+  <xr:revisionPtr revIDLastSave="218" documentId="14_{63404D32-A505-46F4-822A-19EA64223499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC453541-F6D2-4863-9E2D-AC61FF36E117}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{47043BD0-CCA9-4BF6-9B93-1764477DDE15}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4682" uniqueCount="4187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4683" uniqueCount="4188">
   <si>
     <t>Nota di possesso</t>
   </si>
@@ -12811,6 +12811,9 @@
   </si>
   <si>
     <t>Nota di possesso autografa in data 1.06.1925 Milano</t>
+  </si>
+  <si>
+    <t>Id</t>
   </si>
 </sst>
 </file>
@@ -13210,6 +13213,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
@@ -13510,8 +13517,8 @@
   <dimension ref="A1:F2678"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <pane ySplit="1" topLeftCell="A2658" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="43.21875" defaultRowHeight="58.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -13523,6 +13530,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>4187</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13582,6 +13592,7 @@
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5" s="3"/>
       <c r="D5" s="1" t="s">
         <v>10</v>
       </c>

--- a/Postille.xlsx
+++ b/Postille.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5d451be126981215/Desktop/TesiGadda/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eleonora\OneDrive\Desktop\GitHub\Gadda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="218" documentId="14_{63404D32-A505-46F4-822A-19EA64223499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC453541-F6D2-4863-9E2D-AC61FF36E117}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F034765D-7361-4E4C-8CA9-D96EB744BCCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{47043BD0-CCA9-4BF6-9B93-1764477DDE15}"/>
   </bookViews>
@@ -13213,10 +13213,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
@@ -13517,8 +13513,8 @@
   <dimension ref="A1:F2678"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2658" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <pane ySplit="1" topLeftCell="A2321" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2273" sqref="A2273:A2324"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="43.21875" defaultRowHeight="58.2" customHeight="1" x14ac:dyDescent="0.3"/>
